--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582C2CAF-E8DA-411E-BBB3-24311CB65E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C049D9D-C075-4295-9ED6-920A78FF5344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2828" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="460">
   <si>
     <t>Database</t>
   </si>
@@ -452,21 +452,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>B01</t>
-  </si>
-  <si>
-    <t>A01</t>
-  </si>
-  <si>
-    <t>A02</t>
-  </si>
-  <si>
-    <t>A03</t>
-  </si>
-  <si>
-    <t>B02</t>
-  </si>
-  <si>
     <t>PECVD of thin film layer, for perovskite</t>
   </si>
   <si>
@@ -692,9 +677,6 @@
     <t>cooling water, used</t>
   </si>
   <si>
-    <t>B03</t>
-  </si>
-  <si>
     <t>sputter process 1, perovskite cell</t>
   </si>
   <si>
@@ -710,15 +692,9 @@
     <t>sputter process 2, perovskite cell</t>
   </si>
   <si>
-    <t>B04</t>
-  </si>
-  <si>
     <t>perovskite cell, sputtered 2</t>
   </si>
   <si>
-    <t>B05</t>
-  </si>
-  <si>
     <t>spiro-OMeTAD deposition of perovskite cell</t>
   </si>
   <si>
@@ -827,9 +803,6 @@
     <t>Hydrogen</t>
   </si>
   <si>
-    <t>B06</t>
-  </si>
-  <si>
     <t>perovskite cell deposition</t>
   </si>
   <si>
@@ -878,12 +851,6 @@
     <t>nitric acid, without water, in 50% solution state</t>
   </si>
   <si>
-    <t>B07</t>
-  </si>
-  <si>
-    <t>B08</t>
-  </si>
-  <si>
     <t>perovskite cell zinc oxide deposition</t>
   </si>
   <si>
@@ -911,18 +878,12 @@
     <t>perovskite cell, sputtered 3</t>
   </si>
   <si>
-    <t>B09</t>
-  </si>
-  <si>
     <t>perovskite cell curing 1</t>
   </si>
   <si>
     <t>cured perovskite cell 1</t>
   </si>
   <si>
-    <t>B10</t>
-  </si>
-  <si>
     <t>perovskite cell contact formation</t>
   </si>
   <si>
@@ -989,9 +950,6 @@
     <t>X02</t>
   </si>
   <si>
-    <t>B11</t>
-  </si>
-  <si>
     <t>perovskite module assembly</t>
   </si>
   <si>
@@ -1004,9 +962,6 @@
     <t>Original activity in GaBi: Copper wire; technology mix; market mix, at plant; cross section 1 mm</t>
   </si>
   <si>
-    <t>C01. Module capacity: 500 Wp</t>
-  </si>
-  <si>
     <t>Original activity in GaBi: Elastomer joint tape, polyurethane (EN15804 A1-A3)</t>
   </si>
   <si>
@@ -1097,18 +1052,12 @@
     <t>metal part of electronics scrap, in copper, anode</t>
   </si>
   <si>
-    <t>C02</t>
-  </si>
-  <si>
     <t>photovoltaic cell production, perovskite</t>
   </si>
   <si>
     <t>photovoltaic cell, perovskite</t>
   </si>
   <si>
-    <t>B12. This is the final testing activity</t>
-  </si>
-  <si>
     <t>photovoltaic panel production, perovskite</t>
   </si>
   <si>
@@ -1386,6 +1335,117 @@
   </si>
   <si>
     <t>stockpiling of anode slime from electrorefining of copper, anode</t>
+  </si>
+  <si>
+    <t>A01. 
+Originally from Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>A02. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>A03. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B01. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B02. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B03. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B04. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B05. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B06. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B07. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B08. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B09. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B10. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B11. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>B12. This is the final testing activity. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>C01. Module capacity: 500 Wp. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X01. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X02. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X03. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X04. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X05. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>X09. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>Performance-based functional unit
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>C02. Production-related functional unit. 
+Roffeis et al. (2022). New insights into the environmental performance of perovskite-on-silicon tandem solar cells–a life cycle assessment of industrially manufactured modules. Sustainable Energy &amp; Fuels, 6(12), 2924-2940. DOI: 10.1039/D2SE00096B</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity production, photovoltaic, perovskite</t>
+  </si>
+  <si>
+    <t>A = e / (n x I x y x PR)
+e = 1
+n = 0.25
+I = 1700
+y = 25
+PR = 0.8
+Insolation set to 1700 to be representative of Europe (see Pallas et al. 2020, lci-PV-GaAs)</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1456,6 +1516,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1736,10 +1800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H736"/>
+  <dimension ref="A1:H748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A548" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B576" sqref="B576"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B564" sqref="B564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,6 +1815,7 @@
     <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,8 +1838,8 @@
       <c r="A4" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>139</v>
+      <c r="B4" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1902,7 +1967,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1918,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,7 +2312,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2263,7 +2328,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,8 +2634,8 @@
       <c r="A50" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>140</v>
+      <c r="B50" s="9" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2770,8 +2835,8 @@
       <c r="A66" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>141</v>
+      <c r="B66" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2894,7 +2959,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2915,12 +2980,12 @@
         <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2936,7 +3001,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2993,8 +3058,8 @@
       <c r="A83" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>138</v>
+      <c r="B83" s="9" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3335,7 +3400,7 @@
         <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3359,7 +3424,7 @@
         <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3407,7 +3472,7 @@
         <v>120</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3431,7 +3496,7 @@
         <v>121</v>
       </c>
       <c r="H106" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3565,7 +3630,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3581,15 +3646,15 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H113" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3605,15 +3670,15 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3629,10 +3694,10 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="H115" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3656,7 +3721,7 @@
         <v>136</v>
       </c>
       <c r="H116" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3664,15 +3729,15 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="5" t="s">
-        <v>142</v>
+      <c r="B120" s="9" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,7 +3761,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3778,7 +3843,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B129">
         <f>(35367093.098703/35317005.6480545)</f>
@@ -3794,10 +3859,10 @@
         <v>77</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H129" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3823,7 +3888,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B131">
         <f>296957.016*0.0018/35317005.6480545</f>
@@ -3839,10 +3904,10 @@
         <v>77</v>
       </c>
       <c r="G131" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H131" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3866,7 +3931,7 @@
         <v>118</v>
       </c>
       <c r="H132" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3895,7 +3960,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B134">
         <f>98854.182/35317005.6480545</f>
@@ -3916,7 +3981,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3932,12 +3997,12 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B136">
         <f>276.129/35317005.6480545</f>
@@ -3953,7 +4018,7 @@
         <v>77</v>
       </c>
       <c r="G136" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3979,7 +4044,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <f>44.9538012/35317005.6480545</f>
@@ -3995,12 +4060,12 @@
         <v>77</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B139">
         <f>552.258/35317005.6480545</f>
@@ -4016,12 +4081,12 @@
         <v>77</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B140">
         <f>0.0000000056882574/35317005.6480545</f>
@@ -4037,7 +4102,7 @@
         <v>77</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4058,7 +4123,7 @@
         <v>77</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4079,7 +4144,7 @@
         <v>77</v>
       </c>
       <c r="G142" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4100,7 +4165,7 @@
         <v>78</v>
       </c>
       <c r="H143" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4121,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="H144" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4142,12 +4207,12 @@
         <v>78</v>
       </c>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B146">
         <f>21.261933/35317005.6480545</f>
@@ -4163,7 +4228,7 @@
         <v>78</v>
       </c>
       <c r="H146" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4184,7 +4249,7 @@
         <v>78</v>
       </c>
       <c r="H147" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4205,7 +4270,7 @@
         <v>78</v>
       </c>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4226,7 +4291,7 @@
         <v>78</v>
       </c>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,12 +4312,12 @@
         <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B151">
         <f>0.0204887718/35317005.6480545</f>
@@ -4268,12 +4333,12 @@
         <v>78</v>
       </c>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B152">
         <f>0.00326936736/35317005.6480545</f>
@@ -4289,7 +4354,7 @@
         <v>78</v>
       </c>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4310,7 +4375,7 @@
         <v>78</v>
       </c>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4331,7 +4396,7 @@
         <v>78</v>
       </c>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4352,7 +4417,7 @@
         <v>78</v>
       </c>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4373,7 +4438,7 @@
         <v>78</v>
       </c>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4394,12 +4459,12 @@
         <v>78</v>
       </c>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B158">
         <f>0.00025679997/35317005.6480545</f>
@@ -4415,12 +4480,12 @@
         <v>78</v>
       </c>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B159">
         <f>14.910966/35317005.6480545</f>
@@ -4436,12 +4501,12 @@
         <v>78</v>
       </c>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B160">
         <f>0.102719988/35317005.6480545</f>
@@ -4457,7 +4522,7 @@
         <v>78</v>
       </c>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4478,12 +4543,12 @@
         <v>78</v>
       </c>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B162">
         <f>49703.22/35317005.6480545</f>
@@ -4499,12 +4564,12 @@
         <v>78</v>
       </c>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B163">
         <f>0.00101063214/35317005.6480545</f>
@@ -4520,12 +4585,12 @@
         <v>78</v>
       </c>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4541,12 +4606,12 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B165">
         <f>0.00000004838832/35317005.6480545</f>
@@ -4562,7 +4627,7 @@
         <v>77</v>
       </c>
       <c r="G165" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4591,7 +4656,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B167">
         <f>204.440652/35317005.6480545</f>
@@ -4607,12 +4672,12 @@
         <v>77</v>
       </c>
       <c r="G167" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B168">
         <f>8.467956/35317005.6480545</f>
@@ -4649,7 +4714,7 @@
         <v>77</v>
       </c>
       <c r="G169" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4670,12 +4735,12 @@
         <v>77</v>
       </c>
       <c r="G170" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <f>-1.4516496/35317005.6480545</f>
@@ -4691,7 +4756,7 @@
         <v>77</v>
       </c>
       <c r="G171" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -4715,7 +4780,7 @@
         <v>59</v>
       </c>
       <c r="H172" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -4739,12 +4804,12 @@
         <v>59</v>
       </c>
       <c r="H173" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B174">
         <f>0.0612112248/35317005.6480545</f>
@@ -4760,12 +4825,12 @@
         <v>78</v>
       </c>
       <c r="H174" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B175">
         <f>0.410091012/35317005.6480545</f>
@@ -4781,12 +4846,12 @@
         <v>78</v>
       </c>
       <c r="H175" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B176">
         <f>18750.474/35317005.6480545</f>
@@ -4802,12 +4867,12 @@
         <v>78</v>
       </c>
       <c r="H176" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B177">
         <f>536479.2*0.00121/35317005.6480545</f>
@@ -4823,15 +4888,15 @@
         <v>77</v>
       </c>
       <c r="G177" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4847,15 +4912,15 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B179">
         <f>3.15576*1.39/35317005.6480545</f>
@@ -4871,15 +4936,15 @@
         <v>77</v>
       </c>
       <c r="G179" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H179" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4895,10 +4960,10 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -4924,7 +4989,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B182">
         <f>376938/35317005.6480545</f>
@@ -4940,10 +5005,10 @@
         <v>77</v>
       </c>
       <c r="G182" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -4988,7 +5053,7 @@
         <v>121</v>
       </c>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5035,7 +5100,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B187">
         <f>-376938/35317005.6480545</f>
@@ -5051,15 +5116,15 @@
         <v>77</v>
       </c>
       <c r="G187" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5075,15 +5140,15 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5099,7 +5164,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5107,15 +5172,15 @@
         <v>1</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B193" s="5" t="s">
-        <v>218</v>
+      <c r="B193" s="9" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5139,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5221,7 +5286,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B202">
         <f>35317005.6480545/35266918.197406</f>
@@ -5237,12 +5302,12 @@
         <v>77</v>
       </c>
       <c r="G202" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B203">
         <f>85.8823529411765/35266918.197406</f>
@@ -5258,7 +5323,7 @@
         <v>77</v>
       </c>
       <c r="G203" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -5282,12 +5347,12 @@
         <v>116</v>
       </c>
       <c r="H204" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B205">
         <f>105192*0.0018/35266918.197406</f>
@@ -5303,10 +5368,10 @@
         <v>77</v>
       </c>
       <c r="G205" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H205" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -5330,7 +5395,7 @@
         <v>118</v>
       </c>
       <c r="H206" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5356,7 +5421,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B208">
         <f>61362/35266918.197406</f>
@@ -5372,10 +5437,10 @@
         <v>77</v>
       </c>
       <c r="G208" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H208" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -5443,7 +5508,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B212">
         <f>-15340.5/35266918.197406</f>
@@ -5459,15 +5524,15 @@
         <v>77</v>
       </c>
       <c r="G212" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H212" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5483,10 +5548,10 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H213" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5494,15 +5559,15 @@
         <v>1</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B217" s="5" t="s">
-        <v>224</v>
+      <c r="B217" s="9" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -5526,7 +5591,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -5608,7 +5673,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B226">
         <f>35266918.197406/35216830.7467575</f>
@@ -5624,12 +5689,12 @@
         <v>77</v>
       </c>
       <c r="G226" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B227">
         <f>858.823529411765/35266918.197406</f>
@@ -5645,7 +5710,7 @@
         <v>77</v>
       </c>
       <c r="G227" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,12 +5734,12 @@
         <v>116</v>
       </c>
       <c r="H228" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B229">
         <f>105192*0.0018/35266918.197406</f>
@@ -5690,10 +5755,10 @@
         <v>77</v>
       </c>
       <c r="G229" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H229" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -5717,7 +5782,7 @@
         <v>118</v>
       </c>
       <c r="H230" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -5743,7 +5808,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B232">
         <f>61362/35266918.197406</f>
@@ -5759,10 +5824,10 @@
         <v>77</v>
       </c>
       <c r="G232" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H232" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -5830,7 +5895,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B236">
         <f>-15340.5/35266918.197406</f>
@@ -5846,15 +5911,15 @@
         <v>77</v>
       </c>
       <c r="G236" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H236" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5870,10 +5935,10 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H237" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5881,15 +5946,15 @@
         <v>1</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="5" t="s">
-        <v>226</v>
+      <c r="B241" s="9" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -5913,7 +5978,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -5995,7 +6060,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B250" s="3">
         <f>35216830.7467575/35166743.2961089</f>
@@ -6011,7 +6076,7 @@
         <v>77</v>
       </c>
       <c r="G250" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -6032,12 +6097,12 @@
         <v>77</v>
       </c>
       <c r="G251" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B252">
         <f>9.0423488262031/35166743.2961089</f>
@@ -6053,7 +6118,7 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -6079,7 +6144,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B254">
         <f>-1.04509559297825/1000/35166743.2961089</f>
@@ -6095,12 +6160,12 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B255">
         <f>20.3566445936633/35166743.2961089</f>
@@ -6116,12 +6181,12 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B256">
         <f>8.60613501348175/35166743.2961089</f>
@@ -6137,12 +6202,12 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B257">
         <f>857.887165018666/35166743.2961089</f>
@@ -6158,12 +6223,12 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B258">
         <f>31.6255014222983/35166743.2961089</f>
@@ -6179,7 +6244,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,12 +6265,12 @@
         <v>77</v>
       </c>
       <c r="G259" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6221,12 +6286,12 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B261">
         <f>239.008818220243/35166743.2961089</f>
@@ -6242,12 +6307,12 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B262">
         <f>146.313383016955/35166743.2961089</f>
@@ -6263,12 +6328,12 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B263">
         <f>10269.2001744819/35166743.2961089</f>
@@ -6284,7 +6349,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6310,7 +6375,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6326,12 +6391,12 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B266">
         <f>89787.3431184791/35166743.2961089</f>
@@ -6347,7 +6412,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6373,7 +6438,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B268">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6389,12 +6454,12 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B269">
         <f>13722.5595251926/35166743.2961089</f>
@@ -6410,12 +6475,12 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B270">
         <f>133590.480145915/35166743.2961089</f>
@@ -6431,12 +6496,12 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B271">
         <f>17902.9418971056/35166743.2961089</f>
@@ -6452,12 +6517,12 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B272">
         <f>10.632711685083/35166743.2961089</f>
@@ -6473,12 +6538,12 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B273">
         <f>38.8957316343209/35166743.2961089</f>
@@ -6494,7 +6559,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6520,7 +6585,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B275">
         <f>29.3535544810412/35166743.2961089</f>
@@ -6536,7 +6601,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6562,7 +6627,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B277">
         <f>0.137225595251926/35166743.2961089</f>
@@ -6578,7 +6643,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6604,7 +6669,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B279">
         <f>1617.62622217503/35166743.2961089</f>
@@ -6620,12 +6685,12 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B280">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6641,12 +6706,12 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B281">
         <f>28808.2872151395/35166743.2961089</f>
@@ -6662,12 +6727,12 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B282">
         <f>1581.27507111491/35166743.2961089</f>
@@ -6683,7 +6748,7 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6730,7 +6795,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B285">
         <f>1.28137807486898/35166743.2961089</f>
@@ -6740,18 +6805,18 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
       </c>
       <c r="G285" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B286">
         <f>8.88785643419762/35166743.2961089</f>
@@ -6767,7 +6832,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -6788,7 +6853,7 @@
         <v>77</v>
       </c>
       <c r="G287" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -6814,7 +6879,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B289">
         <f>11.4506125839356/35166743.2961089</f>
@@ -6835,7 +6900,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B290">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6851,12 +6916,12 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B291">
         <f>4780.17636440486/35166743.2961089</f>
@@ -6872,12 +6937,12 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B292">
         <f>-1599450.64664497/35166743.2961089</f>
@@ -6893,12 +6958,12 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B293">
         <f>133590.480145915/35166743.2961089</f>
@@ -6919,7 +6984,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B294">
         <f>18993.476428909/35166743.2961089</f>
@@ -6935,12 +7000,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6956,12 +7021,12 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B296">
         <f>13359.0480145915/35166743.2961089</f>
@@ -6977,12 +7042,12 @@
         <v>77</v>
       </c>
       <c r="G296" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -6998,12 +7063,12 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B298">
         <f>192.661100618599/35166743.2961089</f>
@@ -7019,12 +7084,12 @@
         <v>77</v>
       </c>
       <c r="G298" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7040,12 +7105,12 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B300">
         <f>4.72564963781469/35166743.2961089</f>
@@ -7061,12 +7126,12 @@
         <v>78</v>
       </c>
       <c r="H300" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B301">
         <f>-189.93476428909/35166743.2961089</f>
@@ -7082,12 +7147,12 @@
         <v>77</v>
       </c>
       <c r="G301" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B302">
         <f>359876.395495118/35166743.2961089</f>
@@ -7103,12 +7168,12 @@
         <v>77</v>
       </c>
       <c r="G302" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B303">
         <f>15358.3613228977/35166743.2961089</f>
@@ -7124,12 +7189,12 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B304">
         <f>27354.241172735/35166743.2961089</f>
@@ -7145,7 +7210,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -7171,7 +7236,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B306">
         <f>7773.00911954234/35166743.2961089</f>
@@ -7187,12 +7252,12 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B307">
         <f>2296.96786341532/35166743.2961089</f>
@@ -7208,12 +7273,12 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B308">
         <f>19084.3543065593/35166743.2961089</f>
@@ -7229,12 +7294,12 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B309">
         <f>13449.9258922418/35166743.2961089</f>
@@ -7250,12 +7315,12 @@
         <v>77</v>
       </c>
       <c r="G309" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7271,12 +7336,12 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B311">
         <f>193.768348323303/35166743.2961089</f>
@@ -7292,12 +7357,12 @@
         <v>77</v>
       </c>
       <c r="G311" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7313,12 +7378,12 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B313">
         <f>4.75280854377914/35166743.2961089</f>
@@ -7336,7 +7401,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B314">
         <f>341700.819965062/35166743.2961089</f>
@@ -7352,7 +7417,7 @@
         <v>77</v>
       </c>
       <c r="G314" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -7381,7 +7446,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B316">
         <f>5752.6875/35166743.2961089</f>
@@ -7397,10 +7462,10 @@
         <v>77</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H316" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -7445,7 +7510,7 @@
         <v>121</v>
       </c>
       <c r="H318" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -7492,7 +7557,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7508,15 +7573,15 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H321" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B322">
         <f>-1438.171875/35166743.2961089</f>
@@ -7532,10 +7597,10 @@
         <v>77</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H322" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7543,15 +7608,15 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B326" s="5" t="s">
-        <v>263</v>
+      <c r="B326" s="9" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -7575,7 +7640,7 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -7657,7 +7722,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B335">
         <f>35166743.2961089/35116655.8454604</f>
@@ -7673,7 +7738,7 @@
         <v>77</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -7699,7 +7764,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7715,12 +7780,12 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B338">
         <f>-344611.622272445/35116655.8454604</f>
@@ -7736,12 +7801,12 @@
         <v>77</v>
       </c>
       <c r="G338" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B339">
         <f>525.84373595458/35116655.8454604</f>
@@ -7757,7 +7822,7 @@
         <v>77</v>
       </c>
       <c r="G339" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -7781,12 +7846,12 @@
         <v>118</v>
       </c>
       <c r="H340" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B341" s="7">
         <f>3833.80429778095/35116655.8454604</f>
@@ -7802,12 +7867,12 @@
         <v>77</v>
       </c>
       <c r="G341" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B342">
         <f>402.670926863851/35116655.8454604</f>
@@ -7823,12 +7888,12 @@
         <v>77</v>
       </c>
       <c r="G342" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B343">
         <f>-71.1588538830372/1000/35116655.8454604</f>
@@ -7844,12 +7909,12 @@
         <v>77</v>
       </c>
       <c r="G343" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B344">
         <f>48.1344226584729/35116655.8454604</f>
@@ -7865,12 +7930,12 @@
         <v>77</v>
       </c>
       <c r="G344" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B345">
         <f>202.550980112262/35116655.8454604</f>
@@ -7886,12 +7951,12 @@
         <v>77</v>
       </c>
       <c r="G345" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B346">
         <f>-972.244704538856/1000/35116655.8454604</f>
@@ -7907,12 +7972,12 @@
         <v>77</v>
       </c>
       <c r="G346" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B347">
         <f>-1204910.81002613/35116655.8454604</f>
@@ -7928,12 +7993,12 @@
         <v>77</v>
       </c>
       <c r="G347" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B348">
         <f>-940.907622084545/35116655.8454604</f>
@@ -7949,12 +8014,12 @@
         <v>77</v>
       </c>
       <c r="G348" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B349">
         <f>1599.55236661995/35116655.8454604</f>
@@ -7970,12 +8035,12 @@
         <v>77</v>
       </c>
       <c r="G349" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B350">
         <f>1621.42611656436/35116655.8454604</f>
@@ -7985,18 +8050,18 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
       </c>
       <c r="G350" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B351">
         <f>10467.5972956905/35116655.8454604</f>
@@ -8012,12 +8077,12 @@
         <v>77</v>
       </c>
       <c r="G351" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B352">
         <f>-868.709427972942/1000/35116655.8454604</f>
@@ -8033,12 +8098,12 @@
         <v>77</v>
       </c>
       <c r="G352" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B353">
         <f>-943.196952623594/35116655.8454604</f>
@@ -8054,12 +8119,12 @@
         <v>77</v>
       </c>
       <c r="G353" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B354">
         <f>2351.15891963723/35116655.8454604</f>
@@ -8075,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="G354" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -8101,7 +8166,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B356">
         <f>10493.0660979375/35116655.8454604</f>
@@ -8117,12 +8182,12 @@
         <v>77</v>
       </c>
       <c r="G356" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B357">
         <f>-1032.67097354185/1000/35116655.8454604</f>
@@ -8138,12 +8203,12 @@
         <v>77</v>
       </c>
       <c r="G357" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B358">
         <f>13404.6327615407/35116655.8454604</f>
@@ -8159,12 +8224,12 @@
         <v>77</v>
       </c>
       <c r="G358" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B359">
         <f>-1697.98441170502/35116655.8454604</f>
@@ -8180,7 +8245,7 @@
         <v>77</v>
       </c>
       <c r="G359" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -8204,7 +8269,7 @@
         <v>121</v>
       </c>
       <c r="H360" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -8251,7 +8316,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8267,15 +8332,15 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H363" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B364">
         <f>-90604.828125/35116655.8454604</f>
@@ -8291,15 +8356,15 @@
         <v>77</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H364" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B365">
         <f>362419.3125/35116655.8454604</f>
@@ -8315,10 +8380,10 @@
         <v>77</v>
       </c>
       <c r="G365" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H365" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8326,15 +8391,15 @@
         <v>1</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B369" s="5" t="s">
-        <v>280</v>
+      <c r="B369" s="9" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -8358,7 +8423,7 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -8440,7 +8505,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B378">
         <f>35116655.8454604/35066568.3948119</f>
@@ -8456,7 +8521,7 @@
         <v>77</v>
       </c>
       <c r="G378" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -8482,7 +8547,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B380">
         <f>52596/35066568.3948119</f>
@@ -8498,10 +8563,10 @@
         <v>77</v>
       </c>
       <c r="G380" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H380" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -8525,7 +8590,7 @@
         <v>121</v>
       </c>
       <c r="H381" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -8572,7 +8637,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B384">
         <f>-13149/35066568.3948119</f>
@@ -8588,15 +8653,15 @@
         <v>77</v>
       </c>
       <c r="G384" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H384" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8612,10 +8677,10 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H385" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8623,15 +8688,15 @@
         <v>1</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B389" s="5" t="s">
-        <v>281</v>
+      <c r="B389" s="9" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -8655,7 +8720,7 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -8737,7 +8802,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="B398">
         <f>35066568.3948119/35016480.9441634</f>
@@ -8753,12 +8818,12 @@
         <v>77</v>
       </c>
       <c r="G398" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B399">
         <f>70/35016480.9441634</f>
@@ -8774,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="G399" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -8798,12 +8863,12 @@
         <v>116</v>
       </c>
       <c r="H400" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B401">
         <f>52596*0.0018/35016480.9441634</f>
@@ -8819,10 +8884,10 @@
         <v>77</v>
       </c>
       <c r="G401" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H401" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -8846,7 +8911,7 @@
         <v>118</v>
       </c>
       <c r="H402" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -8872,7 +8937,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B404">
         <f>30681/35016480.9441634</f>
@@ -8888,10 +8953,10 @@
         <v>77</v>
       </c>
       <c r="G404" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H404" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -8915,7 +8980,7 @@
         <v>121</v>
       </c>
       <c r="H405" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -8962,7 +9027,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -8978,15 +9043,15 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H408" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B409">
         <f>-7670.25/35016480.9441634</f>
@@ -9002,10 +9067,10 @@
         <v>77</v>
       </c>
       <c r="G409" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H409" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9013,15 +9078,15 @@
         <v>1</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B413" s="5" t="s">
-        <v>291</v>
+      <c r="B413" s="9" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -9045,7 +9110,7 @@
         <v>6</v>
       </c>
       <c r="B416" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -9127,7 +9192,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B422" s="3">
         <f>35016480.9441634/34966393.4935149</f>
@@ -9143,12 +9208,12 @@
         <v>77</v>
       </c>
       <c r="G422" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B423">
         <f>515.294117647059/34966393.4935149</f>
@@ -9164,7 +9229,7 @@
         <v>77</v>
       </c>
       <c r="G423" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -9188,12 +9253,12 @@
         <v>116</v>
       </c>
       <c r="H424" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B425">
         <f>368172*0.0018/34966393.4935149</f>
@@ -9209,10 +9274,10 @@
         <v>77</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H425" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -9236,7 +9301,7 @@
         <v>118</v>
       </c>
       <c r="H426" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -9262,7 +9327,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B428">
         <f>219150/34966393.4935149</f>
@@ -9278,10 +9343,10 @@
         <v>77</v>
       </c>
       <c r="G428" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H428" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -9305,7 +9370,7 @@
         <v>121</v>
       </c>
       <c r="H429" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -9352,7 +9417,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B432">
         <f>-54787.5/34966393.4935149</f>
@@ -9368,15 +9433,15 @@
         <v>77</v>
       </c>
       <c r="G432" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H432" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9392,10 +9457,10 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H433" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9403,15 +9468,15 @@
         <v>1</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B437" s="5" t="s">
-        <v>294</v>
+      <c r="B437" s="9" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -9435,7 +9500,7 @@
         <v>6</v>
       </c>
       <c r="B440" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -9517,7 +9582,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B446">
         <f>34966393.4935149/34916306.0428664</f>
@@ -9533,12 +9598,12 @@
         <v>77</v>
       </c>
       <c r="G446" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B447">
         <f>100.025/34916306.0428664</f>
@@ -9554,12 +9619,12 @@
         <v>77</v>
       </c>
       <c r="G447" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="B448">
         <f>3800.95/34916306.0428664</f>
@@ -9575,7 +9640,7 @@
         <v>77</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -9601,7 +9666,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B450">
         <f>2981.5452/34916306.0428664</f>
@@ -9622,7 +9687,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="B451">
         <f>0.0000008002/34916306.0428664</f>
@@ -9638,12 +9703,12 @@
         <v>77</v>
       </c>
       <c r="G451" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B452">
         <f>100.025/34916306.0428664</f>
@@ -9659,7 +9724,7 @@
         <v>77</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -9680,12 +9745,12 @@
         <v>77</v>
       </c>
       <c r="G453" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B454">
         <f>87.6219/34916306.0428664</f>
@@ -9701,12 +9766,12 @@
         <v>77</v>
       </c>
       <c r="G454" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="B455">
         <f>685.3713/34916306.0428664</f>
@@ -9722,12 +9787,12 @@
         <v>77</v>
       </c>
       <c r="G455" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B456">
         <f>3500/50.7/34916306.0428664</f>
@@ -9743,12 +9808,12 @@
         <v>77</v>
       </c>
       <c r="G456" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B457">
         <f>24500/34916306.0428664</f>
@@ -9764,12 +9829,12 @@
         <v>77</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B458">
         <f>70000/34916306.0428664</f>
@@ -9785,7 +9850,7 @@
         <v>77</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -9809,7 +9874,7 @@
         <v>121</v>
       </c>
       <c r="H459" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -9856,7 +9921,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9872,12 +9937,12 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B463">
         <f>-1391.66666666667/34916306.0428664</f>
@@ -9893,12 +9958,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9914,10 +9979,10 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H464" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9925,15 +9990,15 @@
         <v>1</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B468" s="5" t="s">
-        <v>317</v>
+      <c r="B468" s="9" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -9957,7 +10022,7 @@
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -10039,7 +10104,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B477">
         <f>34916306.0428664/34866218.5922179</f>
@@ -10055,7 +10120,7 @@
         <v>77</v>
       </c>
       <c r="G477" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -10100,7 +10165,7 @@
         <v>121</v>
       </c>
       <c r="H479" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -10147,7 +10212,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10163,15 +10228,15 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="H482" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B483">
         <f>34866218.5922179/34866218.5922179</f>
@@ -10187,10 +10252,10 @@
         <v>77</v>
       </c>
       <c r="G483" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="H483" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
     </row>
     <row r="486" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10198,15 +10263,15 @@
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B487" s="5" t="s">
-        <v>356</v>
+      <c r="B487" s="9" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -10230,7 +10295,7 @@
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -10312,7 +10377,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B496">
         <f>34866218.5922179/34816131.1415694</f>
@@ -10328,7 +10393,7 @@
         <v>77</v>
       </c>
       <c r="G496" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -10373,7 +10438,7 @@
         <v>121</v>
       </c>
       <c r="H498" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -10423,15 +10488,15 @@
         <v>1</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B503" s="5" t="s">
-        <v>322</v>
+      <c r="B503" s="9" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -10455,7 +10520,7 @@
         <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -10537,7 +10602,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B512" s="3">
         <f>34816131.1415694/483538.053104108</f>
@@ -10553,12 +10618,12 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B513">
         <f>1644029.38055394/50.7/483538.053104108</f>
@@ -10574,15 +10639,15 @@
         <v>77</v>
       </c>
       <c r="G513" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H513" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B514">
         <f>75098.8243368525/483538.053104108</f>
@@ -10598,15 +10663,15 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="H514" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B515">
         <f>75098.8243368525/483538.053104108</f>
@@ -10622,15 +10687,15 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H515" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B516">
         <f>4833/483538.053104108</f>
@@ -10646,15 +10711,15 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H516" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B517">
         <f>4833/483538.053104108</f>
@@ -10670,15 +10735,15 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="H517" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B518">
         <f>11000000/483538.053104108</f>
@@ -10694,12 +10759,12 @@
         <v>77</v>
       </c>
       <c r="G518" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B519">
         <f>37800/483538.053104108</f>
@@ -10715,10 +10780,10 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H519" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -10742,7 +10807,7 @@
         <v>52</v>
       </c>
       <c r="H520" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -10766,12 +10831,12 @@
         <v>56</v>
       </c>
       <c r="H521" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B522">
         <f>336/483538.053104108</f>
@@ -10787,15 +10852,15 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H522" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B523">
         <f>250000/483538.053104108</f>
@@ -10811,12 +10876,12 @@
         <v>77</v>
       </c>
       <c r="G523" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B524">
         <f>177500/483538.053104108</f>
@@ -10832,12 +10897,12 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B525">
         <f>27500/483538.053104108</f>
@@ -10853,12 +10918,12 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B526">
         <f>45000/483538.053104108</f>
@@ -10874,12 +10939,12 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B527">
         <f>1500/483538.053104108</f>
@@ -10895,7 +10960,7 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -10921,7 +10986,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="B529">
         <f>75100/483538.053104108</f>
@@ -10937,10 +11002,10 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="H529" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -10964,7 +11029,7 @@
         <v>52</v>
       </c>
       <c r="H530" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -10988,7 +11053,7 @@
         <v>56</v>
       </c>
       <c r="H531" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -11012,12 +11077,12 @@
         <v>52</v>
       </c>
       <c r="H532" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B533">
         <f>8795.30683506687/483538.053104108</f>
@@ -11033,10 +11098,10 @@
         <v>77</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H533" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -11060,12 +11125,12 @@
         <v>121</v>
       </c>
       <c r="H534" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B535">
         <f>5000/483538.053104108</f>
@@ -11081,12 +11146,12 @@
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="B536">
         <f>-5000/483538.053104108</f>
@@ -11102,7 +11167,7 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -11149,7 +11214,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B539">
         <f>-2198.82670876672/483538.053104108</f>
@@ -11165,10 +11230,10 @@
         <v>77</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H539" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="542" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11176,15 +11241,15 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B543" s="5" t="s">
-        <v>353</v>
+      <c r="B543" s="9" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -11208,7 +11273,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -11290,7 +11355,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B552" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11306,12 +11371,12 @@
         <v>77</v>
       </c>
       <c r="G552" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11327,12 +11392,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11348,1573 +11413,1595 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>361</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A557" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A558" s="5" t="s">
+      <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B558" s="5" t="s">
-        <v>386</v>
+      <c r="B557" s="9" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>3</v>
+      </c>
+      <c r="B558" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>3</v>
-      </c>
-      <c r="B559" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>5</v>
-      </c>
-      <c r="B560">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B560" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B561" t="s">
-        <v>387</v>
+        <v>81</v>
       </c>
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B562" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A563" t="s">
-        <v>8</v>
-      </c>
-      <c r="B563" t="s">
-        <v>16</v>
-      </c>
+      <c r="A563" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
+      <c r="D563" s="1"/>
+      <c r="E563" s="1"/>
+      <c r="F563" s="1"/>
+      <c r="G563" s="1"/>
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F564" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A565" t="str">
+        <f>B556</f>
+        <v>electricity production, photovoltaic, perovskite</v>
+      </c>
+      <c r="B565" s="3">
+        <f>483538.053104108/483538.053104108</f>
+        <v>1</v>
+      </c>
+      <c r="C565" t="str">
+        <f>B561</f>
+        <v>kilowatt hour</v>
+      </c>
+      <c r="E565" t="str">
+        <f>B558</f>
+        <v>RER</v>
+      </c>
+      <c r="F565" t="s">
+        <v>14</v>
+      </c>
+      <c r="G565" t="str">
+        <f>B560</f>
+        <v>electricity, low voltage</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>340</v>
+      </c>
+      <c r="B566" s="4">
+        <f>1/(0.25*1700*25*0.8)</f>
+        <v>1.1764705882352942E-4</v>
+      </c>
+      <c r="C566" t="s">
+        <v>7</v>
+      </c>
+      <c r="E566" t="s">
+        <v>92</v>
+      </c>
+      <c r="F566" t="s">
+        <v>77</v>
+      </c>
+      <c r="G566" t="s">
+        <v>341</v>
+      </c>
+      <c r="H566" s="10" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A570" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B570" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>3</v>
+      </c>
+      <c r="B571" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>5</v>
+      </c>
+      <c r="B572">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>6</v>
+      </c>
+      <c r="B573" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>7</v>
+      </c>
+      <c r="B574" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>8</v>
+      </c>
+      <c r="B575" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B564" s="1"/>
-      <c r="C564" s="1"/>
-      <c r="D564" s="1"/>
-      <c r="E564" s="1"/>
-      <c r="F564" s="1"/>
-      <c r="G564" s="1"/>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
+      <c r="D576" s="1"/>
+      <c r="E576" s="1"/>
+      <c r="F576" s="1"/>
+      <c r="G576" s="1"/>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B565" s="1" t="s">
+      <c r="B577" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C565" s="1" t="s">
+      <c r="C577" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="1" t="s">
+      <c r="D577" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E565" s="1" t="s">
+      <c r="E577" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F565" s="1" t="s">
+      <c r="F577" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G565" s="1" t="s">
+      <c r="G577" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H565" s="1" t="s">
+      <c r="H577" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A566" t="str">
-        <f>B557</f>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A578" t="str">
+        <f>B569</f>
         <v>exhaust abatement, for perovskite</v>
       </c>
-      <c r="B566" s="3">
+      <c r="B578" s="3">
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C566" t="str">
-        <f>B562</f>
+      <c r="C578" t="str">
+        <f>B574</f>
         <v>cubic meter</v>
       </c>
-      <c r="E566" t="str">
-        <f>B559</f>
+      <c r="E578" t="str">
+        <f>B571</f>
         <v>DE</v>
       </c>
-      <c r="F566" t="s">
+      <c r="F578" t="s">
         <v>14</v>
       </c>
-      <c r="G566" t="str">
-        <f>B561</f>
+      <c r="G578" t="str">
+        <f>B573</f>
         <v>abated exhaust</v>
       </c>
-      <c r="H566" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A567" t="s">
+      <c r="H578" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
         <v>106</v>
       </c>
-      <c r="B567">
+      <c r="B579">
         <v>1.6111111111111111E-5</v>
       </c>
-      <c r="C567" t="s">
-        <v>79</v>
-      </c>
-      <c r="E567" t="s">
+      <c r="C579" t="s">
+        <v>79</v>
+      </c>
+      <c r="E579" t="s">
         <v>4</v>
       </c>
-      <c r="F567" t="s">
-        <v>77</v>
-      </c>
-      <c r="G567" t="s">
+      <c r="F579" t="s">
+        <v>77</v>
+      </c>
+      <c r="G579" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A568" t="s">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
         <v>100</v>
       </c>
-      <c r="B568">
+      <c r="B580">
         <v>1.6111111111111111E-2</v>
       </c>
-      <c r="C568" t="s">
-        <v>79</v>
-      </c>
-      <c r="E568" t="s">
+      <c r="C580" t="s">
+        <v>79</v>
+      </c>
+      <c r="E580" t="s">
         <v>53</v>
       </c>
-      <c r="F568" t="s">
-        <v>77</v>
-      </c>
-      <c r="G568" t="s">
+      <c r="F580" t="s">
+        <v>77</v>
+      </c>
+      <c r="G580" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A569" t="s">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
         <v>51</v>
       </c>
-      <c r="B569">
+      <c r="B581">
         <f>1/3.6</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="C569" t="s">
+      <c r="C581" t="s">
         <v>81</v>
       </c>
-      <c r="E569" t="s">
+      <c r="E581" t="s">
         <v>119</v>
       </c>
-      <c r="F569" t="s">
-        <v>77</v>
-      </c>
-      <c r="G569" t="s">
+      <c r="F581" t="s">
+        <v>77</v>
+      </c>
+      <c r="G581" t="s">
         <v>52</v>
       </c>
-      <c r="H569" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A570" t="s">
-        <v>113</v>
-      </c>
-      <c r="B570">
-        <v>1</v>
-      </c>
-      <c r="C570" t="s">
-        <v>79</v>
-      </c>
-      <c r="E570" t="s">
-        <v>92</v>
-      </c>
-      <c r="F570" t="s">
-        <v>77</v>
-      </c>
-      <c r="G570" t="s">
-        <v>120</v>
-      </c>
-      <c r="H570" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A571" t="s">
-        <v>389</v>
-      </c>
-      <c r="B571">
-        <v>0.23200000000000001</v>
-      </c>
-      <c r="C571" t="s">
-        <v>135</v>
-      </c>
-      <c r="E571" t="s">
-        <v>92</v>
-      </c>
-      <c r="F571" t="s">
-        <v>77</v>
-      </c>
-      <c r="G571" t="s">
-        <v>390</v>
-      </c>
-      <c r="H571" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A572" t="s">
-        <v>114</v>
-      </c>
-      <c r="B572">
-        <v>4</v>
-      </c>
-      <c r="C572" t="s">
-        <v>135</v>
-      </c>
-      <c r="E572" t="s">
-        <v>92</v>
-      </c>
-      <c r="F572" t="s">
-        <v>77</v>
-      </c>
-      <c r="G572" t="s">
-        <v>121</v>
-      </c>
-      <c r="H572" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A573" t="s">
-        <v>395</v>
-      </c>
-      <c r="B573">
-        <v>0</v>
-      </c>
-      <c r="C573" t="s">
-        <v>79</v>
-      </c>
-      <c r="D573" t="s">
-        <v>62</v>
-      </c>
-      <c r="F573" t="s">
-        <v>78</v>
-      </c>
-      <c r="H573" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A574" t="s">
-        <v>396</v>
-      </c>
-      <c r="B574">
-        <v>0</v>
-      </c>
-      <c r="C574" t="s">
-        <v>79</v>
-      </c>
-      <c r="D574" t="s">
-        <v>62</v>
-      </c>
-      <c r="F574" t="s">
-        <v>78</v>
-      </c>
-      <c r="H574" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A575" t="s">
-        <v>397</v>
-      </c>
-      <c r="B575">
-        <v>0</v>
-      </c>
-      <c r="C575" t="s">
-        <v>79</v>
-      </c>
-      <c r="D575" t="s">
-        <v>62</v>
-      </c>
-      <c r="F575" t="s">
-        <v>78</v>
-      </c>
-      <c r="H575" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A576" t="s">
-        <v>398</v>
-      </c>
-      <c r="B576">
-        <v>0</v>
-      </c>
-      <c r="C576" t="s">
-        <v>79</v>
-      </c>
-      <c r="D576" t="s">
-        <v>62</v>
-      </c>
-      <c r="F576" t="s">
-        <v>78</v>
-      </c>
-      <c r="H576" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="579" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A579" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="580" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A580" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A581" t="s">
-        <v>3</v>
-      </c>
-      <c r="B581" t="s">
-        <v>92</v>
+      <c r="H581" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="B582">
         <v>1</v>
       </c>
+      <c r="C582" t="s">
+        <v>79</v>
+      </c>
+      <c r="E582" t="s">
+        <v>92</v>
+      </c>
+      <c r="F582" t="s">
+        <v>77</v>
+      </c>
+      <c r="G582" t="s">
+        <v>120</v>
+      </c>
+      <c r="H582" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>6</v>
-      </c>
-      <c r="B583" t="s">
-        <v>145</v>
+        <v>372</v>
+      </c>
+      <c r="B583">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C583" t="s">
+        <v>135</v>
+      </c>
+      <c r="E583" t="s">
+        <v>92</v>
+      </c>
+      <c r="F583" t="s">
+        <v>77</v>
+      </c>
+      <c r="G583" t="s">
+        <v>373</v>
+      </c>
+      <c r="H583" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>7</v>
-      </c>
-      <c r="B584" t="s">
-        <v>7</v>
+        <v>114</v>
+      </c>
+      <c r="B584">
+        <v>4</v>
+      </c>
+      <c r="C584" t="s">
+        <v>135</v>
+      </c>
+      <c r="E584" t="s">
+        <v>92</v>
+      </c>
+      <c r="F584" t="s">
+        <v>77</v>
+      </c>
+      <c r="G584" t="s">
+        <v>121</v>
+      </c>
+      <c r="H584" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>378</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+      <c r="C585" t="s">
+        <v>79</v>
+      </c>
+      <c r="D585" t="s">
+        <v>62</v>
+      </c>
+      <c r="F585" t="s">
+        <v>78</v>
+      </c>
+      <c r="H585" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>379</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+      <c r="C586" t="s">
+        <v>79</v>
+      </c>
+      <c r="D586" t="s">
+        <v>62</v>
+      </c>
+      <c r="F586" t="s">
+        <v>78</v>
+      </c>
+      <c r="H586" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>380</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+      <c r="C587" t="s">
+        <v>79</v>
+      </c>
+      <c r="D587" t="s">
+        <v>62</v>
+      </c>
+      <c r="F587" t="s">
+        <v>78</v>
+      </c>
+      <c r="H587" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>381</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+      <c r="C588" t="s">
+        <v>79</v>
+      </c>
+      <c r="D588" t="s">
+        <v>62</v>
+      </c>
+      <c r="F588" t="s">
+        <v>78</v>
+      </c>
+      <c r="H588" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A592" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B592" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>3</v>
+      </c>
+      <c r="B593" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>6</v>
+      </c>
+      <c r="B595" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>7</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
         <v>8</v>
       </c>
-      <c r="B585" t="s">
+      <c r="B597" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B586" s="1"/>
-      <c r="C586" s="1"/>
-      <c r="D586" s="1"/>
-      <c r="E586" s="1"/>
-      <c r="F586" s="1"/>
-      <c r="G586" s="1"/>
-    </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
+      <c r="D598" s="1"/>
+      <c r="E598" s="1"/>
+      <c r="F598" s="1"/>
+      <c r="G598" s="1"/>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="B599" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C587" s="1" t="s">
+      <c r="C599" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D587" s="1" t="s">
+      <c r="D599" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E587" s="1" t="s">
+      <c r="E599" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F587" s="1" t="s">
+      <c r="F599" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G587" s="1" t="s">
+      <c r="G599" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H587" s="1" t="s">
+      <c r="H599" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A588" t="str">
-        <f>B579</f>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A600" t="str">
+        <f>B591</f>
         <v>tray cleaning, for perovskite</v>
       </c>
-      <c r="B588">
+      <c r="B600">
         <f>34866218.5922179/34866218.5922179</f>
         <v>1</v>
       </c>
-      <c r="C588" t="s">
+      <c r="C600" t="s">
         <v>7</v>
       </c>
-      <c r="E588" t="s">
+      <c r="E600" t="s">
         <v>92</v>
       </c>
-      <c r="F588" t="s">
+      <c r="F600" t="s">
         <v>14</v>
       </c>
-      <c r="G588" t="str">
-        <f>B583</f>
+      <c r="G600" t="str">
+        <f>B595</f>
         <v>tray cleaning</v>
       </c>
-      <c r="H588" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A589" t="s">
-        <v>364</v>
-      </c>
-      <c r="B589">
+      <c r="H600" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>347</v>
+      </c>
+      <c r="B601">
         <f>2.10977682373547E-07/0.7</f>
         <v>3.0139668910506718E-7</v>
       </c>
-      <c r="C589" t="s">
-        <v>79</v>
-      </c>
-      <c r="E589" t="s">
+      <c r="C601" t="s">
+        <v>79</v>
+      </c>
+      <c r="E601" t="s">
         <v>53</v>
       </c>
-      <c r="F589" t="s">
-        <v>77</v>
-      </c>
-      <c r="G589" t="s">
-        <v>365</v>
-      </c>
-      <c r="H589" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A590" t="s">
+      <c r="F601" t="s">
+        <v>77</v>
+      </c>
+      <c r="G601" t="s">
+        <v>348</v>
+      </c>
+      <c r="H601" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
         <v>100</v>
       </c>
-      <c r="B590">
+      <c r="B602">
         <f>0.0000372313557129788</f>
         <v>3.7231355712978797E-5</v>
       </c>
-      <c r="C590" t="s">
-        <v>79</v>
-      </c>
-      <c r="E590" t="s">
+      <c r="C602" t="s">
+        <v>79</v>
+      </c>
+      <c r="E602" t="s">
         <v>53</v>
       </c>
-      <c r="F590" t="s">
-        <v>77</v>
-      </c>
-      <c r="G590" t="s">
+      <c r="F602" t="s">
+        <v>77</v>
+      </c>
+      <c r="G602" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A591" t="s">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
         <v>51</v>
       </c>
-      <c r="B591">
+      <c r="B603">
         <f>0.0268065761133448/3.6</f>
         <v>7.446271142595778E-3</v>
       </c>
-      <c r="C591" t="s">
+      <c r="C603" t="s">
         <v>81</v>
       </c>
-      <c r="E591" t="s">
+      <c r="E603" t="s">
         <v>119</v>
       </c>
-      <c r="F591" t="s">
-        <v>77</v>
-      </c>
-      <c r="G591" t="s">
+      <c r="F603" t="s">
+        <v>77</v>
+      </c>
+      <c r="G603" t="s">
         <v>52</v>
       </c>
-      <c r="H591" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A592" t="s">
-        <v>366</v>
-      </c>
-      <c r="B592">
+      <c r="H603" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>349</v>
+      </c>
+      <c r="B604">
         <f>3.97134460938441E-06*1000</f>
         <v>3.97134460938441E-3</v>
       </c>
-      <c r="C592" t="s">
-        <v>79</v>
-      </c>
-      <c r="E592" t="s">
+      <c r="C604" t="s">
+        <v>79</v>
+      </c>
+      <c r="E604" t="s">
         <v>119</v>
       </c>
-      <c r="F592" t="s">
-        <v>77</v>
-      </c>
-      <c r="G592" t="s">
+      <c r="F604" t="s">
+        <v>77</v>
+      </c>
+      <c r="G604" t="s">
         <v>59</v>
       </c>
-      <c r="H592" t="s">
+      <c r="H604" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A593" t="s">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
         <v>93</v>
       </c>
-      <c r="B593">
+      <c r="B605">
         <f>0.000191120959326625</f>
         <v>1.91120959326625E-4</v>
       </c>
-      <c r="C593" t="s">
+      <c r="C605" t="s">
         <v>96</v>
       </c>
-      <c r="E593" t="s">
+      <c r="E605" t="s">
         <v>4</v>
       </c>
-      <c r="F593" t="s">
-        <v>77</v>
-      </c>
-      <c r="G593" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A594" t="s">
-        <v>368</v>
-      </c>
-      <c r="B594">
+      <c r="F605" t="s">
+        <v>77</v>
+      </c>
+      <c r="G605" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>351</v>
+      </c>
+      <c r="B606">
         <f>-2.48209038086526E-06</f>
         <v>-2.48209038086526E-6</v>
       </c>
-      <c r="C594" t="s">
+      <c r="C606" t="s">
         <v>135</v>
       </c>
-      <c r="E594" t="s">
+      <c r="E606" t="s">
         <v>54</v>
       </c>
-      <c r="F594" t="s">
-        <v>77</v>
-      </c>
-      <c r="G594" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A595" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B595">
+      <c r="F606" t="s">
+        <v>77</v>
+      </c>
+      <c r="G606" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A607" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B607">
         <f>-0.148925422851915</f>
         <v>-0.14892542285191501</v>
       </c>
-      <c r="C595" t="s">
+      <c r="C607" t="s">
         <v>135</v>
       </c>
-      <c r="E595" t="s">
+      <c r="E607" t="s">
         <v>92</v>
       </c>
-      <c r="F595" t="s">
-        <v>77</v>
-      </c>
-      <c r="G595" t="s">
-        <v>410</v>
-      </c>
-      <c r="H595" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A598" s="2" t="s">
+      <c r="F607" t="s">
+        <v>77</v>
+      </c>
+      <c r="G607" t="s">
+        <v>393</v>
+      </c>
+      <c r="H607" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B598" s="1" t="s">
+      <c r="B610" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A599" s="5" t="s">
+    <row r="611" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A611" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B599" s="5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A600" t="s">
+      <c r="B611" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
         <v>3</v>
       </c>
-      <c r="B600" t="s">
+      <c r="B612" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A601" t="s">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
         <v>5</v>
       </c>
-      <c r="B601">
+      <c r="B613">
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A602" t="s">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
         <v>6</v>
       </c>
-      <c r="B602" t="s">
+      <c r="B614" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A603" t="s">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
         <v>7</v>
       </c>
-      <c r="B603" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A604" t="s">
+      <c r="B615" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
         <v>8</v>
       </c>
-      <c r="B604" t="s">
+      <c r="B616" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B605" s="1"/>
-      <c r="C605" s="1"/>
-      <c r="D605" s="1"/>
-      <c r="E605" s="1"/>
-      <c r="F605" s="1"/>
-      <c r="G605" s="1"/>
-    </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="B617" s="1"/>
+      <c r="C617" s="1"/>
+      <c r="D617" s="1"/>
+      <c r="E617" s="1"/>
+      <c r="F617" s="1"/>
+      <c r="G617" s="1"/>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B606" s="1" t="s">
+      <c r="B618" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C606" s="1" t="s">
+      <c r="C618" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D606" s="1" t="s">
+      <c r="D618" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E606" s="1" t="s">
+      <c r="E618" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F606" s="1" t="s">
+      <c r="F618" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G606" s="1" t="s">
+      <c r="G618" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H606" s="1" t="s">
+      <c r="H618" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A607" t="str">
-        <f>B598</f>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A619" t="str">
+        <f>B610</f>
         <v>ultrapure water system activity, for perovskite</v>
       </c>
-      <c r="B607">
+      <c r="B619">
         <f>2307.27272727273/2307.27272727273</f>
         <v>1</v>
       </c>
-      <c r="C607" t="s">
-        <v>79</v>
-      </c>
-      <c r="E607" t="s">
+      <c r="C619" t="s">
+        <v>79</v>
+      </c>
+      <c r="E619" t="s">
         <v>92</v>
       </c>
-      <c r="F607" t="s">
+      <c r="F619" t="s">
         <v>14</v>
       </c>
-      <c r="G607" t="str">
-        <f>B602</f>
+      <c r="G619" t="str">
+        <f>B614</f>
         <v>ultra pure water</v>
       </c>
-      <c r="H607" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A608" t="s">
+      <c r="H619" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
         <v>51</v>
       </c>
-      <c r="B608">
+      <c r="B620">
         <f>26.1818181818182/3.6/2307.27272727273</f>
         <v>3.1520882584712352E-3</v>
       </c>
-      <c r="C608" t="s">
+      <c r="C620" t="s">
         <v>81</v>
       </c>
-      <c r="E608" t="s">
+      <c r="E620" t="s">
         <v>119</v>
       </c>
-      <c r="F608" t="s">
-        <v>77</v>
-      </c>
-      <c r="G608" t="s">
+      <c r="F620" t="s">
+        <v>77</v>
+      </c>
+      <c r="G620" t="s">
         <v>52</v>
       </c>
-      <c r="H608" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A609" t="s">
-        <v>366</v>
-      </c>
-      <c r="B609">
+      <c r="H620" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>349</v>
+      </c>
+      <c r="B621">
         <f>3.63854545454545*1000/2307.27272727273</f>
         <v>1.576989755713156</v>
       </c>
-      <c r="C609" t="s">
-        <v>79</v>
-      </c>
-      <c r="E609" t="s">
+      <c r="C621" t="s">
+        <v>79</v>
+      </c>
+      <c r="E621" t="s">
         <v>119</v>
       </c>
-      <c r="F609" t="s">
-        <v>77</v>
-      </c>
-      <c r="G609" t="s">
+      <c r="F621" t="s">
+        <v>77</v>
+      </c>
+      <c r="G621" t="s">
         <v>59</v>
       </c>
-      <c r="H609" t="s">
+      <c r="H621" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A610" t="s">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
         <v>114</v>
       </c>
-      <c r="B610">
+      <c r="B622">
         <f>0.00109090909090909/2307.27272727273</f>
         <v>4.7281323877068463E-7</v>
       </c>
-      <c r="C610" t="s">
+      <c r="C622" t="s">
         <v>135</v>
       </c>
-      <c r="E610" t="s">
+      <c r="E622" t="s">
         <v>92</v>
       </c>
-      <c r="F610" t="s">
-        <v>77</v>
-      </c>
-      <c r="G610" t="s">
+      <c r="F622" t="s">
+        <v>77</v>
+      </c>
+      <c r="G622" t="s">
         <v>121</v>
       </c>
-      <c r="H610" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A611" t="s">
-        <v>369</v>
-      </c>
-      <c r="B611">
+      <c r="H622" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>352</v>
+      </c>
+      <c r="B623">
         <f>3.27272727272727E-07/2307.27272727273</f>
         <v>1.4184397163120539E-10</v>
       </c>
-      <c r="C611" t="s">
+      <c r="C623" t="s">
         <v>7</v>
       </c>
-      <c r="E611" t="s">
+      <c r="E623" t="s">
         <v>54</v>
       </c>
-      <c r="F611" t="s">
-        <v>77</v>
-      </c>
-      <c r="G611" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A612" t="s">
-        <v>258</v>
-      </c>
-      <c r="B612">
+      <c r="F623" t="s">
+        <v>77</v>
+      </c>
+      <c r="G623" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>250</v>
+      </c>
+      <c r="B624">
         <f>-1/2307.27272727273</f>
         <v>-4.3341213553979455E-4</v>
       </c>
-      <c r="C612" t="s">
+      <c r="C624" t="s">
         <v>135</v>
       </c>
-      <c r="E612" t="s">
+      <c r="E624" t="s">
         <v>119</v>
       </c>
-      <c r="F612" t="s">
-        <v>77</v>
-      </c>
-      <c r="G612" t="s">
-        <v>259</v>
-      </c>
-      <c r="H612" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="615" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A615" s="2" t="s">
+      <c r="F624" t="s">
+        <v>77</v>
+      </c>
+      <c r="G624" t="s">
+        <v>251</v>
+      </c>
+      <c r="H624" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B615" s="1" t="s">
+      <c r="B627" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A616" s="5" t="s">
+    <row r="628" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A628" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B616" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A617" t="s">
+      <c r="B628" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
         <v>3</v>
       </c>
-      <c r="B617" t="s">
+      <c r="B629" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A618" t="s">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
         <v>5</v>
       </c>
-      <c r="B618">
+      <c r="B630">
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A619" t="s">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
         <v>6</v>
       </c>
-      <c r="B619" t="s">
+      <c r="B631" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A620" t="s">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
         <v>7</v>
       </c>
-      <c r="B620" t="s">
+      <c r="B632" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A621" t="s">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
         <v>8</v>
       </c>
-      <c r="B621" t="s">
+      <c r="B633" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B622" s="1"/>
-      <c r="C622" s="1"/>
-      <c r="D622" s="1"/>
-      <c r="E622" s="1"/>
-      <c r="F622" s="1"/>
-      <c r="G622" s="1"/>
-    </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="B634" s="1"/>
+      <c r="C634" s="1"/>
+      <c r="D634" s="1"/>
+      <c r="E634" s="1"/>
+      <c r="F634" s="1"/>
+      <c r="G634" s="1"/>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B623" s="1" t="s">
+      <c r="B635" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C623" s="1" t="s">
+      <c r="C635" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D623" s="1" t="s">
+      <c r="D635" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E623" s="1" t="s">
+      <c r="E635" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F623" s="1" t="s">
+      <c r="F635" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G623" s="1" t="s">
+      <c r="G635" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H623" s="1" t="s">
+      <c r="H635" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A624" t="str">
-        <f>B615</f>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A636" t="str">
+        <f>B627</f>
         <v>inhouse waste water treatment, for perovskite production</v>
       </c>
-      <c r="B624">
+      <c r="B636">
         <f>-1</f>
         <v>-1</v>
       </c>
-      <c r="C624" t="str">
-        <f>B620</f>
+      <c r="C636" t="str">
+        <f>B632</f>
         <v>cubic meter</v>
       </c>
-      <c r="E624" t="s">
+      <c r="E636" t="s">
         <v>92</v>
       </c>
-      <c r="F624" t="s">
+      <c r="F636" t="s">
         <v>14</v>
       </c>
-      <c r="G624" t="str">
-        <f>B619</f>
+      <c r="G636" t="str">
+        <f>B631</f>
         <v>waste water</v>
       </c>
-      <c r="H624" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A625" t="s">
+      <c r="H636" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
         <v>104</v>
       </c>
-      <c r="B625">
+      <c r="B637">
         <f>0.000170225710878426/0.7*1149.2</f>
         <v>0.27946198134498168</v>
       </c>
-      <c r="C625" t="s">
-        <v>79</v>
-      </c>
-      <c r="E625" t="s">
+      <c r="C637" t="s">
+        <v>79</v>
+      </c>
+      <c r="E637" t="s">
         <v>53</v>
       </c>
-      <c r="F625" t="s">
-        <v>77</v>
-      </c>
-      <c r="G625" t="s">
+      <c r="F637" t="s">
+        <v>77</v>
+      </c>
+      <c r="G637" t="s">
         <v>105</v>
       </c>
-      <c r="H625" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A626" t="s">
+      <c r="H637" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
         <v>100</v>
       </c>
-      <c r="B626">
+      <c r="B638">
         <v>0.30262348600609101</v>
       </c>
-      <c r="C626" t="s">
-        <v>79</v>
-      </c>
-      <c r="E626" t="s">
+      <c r="C638" t="s">
+        <v>79</v>
+      </c>
+      <c r="E638" t="s">
         <v>53</v>
       </c>
-      <c r="F626" t="s">
-        <v>77</v>
-      </c>
-      <c r="G626" t="s">
+      <c r="F638" t="s">
+        <v>77</v>
+      </c>
+      <c r="G638" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A627" t="s">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
         <v>25</v>
       </c>
-      <c r="B627">
+      <c r="B639">
         <f>0.739952718676123*1.52</f>
         <v>1.124728132387707</v>
       </c>
-      <c r="C627" t="s">
-        <v>79</v>
-      </c>
-      <c r="E627" t="s">
+      <c r="C639" t="s">
+        <v>79</v>
+      </c>
+      <c r="E639" t="s">
         <v>4</v>
       </c>
-      <c r="F627" t="s">
-        <v>77</v>
-      </c>
-      <c r="G627" t="s">
+      <c r="F639" t="s">
+        <v>77</v>
+      </c>
+      <c r="G639" t="s">
         <v>111</v>
       </c>
-      <c r="H627" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A628" t="s">
-        <v>374</v>
-      </c>
-      <c r="B628">
+      <c r="H639" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>357</v>
+      </c>
+      <c r="B640">
         <v>0.45705279747832939</v>
       </c>
-      <c r="C628" t="s">
-        <v>79</v>
-      </c>
-      <c r="E628" t="s">
+      <c r="C640" t="s">
+        <v>79</v>
+      </c>
+      <c r="E640" t="s">
         <v>4</v>
       </c>
-      <c r="F628" t="s">
-        <v>77</v>
-      </c>
-      <c r="G628" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A629" t="s">
-        <v>375</v>
-      </c>
-      <c r="B629">
+      <c r="F640" t="s">
+        <v>77</v>
+      </c>
+      <c r="G640" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>358</v>
+      </c>
+      <c r="B641">
         <v>0.33884948778565799</v>
       </c>
-      <c r="C629" t="s">
-        <v>79</v>
-      </c>
-      <c r="E629" t="s">
+      <c r="C641" t="s">
+        <v>79</v>
+      </c>
+      <c r="E641" t="s">
         <v>53</v>
       </c>
-      <c r="F629" t="s">
-        <v>77</v>
-      </c>
-      <c r="G629" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A630" t="s">
-        <v>376</v>
-      </c>
-      <c r="B630">
+      <c r="F641" t="s">
+        <v>77</v>
+      </c>
+      <c r="G641" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>359</v>
+      </c>
+      <c r="B642">
         <v>0.42111899133175729</v>
       </c>
-      <c r="C630" t="s">
-        <v>79</v>
-      </c>
-      <c r="E630" t="s">
+      <c r="C642" t="s">
+        <v>79</v>
+      </c>
+      <c r="E642" t="s">
         <v>53</v>
       </c>
-      <c r="F630" t="s">
-        <v>77</v>
-      </c>
-      <c r="G630" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A631" t="s">
+      <c r="F642" t="s">
+        <v>77</v>
+      </c>
+      <c r="G642" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
         <v>51</v>
       </c>
-      <c r="B631">
+      <c r="B643">
         <f>78.8022064617809/3.6</f>
         <v>21.88950179493914</v>
       </c>
-      <c r="C631" t="s">
+      <c r="C643" t="s">
         <v>81</v>
       </c>
-      <c r="E631" t="s">
+      <c r="E643" t="s">
         <v>119</v>
       </c>
-      <c r="F631" t="s">
-        <v>77</v>
-      </c>
-      <c r="G631" t="s">
+      <c r="F643" t="s">
+        <v>77</v>
+      </c>
+      <c r="G643" t="s">
         <v>52</v>
       </c>
-      <c r="H631" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A632" t="s">
+      <c r="H643" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
         <v>114</v>
       </c>
-      <c r="B632">
+      <c r="B644">
         <f>78.8022064617809</f>
         <v>78.802206461780898</v>
       </c>
-      <c r="C632" t="s">
+      <c r="C644" t="s">
         <v>135</v>
       </c>
-      <c r="E632" t="s">
+      <c r="E644" t="s">
         <v>92</v>
       </c>
-      <c r="F632" t="s">
-        <v>77</v>
-      </c>
-      <c r="G632" t="s">
+      <c r="F644" t="s">
+        <v>77</v>
+      </c>
+      <c r="G644" t="s">
         <v>121</v>
       </c>
-      <c r="H632" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A633" t="s">
-        <v>366</v>
-      </c>
-      <c r="B633">
+      <c r="H644" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>349</v>
+      </c>
+      <c r="B645">
         <v>315.20882584712399</v>
       </c>
-      <c r="C633" t="s">
-        <v>79</v>
-      </c>
-      <c r="E633" t="s">
+      <c r="C645" t="s">
+        <v>79</v>
+      </c>
+      <c r="E645" t="s">
         <v>119</v>
       </c>
-      <c r="F633" t="s">
-        <v>77</v>
-      </c>
-      <c r="G633" t="s">
+      <c r="F645" t="s">
+        <v>77</v>
+      </c>
+      <c r="G645" t="s">
         <v>59</v>
       </c>
-      <c r="H633" t="s">
+      <c r="H645" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A634" t="s">
-        <v>258</v>
-      </c>
-      <c r="B634">
-        <v>0.68557919621749397</v>
-      </c>
-      <c r="C634" t="s">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>250</v>
+      </c>
+      <c r="B646">
+        <v>-0.68557919621749397</v>
+      </c>
+      <c r="C646" t="s">
         <v>135</v>
       </c>
-      <c r="E634" t="s">
+      <c r="E646" t="s">
         <v>119</v>
       </c>
-      <c r="F634" t="s">
-        <v>77</v>
-      </c>
-      <c r="G634" t="s">
-        <v>259</v>
-      </c>
-      <c r="H634" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A635" t="s">
-        <v>380</v>
-      </c>
-      <c r="B635">
-        <f>0.179790569157611*1000</f>
-        <v>179.790569157611</v>
-      </c>
-      <c r="C635" t="s">
-        <v>79</v>
-      </c>
-      <c r="E635" t="s">
+      <c r="F646" t="s">
+        <v>77</v>
+      </c>
+      <c r="G646" t="s">
+        <v>251</v>
+      </c>
+      <c r="H646" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>363</v>
+      </c>
+      <c r="B647">
+        <f>-0.179790569157611*1000</f>
+        <v>-179.790569157611</v>
+      </c>
+      <c r="C647" t="s">
+        <v>79</v>
+      </c>
+      <c r="E647" t="s">
         <v>119</v>
       </c>
-      <c r="F635" t="s">
-        <v>77</v>
-      </c>
-      <c r="G635" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A636" t="s">
-        <v>409</v>
-      </c>
-      <c r="B636">
+      <c r="F647" t="s">
+        <v>77</v>
+      </c>
+      <c r="G647" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>392</v>
+      </c>
+      <c r="B648">
         <f>-78.8022064617809</f>
         <v>-78.802206461780898</v>
       </c>
-      <c r="C636" t="s">
+      <c r="C648" t="s">
         <v>135</v>
       </c>
-      <c r="E636" t="s">
+      <c r="E648" t="s">
         <v>92</v>
       </c>
-      <c r="F636" t="s">
-        <v>77</v>
-      </c>
-      <c r="G636" t="s">
-        <v>410</v>
-      </c>
-      <c r="H636" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A637" t="s">
-        <v>412</v>
-      </c>
-      <c r="B637">
+      <c r="F648" t="s">
+        <v>77</v>
+      </c>
+      <c r="G648" t="s">
+        <v>393</v>
+      </c>
+      <c r="H648" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>395</v>
+      </c>
+      <c r="B649">
         <v>47.281323877068601</v>
       </c>
-      <c r="C637" t="s">
+      <c r="C649" t="s">
         <v>135</v>
-      </c>
-      <c r="E637" t="s">
-        <v>92</v>
-      </c>
-      <c r="F637" t="s">
-        <v>77</v>
-      </c>
-      <c r="G637" t="s">
-        <v>413</v>
-      </c>
-      <c r="H637" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A640" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="641" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A641" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B641" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A642" t="s">
-        <v>3</v>
-      </c>
-      <c r="B642" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A643" t="s">
-        <v>5</v>
-      </c>
-      <c r="B643">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A644" t="s">
-        <v>6</v>
-      </c>
-      <c r="B644" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A645" t="s">
-        <v>7</v>
-      </c>
-      <c r="B645" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A646" t="s">
-        <v>8</v>
-      </c>
-      <c r="B646" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B647" s="1"/>
-      <c r="C647" s="1"/>
-      <c r="D647" s="1"/>
-      <c r="E647" s="1"/>
-      <c r="F647" s="1"/>
-      <c r="G647" s="1"/>
-    </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D648" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E648" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F648" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G648" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H648" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A649" t="str">
-        <f>B640</f>
-        <v>process cooling, water, for perovskite</v>
-      </c>
-      <c r="B649">
-        <v>1</v>
-      </c>
-      <c r="C649" t="str">
-        <f>B645</f>
-        <v>cubic meter</v>
       </c>
       <c r="E649" t="s">
         <v>92</v>
       </c>
       <c r="F649" t="s">
+        <v>77</v>
+      </c>
+      <c r="G649" t="s">
+        <v>396</v>
+      </c>
+      <c r="H649" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A653" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B653" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>3</v>
+      </c>
+      <c r="B654" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>5</v>
+      </c>
+      <c r="B655">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>6</v>
+      </c>
+      <c r="B656" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>7</v>
+      </c>
+      <c r="B657" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>8</v>
+      </c>
+      <c r="B658" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A659" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B659" s="1"/>
+      <c r="C659" s="1"/>
+      <c r="D659" s="1"/>
+      <c r="E659" s="1"/>
+      <c r="F659" s="1"/>
+      <c r="G659" s="1"/>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F660" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A661" t="str">
+        <f>B652</f>
+        <v>process cooling, water, for perovskite</v>
+      </c>
+      <c r="B661">
+        <v>1</v>
+      </c>
+      <c r="C661" t="str">
+        <f>B657</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E661" t="s">
+        <v>92</v>
+      </c>
+      <c r="F661" t="s">
         <v>14</v>
       </c>
-      <c r="G649" t="str">
-        <f>B644</f>
+      <c r="G661" t="str">
+        <f>B656</f>
         <v>cooling water, conditioned</v>
       </c>
-      <c r="H649" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A650" t="s">
-        <v>258</v>
-      </c>
-      <c r="B650">
-        <f>0.75</f>
-        <v>0.75</v>
-      </c>
-      <c r="C650" t="s">
+      <c r="H661" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>250</v>
+      </c>
+      <c r="B662">
+        <f>-0.75</f>
+        <v>-0.75</v>
+      </c>
+      <c r="C662" t="s">
         <v>135</v>
       </c>
-      <c r="E650" t="s">
+      <c r="E662" t="s">
         <v>119</v>
       </c>
-      <c r="F650" t="s">
-        <v>77</v>
-      </c>
-      <c r="G650" t="s">
-        <v>259</v>
-      </c>
-      <c r="H650" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A651" t="s">
+      <c r="F662" t="s">
+        <v>77</v>
+      </c>
+      <c r="G662" t="s">
+        <v>251</v>
+      </c>
+      <c r="H662" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
         <v>51</v>
       </c>
-      <c r="B651">
+      <c r="B663">
         <f>0.165704904993084/3.6</f>
         <v>4.602914027585666E-2</v>
       </c>
-      <c r="C651" t="s">
+      <c r="C663" t="s">
         <v>81</v>
       </c>
-      <c r="E651" t="s">
+      <c r="E663" t="s">
         <v>119</v>
       </c>
-      <c r="F651" t="s">
-        <v>77</v>
-      </c>
-      <c r="G651" t="s">
+      <c r="F663" t="s">
+        <v>77</v>
+      </c>
+      <c r="G663" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A652" t="s">
-        <v>366</v>
-      </c>
-      <c r="B652">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>349</v>
+      </c>
+      <c r="B664">
         <f>0.252525252525253*1000</f>
         <v>252.52525252525299</v>
       </c>
-      <c r="C652" t="s">
-        <v>79</v>
-      </c>
-      <c r="E652" t="s">
+      <c r="C664" t="s">
+        <v>79</v>
+      </c>
+      <c r="E664" t="s">
         <v>119</v>
       </c>
-      <c r="F652" t="s">
-        <v>77</v>
-      </c>
-      <c r="G652" t="s">
+      <c r="F664" t="s">
+        <v>77</v>
+      </c>
+      <c r="G664" t="s">
         <v>59</v>
       </c>
-      <c r="H652" t="s">
+      <c r="H664" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A654" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="655" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A655" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B655" s="5" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A656" t="s">
-        <v>3</v>
-      </c>
-      <c r="B656" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A657" t="s">
-        <v>5</v>
-      </c>
-      <c r="B657">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>6</v>
-      </c>
-      <c r="B658" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A659" t="s">
-        <v>7</v>
-      </c>
-      <c r="B659" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A660" t="s">
-        <v>8</v>
-      </c>
-      <c r="B660" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B661" s="1"/>
-      <c r="C661" s="1"/>
-      <c r="D661" s="1"/>
-      <c r="E661" s="1"/>
-      <c r="F661" s="1"/>
-      <c r="G661" s="1"/>
-    </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D662" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E662" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F662" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G662" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H662" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A663" t="str">
-        <f>B654</f>
-        <v>process cooling, water, for perovskite</v>
-      </c>
-      <c r="B663">
-        <f>-1</f>
-        <v>-1</v>
-      </c>
-      <c r="C663" t="str">
-        <f>B659</f>
-        <v>cubic meter</v>
-      </c>
-      <c r="E663" t="s">
-        <v>92</v>
-      </c>
-      <c r="F663" t="s">
-        <v>14</v>
-      </c>
-      <c r="G663" t="str">
-        <f>B658</f>
-        <v>cooling water, used</v>
-      </c>
-      <c r="H663" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="666" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12922,15 +13009,15 @@
         <v>1</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>114</v>
+        <v>205</v>
       </c>
     </row>
     <row r="667" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B667" s="5" t="s">
-        <v>213</v>
+      <c r="B667" s="9" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
@@ -12954,7 +13041,7 @@
         <v>6</v>
       </c>
       <c r="B670" t="s">
-        <v>121</v>
+        <v>212</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
@@ -13013,10 +13100,11 @@
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" t="str">
         <f>B666</f>
-        <v>air compressor activity, for perovskite</v>
+        <v>process cooling, water, for perovskite</v>
       </c>
       <c r="B675">
-        <v>1</v>
+        <f>-1</f>
+        <v>-1</v>
       </c>
       <c r="C675" t="str">
         <f>B671</f>
@@ -13030,882 +13118,1001 @@
       </c>
       <c r="G675" t="str">
         <f>B670</f>
-        <v>compressed air, 14 bar, low efficiency</v>
+        <v>cooling water, used</v>
       </c>
       <c r="H675" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A676" t="s">
-        <v>382</v>
-      </c>
-      <c r="B676">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C676" t="s">
-        <v>135</v>
-      </c>
-      <c r="E676" t="s">
-        <v>53</v>
-      </c>
-      <c r="F676" t="s">
-        <v>77</v>
-      </c>
-      <c r="G676" t="s">
-        <v>383</v>
-      </c>
-      <c r="H676" t="s">
-        <v>384</v>
+      <c r="B678" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="679" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A679" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="680" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A680" s="5" t="s">
+      <c r="A679" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B680" s="5" t="s">
-        <v>215</v>
+      <c r="B679" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>3</v>
+      </c>
+      <c r="B680" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>3</v>
-      </c>
-      <c r="B681" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="B681">
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>5</v>
-      </c>
-      <c r="B682">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B682" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B683" t="s">
-        <v>400</v>
+        <v>135</v>
       </c>
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B684" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A685" t="s">
-        <v>8</v>
-      </c>
-      <c r="B685" t="s">
-        <v>16</v>
-      </c>
+      <c r="A685" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B685" s="1"/>
+      <c r="C685" s="1"/>
+      <c r="D685" s="1"/>
+      <c r="E685" s="1"/>
+      <c r="F685" s="1"/>
+      <c r="G685" s="1"/>
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E686" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F686" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G686" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H686" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A687" t="str">
+        <f>B678</f>
+        <v>air compressor activity, for perovskite</v>
+      </c>
+      <c r="B687">
+        <v>1</v>
+      </c>
+      <c r="C687" t="str">
+        <f>B683</f>
+        <v>cubic meter</v>
+      </c>
+      <c r="E687" t="s">
+        <v>92</v>
+      </c>
+      <c r="F687" t="s">
+        <v>14</v>
+      </c>
+      <c r="G687" t="str">
+        <f>B682</f>
+        <v>compressed air, 14 bar, low efficiency</v>
+      </c>
+      <c r="H687" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>365</v>
+      </c>
+      <c r="B688">
+        <v>1</v>
+      </c>
+      <c r="C688" t="s">
+        <v>135</v>
+      </c>
+      <c r="E688" t="s">
+        <v>53</v>
+      </c>
+      <c r="F688" t="s">
+        <v>77</v>
+      </c>
+      <c r="G688" t="s">
+        <v>366</v>
+      </c>
+      <c r="H688" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B691" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A692" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B692" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>3</v>
+      </c>
+      <c r="B693" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>5</v>
+      </c>
+      <c r="B694">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>6</v>
+      </c>
+      <c r="B695" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>7</v>
+      </c>
+      <c r="B696" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>8</v>
+      </c>
+      <c r="B697" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B686" s="1"/>
-      <c r="C686" s="1"/>
-      <c r="D686" s="1"/>
-      <c r="E686" s="1"/>
-      <c r="F686" s="1"/>
-      <c r="G686" s="1"/>
-    </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A687" s="1" t="s">
+      <c r="B698" s="1"/>
+      <c r="C698" s="1"/>
+      <c r="D698" s="1"/>
+      <c r="E698" s="1"/>
+      <c r="F698" s="1"/>
+      <c r="G698" s="1"/>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B687" s="1" t="s">
+      <c r="B699" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C687" s="1" t="s">
+      <c r="C699" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D687" s="1" t="s">
+      <c r="D699" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E687" s="1" t="s">
+      <c r="E699" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F687" s="1" t="s">
+      <c r="F699" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G687" s="1" t="s">
+      <c r="G699" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H687" s="1" t="s">
+      <c r="H699" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A688" t="str">
-        <f>B679</f>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A700" t="str">
+        <f>B691</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
       </c>
-      <c r="B688">
+      <c r="B700">
         <v>-1</v>
       </c>
-      <c r="C688" t="str">
-        <f>B684</f>
+      <c r="C700" t="str">
+        <f>B696</f>
         <v>cubic meter</v>
       </c>
-      <c r="E688" t="s">
+      <c r="E700" t="s">
         <v>92</v>
       </c>
-      <c r="F688" t="s">
+      <c r="F700" t="s">
         <v>14</v>
       </c>
-      <c r="G688" t="str">
-        <f>B683</f>
+      <c r="G700" t="str">
+        <f>B695</f>
         <v>exhaust, general</v>
       </c>
-      <c r="H688" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A689" t="s">
-        <v>401</v>
-      </c>
-      <c r="B689">
+      <c r="H700" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>384</v>
+      </c>
+      <c r="B701">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C689" t="s">
+      <c r="C701" t="s">
         <v>7</v>
       </c>
-      <c r="E689" t="s">
+      <c r="E701" t="s">
         <v>4</v>
       </c>
-      <c r="F689" t="s">
-        <v>77</v>
-      </c>
-      <c r="G689" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A690" t="s">
-        <v>402</v>
-      </c>
-      <c r="B690">
-        <v>7.6051410753669521E-7</v>
-      </c>
-      <c r="C690" t="s">
+      <c r="F701" t="s">
+        <v>77</v>
+      </c>
+      <c r="G701" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>385</v>
+      </c>
+      <c r="B702" s="4">
+        <v>-7.60514107536695E-7</v>
+      </c>
+      <c r="C702" t="s">
         <v>7</v>
       </c>
-      <c r="E690" t="s">
+      <c r="E702" t="s">
         <v>57</v>
       </c>
-      <c r="F690" t="s">
-        <v>77</v>
-      </c>
-      <c r="G690" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A691" t="s">
+      <c r="F702" t="s">
+        <v>77</v>
+      </c>
+      <c r="G702" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
         <v>51</v>
       </c>
-      <c r="B691">
+      <c r="B703">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C691" t="s">
+      <c r="C703" t="s">
         <v>81</v>
       </c>
-      <c r="E691" t="s">
+      <c r="E703" t="s">
         <v>119</v>
       </c>
-      <c r="F691" t="s">
-        <v>77</v>
-      </c>
-      <c r="G691" t="s">
+      <c r="F703" t="s">
+        <v>77</v>
+      </c>
+      <c r="G703" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A692" t="s">
-        <v>408</v>
-      </c>
-      <c r="B692">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>391</v>
+      </c>
+      <c r="B704">
         <v>1.1407711613050422E-5</v>
       </c>
-      <c r="C692" t="s">
-        <v>79</v>
-      </c>
-      <c r="D692" t="s">
+      <c r="C704" t="s">
+        <v>79</v>
+      </c>
+      <c r="D704" t="s">
         <v>62</v>
       </c>
-      <c r="F692" t="s">
+      <c r="F704" t="s">
         <v>78</v>
       </c>
-      <c r="H692" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A693" t="s">
-        <v>194</v>
-      </c>
-      <c r="B693">
+      <c r="H704" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>189</v>
+      </c>
+      <c r="B705">
         <v>9.8572073921971304E-3</v>
       </c>
-      <c r="C693" t="s">
+      <c r="C705" t="s">
         <v>80</v>
       </c>
-      <c r="D693" t="s">
+      <c r="D705" t="s">
         <v>62</v>
       </c>
-      <c r="F693" t="s">
+      <c r="F705" t="s">
         <v>78</v>
       </c>
-      <c r="H693" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A694" t="s">
+      <c r="H705" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
         <v>76</v>
       </c>
-      <c r="B694">
+      <c r="B706">
         <v>3.9926990645676497E-5</v>
       </c>
-      <c r="C694" t="s">
+      <c r="C706" t="s">
         <v>135</v>
       </c>
-      <c r="D694" t="s">
+      <c r="D706" t="s">
         <v>62</v>
       </c>
-      <c r="F694" t="s">
+      <c r="F706" t="s">
         <v>78</v>
       </c>
-      <c r="H694" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="697" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A697" s="2" t="s">
+      <c r="H706" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B697" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="698" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A698" s="5" t="s">
+      <c r="B709" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A710" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B698" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A699" t="s">
+      <c r="B710" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
         <v>3</v>
       </c>
-      <c r="B699" t="s">
+      <c r="B711" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A700" t="s">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
         <v>5</v>
       </c>
-      <c r="B700">
+      <c r="B712">
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A701" t="s">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
         <v>6</v>
       </c>
-      <c r="B701" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A702" t="s">
+      <c r="B713" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
         <v>7</v>
       </c>
-      <c r="B702" t="s">
+      <c r="B714" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A703" t="s">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
         <v>8</v>
       </c>
-      <c r="B703" t="s">
+      <c r="B715" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A704" s="1" t="s">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B704" s="1"/>
-      <c r="C704" s="1"/>
-      <c r="D704" s="1"/>
-      <c r="E704" s="1"/>
-      <c r="F704" s="1"/>
-      <c r="G704" s="1"/>
-    </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A705" s="1" t="s">
+      <c r="B716" s="1"/>
+      <c r="C716" s="1"/>
+      <c r="D716" s="1"/>
+      <c r="E716" s="1"/>
+      <c r="F716" s="1"/>
+      <c r="G716" s="1"/>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B705" s="1" t="s">
+      <c r="B717" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C705" s="1" t="s">
+      <c r="C717" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D705" s="1" t="s">
+      <c r="D717" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E705" s="1" t="s">
+      <c r="E717" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F705" s="1" t="s">
+      <c r="F717" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G705" s="1" t="s">
+      <c r="G717" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H705" s="1" t="s">
+      <c r="H717" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A706" t="str">
-        <f>B697</f>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A718" t="str">
+        <f>B709</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
       </c>
-      <c r="B706">
+      <c r="B718">
         <v>-1</v>
       </c>
-      <c r="C706" t="str">
-        <f>B702</f>
+      <c r="C718" t="str">
+        <f>B714</f>
         <v>cubic meter</v>
       </c>
-      <c r="E706" t="s">
+      <c r="E718" t="s">
         <v>92</v>
       </c>
-      <c r="F706" t="s">
+      <c r="F718" t="s">
         <v>14</v>
       </c>
-      <c r="G706" t="str">
-        <f>B701</f>
+      <c r="G718" t="str">
+        <f>B713</f>
         <v>exhaust, acidic</v>
       </c>
-      <c r="H706" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A707" t="s">
-        <v>401</v>
-      </c>
-      <c r="B707">
+      <c r="H718" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>384</v>
+      </c>
+      <c r="B719">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C707" t="s">
+      <c r="C719" t="s">
         <v>7</v>
       </c>
-      <c r="E707" t="s">
+      <c r="E719" t="s">
         <v>4</v>
       </c>
-      <c r="F707" t="s">
-        <v>77</v>
-      </c>
-      <c r="G707" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A708" t="s">
-        <v>402</v>
-      </c>
-      <c r="B708">
-        <v>7.6051410753669521E-7</v>
-      </c>
-      <c r="C708" t="s">
+      <c r="F719" t="s">
+        <v>77</v>
+      </c>
+      <c r="G719" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>385</v>
+      </c>
+      <c r="B720" s="4">
+        <v>-7.60514107536695E-7</v>
+      </c>
+      <c r="C720" t="s">
         <v>7</v>
       </c>
-      <c r="E708" t="s">
+      <c r="E720" t="s">
         <v>57</v>
       </c>
-      <c r="F708" t="s">
-        <v>77</v>
-      </c>
-      <c r="G708" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A709" t="s">
+      <c r="F720" t="s">
+        <v>77</v>
+      </c>
+      <c r="G720" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
         <v>51</v>
       </c>
-      <c r="B709">
+      <c r="B721">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C709" t="s">
+      <c r="C721" t="s">
         <v>81</v>
       </c>
-      <c r="E709" t="s">
+      <c r="E721" t="s">
         <v>119</v>
       </c>
-      <c r="F709" t="s">
-        <v>77</v>
-      </c>
-      <c r="G709" t="s">
+      <c r="F721" t="s">
+        <v>77</v>
+      </c>
+      <c r="G721" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A710" t="s">
-        <v>408</v>
-      </c>
-      <c r="B710">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>391</v>
+      </c>
+      <c r="B722">
         <v>1.1407711613050422E-5</v>
       </c>
-      <c r="C710" t="s">
-        <v>79</v>
-      </c>
-      <c r="D710" t="s">
+      <c r="C722" t="s">
+        <v>79</v>
+      </c>
+      <c r="D722" t="s">
         <v>62</v>
       </c>
-      <c r="F710" t="s">
+      <c r="F722" t="s">
         <v>78</v>
       </c>
-      <c r="H710" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A711" t="s">
-        <v>194</v>
-      </c>
-      <c r="B711">
+      <c r="H722" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>189</v>
+      </c>
+      <c r="B723">
         <v>9.8572073921971304E-3</v>
       </c>
-      <c r="C711" t="s">
+      <c r="C723" t="s">
         <v>80</v>
       </c>
-      <c r="D711" t="s">
+      <c r="D723" t="s">
         <v>62</v>
       </c>
-      <c r="F711" t="s">
+      <c r="F723" t="s">
         <v>78</v>
       </c>
-      <c r="H711" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A712" t="s">
+      <c r="H723" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
         <v>76</v>
       </c>
-      <c r="B712">
+      <c r="B724">
         <v>3.9926990645676497E-5</v>
       </c>
-      <c r="C712" t="s">
+      <c r="C724" t="s">
         <v>135</v>
       </c>
-      <c r="D712" t="s">
+      <c r="D724" t="s">
         <v>62</v>
       </c>
-      <c r="F712" t="s">
+      <c r="F724" t="s">
         <v>78</v>
       </c>
-      <c r="H712" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A713" t="s">
+      <c r="H724" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
         <v>25</v>
       </c>
-      <c r="B713">
+      <c r="B725">
         <f>0.000382716049382716/0.2*2.13</f>
         <v>4.0759259259259247E-3</v>
       </c>
-      <c r="C713" t="s">
-        <v>79</v>
-      </c>
-      <c r="E713" t="s">
+      <c r="C725" t="s">
+        <v>79</v>
+      </c>
+      <c r="E725" t="s">
         <v>4</v>
       </c>
-      <c r="F713" t="s">
-        <v>77</v>
-      </c>
-      <c r="G713" t="s">
+      <c r="F725" t="s">
+        <v>77</v>
+      </c>
+      <c r="G725" t="s">
         <v>111</v>
       </c>
-      <c r="H713" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A714" t="s">
+      <c r="H725" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
         <v>51</v>
       </c>
-      <c r="B714">
+      <c r="B726">
         <f>0.00911111111111111/3.6</f>
         <v>2.5308641975308639E-3</v>
       </c>
-      <c r="C714" t="s">
+      <c r="C726" t="s">
         <v>81</v>
       </c>
-      <c r="E714" t="s">
+      <c r="E726" t="s">
         <v>119</v>
       </c>
-      <c r="F714" t="s">
-        <v>77</v>
-      </c>
-      <c r="G714" t="s">
+      <c r="F726" t="s">
+        <v>77</v>
+      </c>
+      <c r="G726" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A715" t="s">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
         <v>100</v>
       </c>
-      <c r="B715">
+      <c r="B727">
         <v>0.15308641975308601</v>
       </c>
-      <c r="C715" t="s">
-        <v>79</v>
-      </c>
-      <c r="E715" t="s">
+      <c r="C727" t="s">
+        <v>79</v>
+      </c>
+      <c r="E727" t="s">
         <v>53</v>
       </c>
-      <c r="F715" t="s">
-        <v>77</v>
-      </c>
-      <c r="G715" t="s">
+      <c r="F727" t="s">
+        <v>77</v>
+      </c>
+      <c r="G727" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A718" s="2" t="s">
+    <row r="730" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B718" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="719" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A719" s="5" t="s">
+      <c r="B730" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A731" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B719" s="5" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A720" t="s">
+      <c r="B731" s="9" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
         <v>3</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B732" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A721" t="s">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
         <v>5</v>
       </c>
-      <c r="B721">
+      <c r="B733">
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A722" t="s">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
         <v>6</v>
       </c>
-      <c r="B722" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A723" t="s">
+      <c r="B734" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
         <v>7</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B735" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A724" t="s">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
         <v>8</v>
       </c>
-      <c r="B724" t="s">
+      <c r="B736" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A725" s="1" t="s">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A737" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B725" s="1"/>
-      <c r="C725" s="1"/>
-      <c r="D725" s="1"/>
-      <c r="E725" s="1"/>
-      <c r="F725" s="1"/>
-      <c r="G725" s="1"/>
-    </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A726" s="1" t="s">
+      <c r="B737" s="1"/>
+      <c r="C737" s="1"/>
+      <c r="D737" s="1"/>
+      <c r="E737" s="1"/>
+      <c r="F737" s="1"/>
+      <c r="G737" s="1"/>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A738" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B726" s="1" t="s">
+      <c r="B738" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C726" s="1" t="s">
+      <c r="C738" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D726" s="1" t="s">
+      <c r="D738" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E726" s="1" t="s">
+      <c r="E738" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F726" s="1" t="s">
+      <c r="F738" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G726" s="1" t="s">
+      <c r="G738" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H726" s="1" t="s">
+      <c r="H738" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A727" t="str">
-        <f>B718</f>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A739" t="str">
+        <f>B730</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
       </c>
-      <c r="B727">
+      <c r="B739">
         <v>-1</v>
       </c>
-      <c r="C727" t="str">
-        <f>B723</f>
+      <c r="C739" t="str">
+        <f>B735</f>
         <v>cubic meter</v>
       </c>
-      <c r="E727" t="s">
+      <c r="E739" t="s">
         <v>92</v>
       </c>
-      <c r="F727" t="s">
+      <c r="F739" t="s">
         <v>14</v>
       </c>
-      <c r="G727" t="str">
-        <f>B722</f>
+      <c r="G739" t="str">
+        <f>B734</f>
         <v>exhaust, caustic</v>
       </c>
-      <c r="H727" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A728" t="s">
-        <v>401</v>
-      </c>
-      <c r="B728">
+      <c r="H739" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>384</v>
+      </c>
+      <c r="B740">
         <v>7.6051410753669521E-7</v>
       </c>
-      <c r="C728" t="s">
+      <c r="C740" t="s">
         <v>7</v>
       </c>
-      <c r="E728" t="s">
+      <c r="E740" t="s">
         <v>4</v>
       </c>
-      <c r="F728" t="s">
-        <v>77</v>
-      </c>
-      <c r="G728" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A729" t="s">
-        <v>402</v>
-      </c>
-      <c r="B729">
-        <v>7.6051410753669521E-7</v>
-      </c>
-      <c r="C729" t="s">
+      <c r="F740" t="s">
+        <v>77</v>
+      </c>
+      <c r="G740" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>385</v>
+      </c>
+      <c r="B741" s="4">
+        <v>-7.60514107536695E-7</v>
+      </c>
+      <c r="C741" t="s">
         <v>7</v>
       </c>
-      <c r="E729" t="s">
+      <c r="E741" t="s">
         <v>57</v>
       </c>
-      <c r="F729" t="s">
-        <v>77</v>
-      </c>
-      <c r="G729" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A730" t="s">
+      <c r="F741" t="s">
+        <v>77</v>
+      </c>
+      <c r="G741" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
         <v>51</v>
       </c>
-      <c r="B730">
+      <c r="B742">
         <f>0.0061881332397246/3.6</f>
         <v>1.7189258999234999E-3</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C742" t="s">
         <v>81</v>
       </c>
-      <c r="E730" t="s">
+      <c r="E742" t="s">
         <v>119</v>
       </c>
-      <c r="F730" t="s">
-        <v>77</v>
-      </c>
-      <c r="G730" t="s">
+      <c r="F742" t="s">
+        <v>77</v>
+      </c>
+      <c r="G742" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A731" t="s">
-        <v>408</v>
-      </c>
-      <c r="B731">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>391</v>
+      </c>
+      <c r="B743">
         <v>1.1407711613050422E-5</v>
       </c>
-      <c r="C731" t="s">
-        <v>79</v>
-      </c>
-      <c r="D731" t="s">
+      <c r="C743" t="s">
+        <v>79</v>
+      </c>
+      <c r="D743" t="s">
         <v>62</v>
       </c>
-      <c r="F731" t="s">
+      <c r="F743" t="s">
         <v>78</v>
       </c>
-      <c r="H731" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A732" t="s">
-        <v>194</v>
-      </c>
-      <c r="B732">
+      <c r="H743" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>189</v>
+      </c>
+      <c r="B744">
         <v>9.8572073921971304E-3</v>
       </c>
-      <c r="C732" t="s">
+      <c r="C744" t="s">
         <v>80</v>
       </c>
-      <c r="D732" t="s">
+      <c r="D744" t="s">
         <v>62</v>
       </c>
-      <c r="F732" t="s">
+      <c r="F744" t="s">
         <v>78</v>
       </c>
-      <c r="H732" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A733" t="s">
+      <c r="H744" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
         <v>76</v>
       </c>
-      <c r="B733">
+      <c r="B745">
         <v>3.9926990645676497E-5</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C745" t="s">
         <v>135</v>
       </c>
-      <c r="D733" t="s">
+      <c r="D745" t="s">
         <v>62</v>
       </c>
-      <c r="F733" t="s">
+      <c r="F745" t="s">
         <v>78</v>
       </c>
-      <c r="H733" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A734" t="s">
-        <v>235</v>
-      </c>
-      <c r="B734">
+      <c r="H745" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>227</v>
+      </c>
+      <c r="B746">
         <f>0.000382716049382716/0.2*1.83</f>
         <v>3.5018518518518515E-3</v>
       </c>
-      <c r="C734" t="s">
-        <v>79</v>
-      </c>
-      <c r="E734" t="s">
+      <c r="C746" t="s">
+        <v>79</v>
+      </c>
+      <c r="E746" t="s">
         <v>53</v>
       </c>
-      <c r="F734" t="s">
-        <v>77</v>
-      </c>
-      <c r="G734" t="s">
-        <v>414</v>
-      </c>
-      <c r="H734" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A735" t="s">
+      <c r="F746" t="s">
+        <v>77</v>
+      </c>
+      <c r="G746" t="s">
+        <v>397</v>
+      </c>
+      <c r="H746" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
         <v>51</v>
       </c>
-      <c r="B735">
+      <c r="B747">
         <f>0.0113684210526316/3.6</f>
         <v>3.1578947368421113E-3</v>
       </c>
-      <c r="C735" t="s">
+      <c r="C747" t="s">
         <v>81</v>
       </c>
-      <c r="E735" t="s">
+      <c r="E747" t="s">
         <v>119</v>
       </c>
-      <c r="F735" t="s">
-        <v>77</v>
-      </c>
-      <c r="G735" t="s">
+      <c r="F747" t="s">
+        <v>77</v>
+      </c>
+      <c r="G747" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A736" t="s">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
         <v>100</v>
       </c>
-      <c r="B736">
+      <c r="B748">
         <v>0.11184210526315801</v>
       </c>
-      <c r="C736" t="s">
-        <v>79</v>
-      </c>
-      <c r="E736" t="s">
+      <c r="C748" t="s">
+        <v>79</v>
+      </c>
+      <c r="E748" t="s">
         <v>53</v>
       </c>
-      <c r="F736" t="s">
-        <v>77</v>
-      </c>
-      <c r="G736" t="s">
+      <c r="F748" t="s">
+        <v>77</v>
+      </c>
+      <c r="G748" t="s">
         <v>101</v>
       </c>
     </row>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024DBA9C-8815-4691-81F4-CBF85928FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F704930-30F9-4BC5-85A9-05A9D731D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2856" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="455">
   <si>
     <t>Database</t>
   </si>
@@ -407,12 +407,6 @@
     <t>market for polystyrene foam slab</t>
   </si>
   <si>
-    <t>treatment of waste polystyrene, municipal incineration</t>
-  </si>
-  <si>
-    <t>treatment of waste plastic, industrial electronics, municipal incineration</t>
-  </si>
-  <si>
     <t>polystyrene foam slab</t>
   </si>
   <si>
@@ -488,9 +482,6 @@
     <t>market group for heat, district or industrial, natural gas</t>
   </si>
   <si>
-    <t>market for hydrogen, liquid</t>
-  </si>
-  <si>
     <t>market for lime, hydrated, packed</t>
   </si>
   <si>
@@ -503,9 +494,6 @@
     <t>market for silicone factory</t>
   </si>
   <si>
-    <t>hydrogen, liquid</t>
-  </si>
-  <si>
     <t>lime, hydrated, packed</t>
   </si>
   <si>
@@ -800,15 +788,9 @@
     <t>market for toluene, liquid</t>
   </si>
   <si>
-    <t>market for trichloromethane</t>
-  </si>
-  <si>
     <t>market for chemical, organic</t>
   </si>
   <si>
-    <t>market for tert-butyl amine</t>
-  </si>
-  <si>
     <t>emission to air</t>
   </si>
   <si>
@@ -1358,12 +1340,6 @@
     <t>toluene, liquid</t>
   </si>
   <si>
-    <t>trichloromethane</t>
-  </si>
-  <si>
-    <t>tert-butyl amine</t>
-  </si>
-  <si>
     <t>waste aluminium</t>
   </si>
   <si>
@@ -1395,6 +1371,36 @@
   </si>
   <si>
     <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module 2 square meter)</t>
+  </si>
+  <si>
+    <t>market for t-butyl amine</t>
+  </si>
+  <si>
+    <t>t-butyl amine</t>
+  </si>
+  <si>
+    <t>treatment of waste polystyrene, municipal incineration FAE</t>
+  </si>
+  <si>
+    <t>market for chloroform</t>
+  </si>
+  <si>
+    <t>chloroform</t>
+  </si>
+  <si>
+    <t>market for waste plastic, industrial electronics</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>Hydrogen, liquid not available anymore at EI3.10</t>
+  </si>
+  <si>
+    <t>Hydrogen, liquid not available at EI3.10</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B558" sqref="B558"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1780,10 +1786,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1911,7 +1917,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1927,7 +1933,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2137,7 +2143,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>77</v>
@@ -2251,12 +2257,12 @@
         <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2272,7 +2278,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2539,7 +2545,7 @@
         <v>2.5157321999999999E-4</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>62</v>
@@ -2557,7 +2563,7 @@
         <v>1.425581579999999E-3</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" t="s">
         <v>61</v>
@@ -2576,10 +2582,10 @@
     </row>
     <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2777,10 +2783,10 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2903,7 +2909,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2924,12 +2930,12 @@
         <v>77</v>
       </c>
       <c r="G76" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2945,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2966,7 +2972,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3000,10 +3006,10 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -3311,7 +3317,7 @@
         <v>79</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F101" t="s">
         <v>77</v>
@@ -3344,7 +3350,7 @@
         <v>116</v>
       </c>
       <c r="H102" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3368,7 +3374,7 @@
         <v>118</v>
       </c>
       <c r="H103" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3416,7 +3422,7 @@
         <v>120</v>
       </c>
       <c r="H105" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3428,7 +3434,7 @@
         <v>1.0410015857749469E-2</v>
       </c>
       <c r="C106" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E106" t="s">
         <v>92</v>
@@ -3440,7 +3446,7 @@
         <v>121</v>
       </c>
       <c r="H106" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3461,7 +3467,7 @@
         <v>77</v>
       </c>
       <c r="G107" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3482,12 +3488,12 @@
         <v>77</v>
       </c>
       <c r="G108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>123</v>
+        <v>447</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3503,12 +3509,12 @@
         <v>77</v>
       </c>
       <c r="G109" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>450</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3524,7 +3530,7 @@
         <v>77</v>
       </c>
       <c r="G110" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3545,12 +3551,12 @@
         <v>77</v>
       </c>
       <c r="G111" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B112">
         <f>-50/35367093.098703</f>
@@ -3566,22 +3572,22 @@
         <v>77</v>
       </c>
       <c r="G112" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
         <v>-1.2392876021130319</v>
       </c>
       <c r="C113" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
         <v>92</v>
@@ -3590,22 +3596,22 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H113" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
         <v>-1.8589314031695481</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
         <v>92</v>
@@ -3614,22 +3620,22 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H114" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
         <v>-1.8837171552118086</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
         <v>92</v>
@@ -3638,22 +3644,22 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H115" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <f>-(44706.6+2454.48+613.62+41200.2+1227.24)/35367093.098703</f>
         <v>-2.55045388514862E-3</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
         <v>92</v>
@@ -3662,10 +3668,10 @@
         <v>77</v>
       </c>
       <c r="G116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H116" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3673,7 +3679,7 @@
         <v>1</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3681,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3705,7 +3711,7 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3787,7 +3793,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B129">
         <f>(35367093.098703/35317005.6480545)</f>
@@ -3803,10 +3809,10 @@
         <v>77</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H129" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3832,7 +3838,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B131">
         <f>296957.016*0.0018/35317005.6480545</f>
@@ -3848,10 +3854,10 @@
         <v>77</v>
       </c>
       <c r="G131" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H131" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3875,7 +3881,7 @@
         <v>118</v>
       </c>
       <c r="H132" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3904,7 +3910,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134">
         <f>98854.182/35317005.6480545</f>
@@ -3925,7 +3931,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3941,12 +3947,15 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>155</v>
+        <v>452</v>
+      </c>
+      <c r="H135" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B136">
         <f>276.129/35317005.6480545</f>
@@ -3962,7 +3971,7 @@
         <v>77</v>
       </c>
       <c r="G136" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3988,7 +3997,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B138">
         <f>44.9538012/35317005.6480545</f>
@@ -4004,12 +4013,12 @@
         <v>77</v>
       </c>
       <c r="G138" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B139">
         <f>552.258/35317005.6480545</f>
@@ -4025,12 +4034,12 @@
         <v>77</v>
       </c>
       <c r="G139" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B140">
         <f>0.0000000056882574/35317005.6480545</f>
@@ -4046,7 +4055,7 @@
         <v>77</v>
       </c>
       <c r="G140" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -4067,7 +4076,7 @@
         <v>77</v>
       </c>
       <c r="G141" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -4088,7 +4097,7 @@
         <v>77</v>
       </c>
       <c r="G142" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -4109,7 +4118,7 @@
         <v>78</v>
       </c>
       <c r="H143" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -4130,7 +4139,7 @@
         <v>78</v>
       </c>
       <c r="H144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4151,12 +4160,12 @@
         <v>78</v>
       </c>
       <c r="H145" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B146">
         <f>21.261933/35317005.6480545</f>
@@ -4172,7 +4181,7 @@
         <v>78</v>
       </c>
       <c r="H146" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4193,7 +4202,7 @@
         <v>78</v>
       </c>
       <c r="H147" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4214,7 +4223,7 @@
         <v>78</v>
       </c>
       <c r="H148" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -4235,7 +4244,7 @@
         <v>78</v>
       </c>
       <c r="H149" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4256,12 +4265,12 @@
         <v>78</v>
       </c>
       <c r="H150" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B151">
         <f>0.0204887718/35317005.6480545</f>
@@ -4277,12 +4286,12 @@
         <v>78</v>
       </c>
       <c r="H151" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B152">
         <f>0.00326936736/35317005.6480545</f>
@@ -4298,7 +4307,7 @@
         <v>78</v>
       </c>
       <c r="H152" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4319,7 +4328,7 @@
         <v>78</v>
       </c>
       <c r="H153" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,7 +4349,7 @@
         <v>78</v>
       </c>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4361,7 +4370,7 @@
         <v>78</v>
       </c>
       <c r="H155" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4382,7 +4391,7 @@
         <v>78</v>
       </c>
       <c r="H156" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4403,12 +4412,12 @@
         <v>78</v>
       </c>
       <c r="H157" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B158">
         <f>0.00025679997/35317005.6480545</f>
@@ -4424,12 +4433,12 @@
         <v>78</v>
       </c>
       <c r="H158" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B159">
         <f>14.910966/35317005.6480545</f>
@@ -4445,12 +4454,12 @@
         <v>78</v>
       </c>
       <c r="H159" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B160">
         <f>0.102719988/35317005.6480545</f>
@@ -4466,7 +4475,7 @@
         <v>78</v>
       </c>
       <c r="H160" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4487,12 +4496,12 @@
         <v>78</v>
       </c>
       <c r="H161" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B162">
         <f>49703.22/35317005.6480545</f>
@@ -4508,12 +4517,12 @@
         <v>78</v>
       </c>
       <c r="H162" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B163">
         <f>0.00101063214/35317005.6480545</f>
@@ -4529,12 +4538,12 @@
         <v>78</v>
       </c>
       <c r="H163" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4550,12 +4559,12 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B165">
         <f>0.00000004838832/35317005.6480545</f>
@@ -4571,7 +4580,7 @@
         <v>77</v>
       </c>
       <c r="G165" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4600,7 +4609,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B167">
         <f>204.440652/35317005.6480545</f>
@@ -4616,12 +4625,12 @@
         <v>77</v>
       </c>
       <c r="G167" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B168">
         <f>8.467956/35317005.6480545</f>
@@ -4658,7 +4667,7 @@
         <v>77</v>
       </c>
       <c r="G169" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4679,19 +4688,19 @@
         <v>77</v>
       </c>
       <c r="G170" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B171">
         <f>-1.4516496/35317005.6480545</f>
         <v>-4.1103416707128642E-8</v>
       </c>
       <c r="C171" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E171" t="s">
         <v>57</v>
@@ -4700,7 +4709,7 @@
         <v>77</v>
       </c>
       <c r="G171" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -4724,7 +4733,7 @@
         <v>59</v>
       </c>
       <c r="H172" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -4748,12 +4757,12 @@
         <v>59</v>
       </c>
       <c r="H173" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B174">
         <f>0.0612112248/35317005.6480545</f>
@@ -4769,12 +4778,12 @@
         <v>78</v>
       </c>
       <c r="H174" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B175">
         <f>0.410091012/35317005.6480545</f>
@@ -4790,12 +4799,12 @@
         <v>78</v>
       </c>
       <c r="H175" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B176">
         <f>18750.474/35317005.6480545</f>
@@ -4811,12 +4820,12 @@
         <v>78</v>
       </c>
       <c r="H176" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B177">
         <f>536479.2*0.00121/35317005.6480545</f>
@@ -4832,15 +4841,15 @@
         <v>77</v>
       </c>
       <c r="G177" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="H177" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4856,15 +4865,15 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>155</v>
+        <v>452</v>
       </c>
       <c r="H178" s="6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B179">
         <f>3.15576*1.39/35317005.6480545</f>
@@ -4880,15 +4889,15 @@
         <v>77</v>
       </c>
       <c r="G179" t="s">
+        <v>201</v>
+      </c>
+      <c r="H179" t="s">
         <v>205</v>
-      </c>
-      <c r="H179" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4904,10 +4913,10 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>155</v>
+        <v>452</v>
       </c>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -4933,14 +4942,14 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B182">
         <f>376938/35317005.6480545</f>
         <v>1.0672988637720602E-2</v>
       </c>
       <c r="C182" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E182" t="s">
         <v>92</v>
@@ -4949,10 +4958,10 @@
         <v>77</v>
       </c>
       <c r="G182" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H182" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -4985,7 +4994,7 @@
         <v>1.608394566800686E-2</v>
       </c>
       <c r="C184" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E184" t="s">
         <v>92</v>
@@ -4997,7 +5006,7 @@
         <v>121</v>
       </c>
       <c r="H184" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -5018,12 +5027,12 @@
         <v>77</v>
       </c>
       <c r="G185" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B186">
         <f>-25/35317005.6480545</f>
@@ -5039,19 +5048,19 @@
         <v>77</v>
       </c>
       <c r="G186" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B187">
         <f>-376938/35317005.6480545</f>
         <v>-1.0672988637720602E-2</v>
       </c>
       <c r="C187" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E187" t="s">
         <v>92</v>
@@ -5060,22 +5069,22 @@
         <v>77</v>
       </c>
       <c r="G187" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
         <v>-0.57534855028456633</v>
       </c>
       <c r="C188" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E188" t="s">
         <v>92</v>
@@ -5084,22 +5093,22 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
         <v>-4.4677626855574607E-3</v>
       </c>
       <c r="C189" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E189" t="s">
         <v>92</v>
@@ -5108,7 +5117,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5116,7 +5125,7 @@
         <v>1</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5124,7 +5133,7 @@
         <v>2</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -5148,7 +5157,7 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -5230,7 +5239,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B202">
         <f>35317005.6480545/35266918.197406</f>
@@ -5246,12 +5255,12 @@
         <v>77</v>
       </c>
       <c r="G202" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B203">
         <f>85.8823529411765/35266918.197406</f>
@@ -5267,7 +5276,7 @@
         <v>77</v>
       </c>
       <c r="G203" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -5291,12 +5300,12 @@
         <v>116</v>
       </c>
       <c r="H204" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B205">
         <f>105192*0.0018/35266918.197406</f>
@@ -5312,10 +5321,10 @@
         <v>77</v>
       </c>
       <c r="G205" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H205" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -5339,7 +5348,7 @@
         <v>118</v>
       </c>
       <c r="H206" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -5365,14 +5374,14 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <f>61362/35266918.197406</f>
         <v>1.7399308796001737E-3</v>
       </c>
       <c r="C208" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E208" t="s">
         <v>92</v>
@@ -5381,10 +5390,10 @@
         <v>77</v>
       </c>
       <c r="G208" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H208" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -5396,7 +5405,7 @@
         <v>8.9482159522294652E-4</v>
       </c>
       <c r="C209" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E209" t="s">
         <v>92</v>
@@ -5426,12 +5435,12 @@
         <v>77</v>
       </c>
       <c r="G210" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B211">
         <f>-25/35266918.197406</f>
@@ -5447,19 +5456,19 @@
         <v>77</v>
       </c>
       <c r="G211" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B212">
         <f>-15340.5/35266918.197406</f>
         <v>-4.3498271990004343E-4</v>
       </c>
       <c r="C212" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E212" t="s">
         <v>92</v>
@@ -5468,22 +5477,22 @@
         <v>77</v>
       </c>
       <c r="G212" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H212" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
         <v>-4.1758341110404169E-2</v>
       </c>
       <c r="C213" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E213" t="s">
         <v>92</v>
@@ -5492,10 +5501,10 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H213" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5503,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5511,7 +5520,7 @@
         <v>2</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -5535,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -5617,7 +5626,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B226">
         <f>35266918.197406/35216830.7467575</f>
@@ -5633,12 +5642,12 @@
         <v>77</v>
       </c>
       <c r="G226" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B227">
         <f>858.823529411765/35266918.197406</f>
@@ -5654,7 +5663,7 @@
         <v>77</v>
       </c>
       <c r="G227" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -5678,12 +5687,12 @@
         <v>116</v>
       </c>
       <c r="H228" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B229">
         <f>105192*0.0018/35266918.197406</f>
@@ -5699,10 +5708,10 @@
         <v>77</v>
       </c>
       <c r="G229" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H229" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -5726,7 +5735,7 @@
         <v>118</v>
       </c>
       <c r="H230" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -5752,14 +5761,14 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B232">
         <f>61362/35266918.197406</f>
         <v>1.7399308796001737E-3</v>
       </c>
       <c r="C232" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E232" t="s">
         <v>92</v>
@@ -5768,10 +5777,10 @@
         <v>77</v>
       </c>
       <c r="G232" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H232" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -5783,7 +5792,7 @@
         <v>8.9482159522294652E-4</v>
       </c>
       <c r="C233" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E233" t="s">
         <v>92</v>
@@ -5813,12 +5822,12 @@
         <v>77</v>
       </c>
       <c r="G234" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B235">
         <f>-25/35266918.197406</f>
@@ -5834,19 +5843,19 @@
         <v>77</v>
       </c>
       <c r="G235" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B236">
         <f>-15340.5/35266918.197406</f>
         <v>-4.3498271990004343E-4</v>
       </c>
       <c r="C236" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E236" t="s">
         <v>92</v>
@@ -5855,22 +5864,22 @@
         <v>77</v>
       </c>
       <c r="G236" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H236" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
         <v>-4.1758341110404169E-2</v>
       </c>
       <c r="C237" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E237" t="s">
         <v>92</v>
@@ -5879,10 +5888,10 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H237" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5890,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5898,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -5922,7 +5931,7 @@
         <v>6</v>
       </c>
       <c r="B244" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -6004,7 +6013,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B250" s="3">
         <f>35216830.7467575/35166743.2961089</f>
@@ -6020,7 +6029,7 @@
         <v>77</v>
       </c>
       <c r="G250" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -6041,12 +6050,12 @@
         <v>77</v>
       </c>
       <c r="G251" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B252">
         <f>9.0423488262031/35166743.2961089</f>
@@ -6056,13 +6065,13 @@
         <v>79</v>
       </c>
       <c r="E252" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F252" t="s">
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -6088,14 +6097,14 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B254">
         <f>-1.04509559297825/1000/35166743.2961089</f>
         <v>-2.9718293336929119E-11</v>
       </c>
       <c r="C254" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E254" t="s">
         <v>57</v>
@@ -6104,12 +6113,12 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B255">
         <f>20.3566445936633/35166743.2961089</f>
@@ -6125,12 +6134,12 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B256">
         <f>8.60613501348175/35166743.2961089</f>
@@ -6146,12 +6155,12 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B257">
         <f>857.887165018666/35166743.2961089</f>
@@ -6167,12 +6176,12 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B258">
         <f>31.6255014222983/35166743.2961089</f>
@@ -6188,7 +6197,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6209,12 +6218,12 @@
         <v>77</v>
       </c>
       <c r="G259" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6230,12 +6239,12 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B261">
         <f>239.008818220243/35166743.2961089</f>
@@ -6251,12 +6260,12 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B262">
         <f>146.313383016955/35166743.2961089</f>
@@ -6272,12 +6281,12 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B263">
         <f>10269.2001744819/35166743.2961089</f>
@@ -6293,7 +6302,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6319,7 +6328,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6335,12 +6344,12 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B266">
         <f>89787.3431184791/35166743.2961089</f>
@@ -6356,7 +6365,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6382,7 +6391,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B268">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6398,12 +6407,12 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B269">
         <f>13722.5595251926/35166743.2961089</f>
@@ -6419,12 +6428,12 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B270">
         <f>133590.480145915/35166743.2961089</f>
@@ -6440,12 +6449,12 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B271">
         <f>17902.9418971056/35166743.2961089</f>
@@ -6461,12 +6470,12 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B272">
         <f>10.632711685083/35166743.2961089</f>
@@ -6482,12 +6491,12 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B273">
         <f>38.8957316343209/35166743.2961089</f>
@@ -6503,7 +6512,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6529,7 +6538,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B275">
         <f>29.3535544810412/35166743.2961089</f>
@@ -6545,7 +6554,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6560,7 +6569,7 @@
         <v>79</v>
       </c>
       <c r="E276" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F276" t="s">
         <v>77</v>
@@ -6571,7 +6580,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B277">
         <f>0.137225595251926/35166743.2961089</f>
@@ -6587,7 +6596,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6613,7 +6622,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B279">
         <f>1617.62622217503/35166743.2961089</f>
@@ -6629,12 +6638,12 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B280">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6650,12 +6659,12 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B281">
         <f>28808.2872151395/35166743.2961089</f>
@@ -6671,12 +6680,12 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B282">
         <f>1581.27507111491/35166743.2961089</f>
@@ -6686,13 +6695,13 @@
         <v>79</v>
       </c>
       <c r="E282" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F282" t="s">
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6739,7 +6748,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B285">
         <f>1.28137807486898/35166743.2961089</f>
@@ -6749,18 +6758,18 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
       </c>
       <c r="G285" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B286">
         <f>8.88785643419762/35166743.2961089</f>
@@ -6776,7 +6785,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -6797,7 +6806,7 @@
         <v>77</v>
       </c>
       <c r="G287" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -6812,7 +6821,7 @@
         <v>79</v>
       </c>
       <c r="E288" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F288" t="s">
         <v>77</v>
@@ -6823,7 +6832,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B289">
         <f>11.4506125839356/35166743.2961089</f>
@@ -6844,7 +6853,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B290">
         <f>16176.2622217503/35166743.2961089</f>
@@ -6860,12 +6869,12 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B291">
         <f>4780.17636440486/35166743.2961089</f>
@@ -6881,12 +6890,12 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B292">
         <f>-1599450.64664497/35166743.2961089</f>
@@ -6902,12 +6911,12 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B293">
         <f>133590.480145915/35166743.2961089</f>
@@ -6928,7 +6937,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B294">
         <f>18993.476428909/35166743.2961089</f>
@@ -6944,12 +6953,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>254</v>
+        <v>448</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6965,12 +6974,12 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B296">
         <f>13359.0480145915/35166743.2961089</f>
@@ -6986,12 +6995,12 @@
         <v>77</v>
       </c>
       <c r="G296" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7007,12 +7016,12 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B298">
         <f>192.661100618599/35166743.2961089</f>
@@ -7028,12 +7037,12 @@
         <v>77</v>
       </c>
       <c r="G298" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7049,12 +7058,12 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B300">
         <f>4.72564963781469/35166743.2961089</f>
@@ -7070,19 +7079,19 @@
         <v>78</v>
       </c>
       <c r="H300" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B301">
         <f>-189.93476428909/35166743.2961089</f>
         <v>-5.4009767890592737E-6</v>
       </c>
       <c r="C301" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E301" t="s">
         <v>119</v>
@@ -7091,12 +7100,12 @@
         <v>77</v>
       </c>
       <c r="G301" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B302">
         <f>359876.395495118/35166743.2961089</f>
@@ -7112,12 +7121,12 @@
         <v>77</v>
       </c>
       <c r="G302" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B303">
         <f>15358.3613228977/35166743.2961089</f>
@@ -7133,12 +7142,12 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B304">
         <f>27354.241172735/35166743.2961089</f>
@@ -7154,7 +7163,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -7180,7 +7189,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B306">
         <f>7773.00911954234/35166743.2961089</f>
@@ -7196,12 +7205,12 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B307">
         <f>2296.96786341532/35166743.2961089</f>
@@ -7217,12 +7226,12 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B308">
         <f>19084.3543065593/35166743.2961089</f>
@@ -7238,12 +7247,12 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B309">
         <f>13449.9258922418/35166743.2961089</f>
@@ -7259,12 +7268,12 @@
         <v>77</v>
       </c>
       <c r="G309" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>256</v>
+        <v>445</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7280,12 +7289,12 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B311">
         <f>193.768348323303/35166743.2961089</f>
@@ -7301,12 +7310,12 @@
         <v>77</v>
       </c>
       <c r="G311" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7322,12 +7331,12 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B313">
         <f>4.75280854377914/35166743.2961089</f>
@@ -7345,7 +7354,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B314">
         <f>341700.819965062/35166743.2961089</f>
@@ -7361,7 +7370,7 @@
         <v>77</v>
       </c>
       <c r="G314" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -7385,19 +7394,19 @@
         <v>118</v>
       </c>
       <c r="H315" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B316">
         <f>5752.6875/35166743.2961089</f>
         <v>1.6358317435201679E-4</v>
       </c>
       <c r="C316" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E316" t="s">
         <v>92</v>
@@ -7406,10 +7415,10 @@
         <v>77</v>
       </c>
       <c r="G316" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H316" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -7442,7 +7451,7 @@
         <v>1.0469323158529074E-3</v>
       </c>
       <c r="C318" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E318" t="s">
         <v>92</v>
@@ -7454,7 +7463,7 @@
         <v>121</v>
       </c>
       <c r="H318" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -7475,12 +7484,12 @@
         <v>77</v>
       </c>
       <c r="G319" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B320">
         <f>-25/35166743.2961089</f>
@@ -7496,19 +7505,19 @@
         <v>77</v>
       </c>
       <c r="G320" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
         <v>-0.39883135842015521</v>
       </c>
       <c r="C321" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E321" t="s">
         <v>92</v>
@@ -7517,22 +7526,22 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H321" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B322">
         <f>-1438.171875/35166743.2961089</f>
         <v>-4.0895793588004197E-5</v>
       </c>
       <c r="C322" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E322" t="s">
         <v>92</v>
@@ -7541,10 +7550,10 @@
         <v>77</v>
       </c>
       <c r="G322" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H322" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7552,7 +7561,7 @@
         <v>1</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -7560,7 +7569,7 @@
         <v>2</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -7584,7 +7593,7 @@
         <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -7666,7 +7675,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B335">
         <f>35166743.2961089/35116655.8454604</f>
@@ -7682,7 +7691,7 @@
         <v>77</v>
       </c>
       <c r="G335" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -7708,7 +7717,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7724,19 +7733,22 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
-        <v>155</v>
+        <v>452</v>
+      </c>
+      <c r="H337" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B338">
         <f>-344611.622272445/35116655.8454604</f>
         <v>-9.8133382571789964E-3</v>
       </c>
       <c r="C338" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E338" t="s">
         <v>119</v>
@@ -7745,12 +7757,12 @@
         <v>77</v>
       </c>
       <c r="G338" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B339">
         <f>525.84373595458/35116655.8454604</f>
@@ -7766,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="G339" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
@@ -7790,12 +7802,12 @@
         <v>118</v>
       </c>
       <c r="H340" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B341" s="7">
         <f>3833.80429778095/35116655.8454604</f>
@@ -7811,12 +7823,12 @@
         <v>77</v>
       </c>
       <c r="G341" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B342">
         <f>402.670926863851/35116655.8454604</f>
@@ -7832,19 +7844,19 @@
         <v>77</v>
       </c>
       <c r="G342" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B343">
         <f>-71.1588538830372/1000/35116655.8454604</f>
         <v>-2.0263562167248918E-9</v>
       </c>
       <c r="C343" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E343" t="s">
         <v>119</v>
@@ -7853,12 +7865,12 @@
         <v>77</v>
       </c>
       <c r="G343" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B344">
         <f>48.1344226584729/35116655.8454604</f>
@@ -7868,18 +7880,18 @@
         <v>79</v>
       </c>
       <c r="E344" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F344" t="s">
         <v>77</v>
       </c>
       <c r="G344" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B345">
         <f>202.550980112262/35116655.8454604</f>
@@ -7895,19 +7907,19 @@
         <v>77</v>
       </c>
       <c r="G345" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B346">
         <f>-972.244704538856/1000/35116655.8454604</f>
         <v>-2.7686141551105016E-8</v>
       </c>
       <c r="C346" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E346" t="s">
         <v>119</v>
@@ -7916,19 +7928,19 @@
         <v>77</v>
       </c>
       <c r="G346" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B347">
         <f>-1204910.81002613/35116655.8454604</f>
         <v>-3.4311661546835223E-2</v>
       </c>
       <c r="C347" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E347" t="s">
         <v>119</v>
@@ -7937,19 +7949,19 @@
         <v>77</v>
       </c>
       <c r="G347" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B348">
         <f>-940.907622084545/35116655.8454604</f>
         <v>-2.679377063195435E-5</v>
       </c>
       <c r="C348" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E348" t="s">
         <v>119</v>
@@ -7958,12 +7970,12 @@
         <v>77</v>
       </c>
       <c r="G348" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B349">
         <f>1599.55236661995/35116655.8454604</f>
@@ -7979,12 +7991,12 @@
         <v>77</v>
       </c>
       <c r="G349" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B350">
         <f>1621.42611656436/35116655.8454604</f>
@@ -7994,18 +8006,18 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
       </c>
       <c r="G350" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B351">
         <f>10467.5972956905/35116655.8454604</f>
@@ -8021,19 +8033,19 @@
         <v>77</v>
       </c>
       <c r="G351" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B352">
         <f>-868.709427972942/1000/35116655.8454604</f>
         <v>-2.4737817626937895E-8</v>
       </c>
       <c r="C352" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E352" t="s">
         <v>119</v>
@@ -8042,19 +8054,19 @@
         <v>77</v>
       </c>
       <c r="G352" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B353">
         <f>-943.196952623594/35116655.8454604</f>
         <v>-2.6858962788893322E-5</v>
       </c>
       <c r="C353" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E353" t="s">
         <v>119</v>
@@ -8063,12 +8075,12 @@
         <v>77</v>
       </c>
       <c r="G353" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B354">
         <f>2351.15891963723/35116655.8454604</f>
@@ -8084,7 +8096,7 @@
         <v>77</v>
       </c>
       <c r="G354" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -8110,7 +8122,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B356">
         <f>10493.0660979375/35116655.8454604</f>
@@ -8126,19 +8138,19 @@
         <v>77</v>
       </c>
       <c r="G356" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B357">
         <f>-1032.67097354185/1000/35116655.8454604</f>
         <v>-2.9406871146454715E-8</v>
       </c>
       <c r="C357" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E357" t="s">
         <v>119</v>
@@ -8147,12 +8159,12 @@
         <v>77</v>
       </c>
       <c r="G357" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B358">
         <f>13404.6327615407/35116655.8454604</f>
@@ -8168,19 +8180,19 @@
         <v>77</v>
       </c>
       <c r="G358" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B359">
         <f>-1697.98441170502/35116655.8454604</f>
         <v>-4.835267968503105E-5</v>
       </c>
       <c r="C359" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E359" t="s">
         <v>119</v>
@@ -8189,7 +8201,7 @@
         <v>77</v>
       </c>
       <c r="G359" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
@@ -8201,7 +8213,7 @@
         <v>2.9955016349769645E-3</v>
       </c>
       <c r="C360" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E360" t="s">
         <v>92</v>
@@ -8213,7 +8225,7 @@
         <v>121</v>
       </c>
       <c r="H360" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
@@ -8234,12 +8246,12 @@
         <v>77</v>
       </c>
       <c r="G361" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B362">
         <f>-25/35116655.8454604</f>
@@ -8255,19 +8267,19 @@
         <v>77</v>
       </c>
       <c r="G362" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
         <v>-0.4850288404551038</v>
       </c>
       <c r="C363" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E363" t="s">
         <v>92</v>
@@ -8276,22 +8288,22 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H363" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B364">
         <f>-90604.828125/35116655.8454604</f>
         <v>-2.5801098066891431E-3</v>
       </c>
       <c r="C364" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E364" t="s">
         <v>92</v>
@@ -8300,22 +8312,22 @@
         <v>77</v>
       </c>
       <c r="G364" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H364" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B365">
         <f>362419.3125/35116655.8454604</f>
         <v>1.0320439226756573E-2</v>
       </c>
       <c r="C365" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E365" t="s">
         <v>92</v>
@@ -8324,10 +8336,10 @@
         <v>77</v>
       </c>
       <c r="G365" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H365" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8335,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8343,7 +8355,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
@@ -8367,7 +8379,7 @@
         <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
@@ -8449,7 +8461,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B378">
         <f>35116655.8454604/35066568.3948119</f>
@@ -8465,7 +8477,7 @@
         <v>77</v>
       </c>
       <c r="G378" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
@@ -8491,14 +8503,14 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B380">
         <f>52596/35066568.3948119</f>
         <v>1.499890134895024E-3</v>
       </c>
       <c r="C380" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E380" t="s">
         <v>92</v>
@@ -8507,10 +8519,10 @@
         <v>77</v>
       </c>
       <c r="G380" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H380" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
@@ -8522,7 +8534,7 @@
         <v>5.999560539580096E-3</v>
       </c>
       <c r="C381" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E381" t="s">
         <v>92</v>
@@ -8534,7 +8546,7 @@
         <v>121</v>
       </c>
       <c r="H381" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
@@ -8555,12 +8567,12 @@
         <v>77</v>
       </c>
       <c r="G382" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B383">
         <f>-25/35066568.3948119</f>
@@ -8576,19 +8588,19 @@
         <v>77</v>
       </c>
       <c r="G383" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B384">
         <f>-13149/35066568.3948119</f>
         <v>-3.74972533723756E-4</v>
       </c>
       <c r="C384" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E384" t="s">
         <v>92</v>
@@ -8597,22 +8609,22 @@
         <v>77</v>
       </c>
       <c r="G384" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H384" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
         <v>-2.4998168914917066E-3</v>
       </c>
       <c r="C385" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E385" t="s">
         <v>92</v>
@@ -8621,10 +8633,10 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H385" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8632,7 +8644,7 @@
         <v>1</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -8640,7 +8652,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
@@ -8664,7 +8676,7 @@
         <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
@@ -8746,7 +8758,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B398">
         <f>35066568.3948119/35016480.9441634</f>
@@ -8762,12 +8774,12 @@
         <v>77</v>
       </c>
       <c r="G398" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B399">
         <f>70/35016480.9441634</f>
@@ -8783,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="G399" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -8807,12 +8819,12 @@
         <v>116</v>
       </c>
       <c r="H400" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B401">
         <f>52596*0.0018/35016480.9441634</f>
@@ -8828,10 +8840,10 @@
         <v>77</v>
       </c>
       <c r="G401" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H401" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -8855,7 +8867,7 @@
         <v>118</v>
       </c>
       <c r="H402" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -8881,14 +8893,14 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B404">
         <f>30681/35016480.9441634</f>
         <v>8.7618741725998476E-4</v>
       </c>
       <c r="C404" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E404" t="s">
         <v>92</v>
@@ -8897,10 +8909,10 @@
         <v>77</v>
       </c>
       <c r="G404" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H404" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -8912,7 +8924,7 @@
         <v>4.5061067173370642E-4</v>
       </c>
       <c r="C405" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E405" t="s">
         <v>92</v>
@@ -8924,7 +8936,7 @@
         <v>121</v>
       </c>
       <c r="H405" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
@@ -8945,12 +8957,12 @@
         <v>77</v>
       </c>
       <c r="G406" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B407">
         <f>-25/35016480.9441634</f>
@@ -8966,19 +8978,19 @@
         <v>77</v>
       </c>
       <c r="G407" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
         <v>-1.2516963103714068E-2</v>
       </c>
       <c r="C408" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E408" t="s">
         <v>92</v>
@@ -8987,22 +8999,22 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H408" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B409">
         <f>-7670.25/35016480.9441634</f>
         <v>-2.1904685431499619E-4</v>
       </c>
       <c r="C409" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E409" t="s">
         <v>92</v>
@@ -9011,10 +9023,10 @@
         <v>77</v>
       </c>
       <c r="G409" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H409" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9022,7 +9034,7 @@
         <v>1</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="413" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9030,7 +9042,7 @@
         <v>2</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
@@ -9054,7 +9066,7 @@
         <v>6</v>
       </c>
       <c r="B416" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
@@ -9136,7 +9148,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B422" s="3">
         <f>35016480.9441634/34966393.4935149</f>
@@ -9152,12 +9164,12 @@
         <v>77</v>
       </c>
       <c r="G422" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B423">
         <f>515.294117647059/34966393.4935149</f>
@@ -9173,7 +9185,7 @@
         <v>77</v>
       </c>
       <c r="G423" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
@@ -9197,12 +9209,12 @@
         <v>116</v>
       </c>
       <c r="H424" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B425">
         <f>368172*0.0018/34966393.4935149</f>
@@ -9218,10 +9230,10 @@
         <v>77</v>
       </c>
       <c r="G425" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H425" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
@@ -9245,7 +9257,7 @@
         <v>118</v>
       </c>
       <c r="H426" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
@@ -9271,14 +9283,14 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B428">
         <f>219150/34966393.4935149</f>
         <v>6.2674464851699679E-3</v>
       </c>
       <c r="C428" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E428" t="s">
         <v>92</v>
@@ -9287,10 +9299,10 @@
         <v>77</v>
       </c>
       <c r="G428" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H428" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
@@ -9302,7 +9314,7 @@
         <v>3.0083743128815842E-3</v>
       </c>
       <c r="C429" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E429" t="s">
         <v>92</v>
@@ -9314,7 +9326,7 @@
         <v>121</v>
       </c>
       <c r="H429" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
@@ -9335,12 +9347,12 @@
         <v>77</v>
       </c>
       <c r="G430" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B431">
         <f>-25/34966393.4935149</f>
@@ -9356,19 +9368,19 @@
         <v>77</v>
       </c>
       <c r="G431" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B432">
         <f>-54787.5/34966393.4935149</f>
         <v>-1.566861621292492E-3</v>
       </c>
       <c r="C432" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E432" t="s">
         <v>92</v>
@@ -9377,22 +9389,22 @@
         <v>77</v>
       </c>
       <c r="G432" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H432" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
         <v>-7.5209357822039608E-2</v>
       </c>
       <c r="C433" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E433" t="s">
         <v>92</v>
@@ -9401,10 +9413,10 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H433" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="436" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9412,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="437" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9420,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
@@ -9444,7 +9456,7 @@
         <v>6</v>
       </c>
       <c r="B440" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
@@ -9526,7 +9538,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B446">
         <f>34966393.4935149/34916306.0428664</f>
@@ -9542,12 +9554,12 @@
         <v>77</v>
       </c>
       <c r="G446" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B447">
         <f>100.025/34916306.0428664</f>
@@ -9563,12 +9575,12 @@
         <v>77</v>
       </c>
       <c r="G447" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B448">
         <f>3800.95/34916306.0428664</f>
@@ -9584,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="G448" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
@@ -9610,7 +9622,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B450">
         <f>2981.5452/34916306.0428664</f>
@@ -9631,7 +9643,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B451">
         <f>0.0000008002/34916306.0428664</f>
@@ -9647,12 +9659,12 @@
         <v>77</v>
       </c>
       <c r="G451" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B452">
         <f>100.025/34916306.0428664</f>
@@ -9668,7 +9680,7 @@
         <v>77</v>
       </c>
       <c r="G452" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
@@ -9689,12 +9701,12 @@
         <v>77</v>
       </c>
       <c r="G453" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B454">
         <f>87.6219/34916306.0428664</f>
@@ -9710,12 +9722,12 @@
         <v>77</v>
       </c>
       <c r="G454" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B455">
         <f>685.3713/34916306.0428664</f>
@@ -9731,12 +9743,12 @@
         <v>77</v>
       </c>
       <c r="G455" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B456">
         <f>3500/50.7/34916306.0428664</f>
@@ -9752,12 +9764,12 @@
         <v>77</v>
       </c>
       <c r="G456" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B457">
         <f>24500/34916306.0428664</f>
@@ -9773,12 +9785,12 @@
         <v>77</v>
       </c>
       <c r="G457" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B458">
         <f>70000/34916306.0428664</f>
@@ -9794,7 +9806,7 @@
         <v>77</v>
       </c>
       <c r="G458" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
@@ -9806,7 +9818,7 @@
         <v>2.8168649879300272E-2</v>
       </c>
       <c r="C459" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E459" t="s">
         <v>92</v>
@@ -9818,7 +9830,7 @@
         <v>121</v>
       </c>
       <c r="H459" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
@@ -9839,12 +9851,12 @@
         <v>77</v>
       </c>
       <c r="G460" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B461">
         <f>-0.025/34916306.0428664</f>
@@ -9860,12 +9872,12 @@
         <v>77</v>
       </c>
       <c r="G461" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9881,12 +9893,12 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B463">
         <f>-1391.66666666667/34916306.0428664</f>
@@ -9896,25 +9908,25 @@
         <v>79</v>
       </c>
       <c r="E463" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="F463" t="s">
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
         <v>-0.81593682805459788</v>
       </c>
       <c r="C464" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E464" t="s">
         <v>92</v>
@@ -9923,10 +9935,10 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H464" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9934,7 +9946,7 @@
         <v>1</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -9942,7 +9954,7 @@
         <v>2</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
@@ -9966,7 +9978,7 @@
         <v>6</v>
       </c>
       <c r="B471" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
@@ -10048,7 +10060,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B477">
         <f>34916306.0428664/34866218.5922179</f>
@@ -10064,7 +10076,7 @@
         <v>77</v>
       </c>
       <c r="G477" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
@@ -10097,7 +10109,7 @@
         <v>3.4243151342671946E-2</v>
       </c>
       <c r="C479" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E479" t="s">
         <v>92</v>
@@ -10109,7 +10121,7 @@
         <v>121</v>
       </c>
       <c r="H479" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
@@ -10130,12 +10142,12 @@
         <v>77</v>
       </c>
       <c r="G480" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B481">
         <f>-0.025/34866218.5922179</f>
@@ -10151,19 +10163,19 @@
         <v>77</v>
       </c>
       <c r="G481" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
         <v>-1.4205125189874928</v>
       </c>
       <c r="C482" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E482" t="s">
         <v>92</v>
@@ -10172,15 +10184,15 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H482" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B483">
         <f>34866218.5922179/34866218.5922179</f>
@@ -10196,10 +10208,10 @@
         <v>77</v>
       </c>
       <c r="G483" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H483" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="486" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10207,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10215,7 +10227,7 @@
         <v>2</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
@@ -10239,7 +10251,7 @@
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
@@ -10321,7 +10333,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B496">
         <f>34866218.5922179/34816131.1415694</f>
@@ -10337,7 +10349,7 @@
         <v>77</v>
       </c>
       <c r="G496" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
@@ -10370,7 +10382,7 @@
         <v>4.7586390149532227E-4</v>
       </c>
       <c r="C498" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E498" t="s">
         <v>92</v>
@@ -10382,7 +10394,7 @@
         <v>121</v>
       </c>
       <c r="H498" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
@@ -10403,12 +10415,12 @@
         <v>77</v>
       </c>
       <c r="G499" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B500">
         <f>-0.025/34816131.1415694</f>
@@ -10424,7 +10436,7 @@
         <v>77</v>
       </c>
       <c r="G500" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="502" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10432,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -10440,7 +10452,7 @@
         <v>2</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
@@ -10464,7 +10476,7 @@
         <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
@@ -10546,7 +10558,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B512" s="3">
         <f>34816131.1415694/483538.053104108</f>
@@ -10562,12 +10574,12 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B513">
         <f>1644029.38055394/50.7/483538.053104108</f>
@@ -10583,15 +10595,15 @@
         <v>77</v>
       </c>
       <c r="G513" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="H513" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B514">
         <f>75098.8243368525/483538.053104108</f>
@@ -10607,15 +10619,15 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H514" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B515">
         <f>75098.8243368525/483538.053104108</f>
@@ -10631,15 +10643,15 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H515" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B516">
         <f>4833/483538.053104108</f>
@@ -10655,15 +10667,15 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H516" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B517">
         <f>4833/483538.053104108</f>
@@ -10679,15 +10691,15 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="H517" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B518">
         <f>11000000/483538.053104108</f>
@@ -10703,12 +10715,12 @@
         <v>77</v>
       </c>
       <c r="G518" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B519">
         <f>37800/483538.053104108</f>
@@ -10724,10 +10736,10 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H519" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
@@ -10751,7 +10763,7 @@
         <v>52</v>
       </c>
       <c r="H520" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
@@ -10775,12 +10787,12 @@
         <v>56</v>
       </c>
       <c r="H521" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B522">
         <f>336/483538.053104108</f>
@@ -10796,15 +10808,15 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H522" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B523">
         <f>250000/483538.053104108</f>
@@ -10820,12 +10832,12 @@
         <v>77</v>
       </c>
       <c r="G523" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B524">
         <f>177500/483538.053104108</f>
@@ -10841,12 +10853,12 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B525">
         <f>27500/483538.053104108</f>
@@ -10862,12 +10874,12 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B526">
         <f>45000/483538.053104108</f>
@@ -10883,12 +10895,12 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B527">
         <f>1500/483538.053104108</f>
@@ -10904,7 +10916,7 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
@@ -10925,12 +10937,12 @@
         <v>77</v>
       </c>
       <c r="G528" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B529">
         <f>75100/483538.053104108</f>
@@ -10946,10 +10958,10 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="H529" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
@@ -10973,7 +10985,7 @@
         <v>52</v>
       </c>
       <c r="H530" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
@@ -10997,7 +11009,7 @@
         <v>56</v>
       </c>
       <c r="H531" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
@@ -11021,19 +11033,19 @@
         <v>52</v>
       </c>
       <c r="H532" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B533">
         <f>8795.30683506687/483538.053104108</f>
         <v>1.818948225192361E-2</v>
       </c>
       <c r="C533" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E533" t="s">
         <v>92</v>
@@ -11042,10 +11054,10 @@
         <v>77</v>
       </c>
       <c r="G533" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H533" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
@@ -11057,7 +11069,7 @@
         <v>3.1203385323796795E-2</v>
       </c>
       <c r="C534" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E534" t="s">
         <v>92</v>
@@ -11069,12 +11081,12 @@
         <v>121</v>
       </c>
       <c r="H534" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B535">
         <f>5000/483538.053104108</f>
@@ -11090,12 +11102,12 @@
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B536">
         <f>-5000/483538.053104108</f>
@@ -11111,7 +11123,7 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
@@ -11132,12 +11144,12 @@
         <v>77</v>
       </c>
       <c r="G537" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B538">
         <f>-5/483538.053104108</f>
@@ -11153,19 +11165,19 @@
         <v>77</v>
       </c>
       <c r="G538" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B539">
         <f>-2198.82670876672/483538.053104108</f>
         <v>-4.5473705629809087E-3</v>
       </c>
       <c r="C539" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E539" t="s">
         <v>92</v>
@@ -11174,10 +11186,10 @@
         <v>77</v>
       </c>
       <c r="G539" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H539" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="542" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11185,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11193,7 +11205,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
@@ -11217,7 +11229,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -11299,7 +11311,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B552" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11315,12 +11327,12 @@
         <v>77</v>
       </c>
       <c r="G552" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11336,12 +11348,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11357,7 +11369,7 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11365,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11373,7 +11385,7 @@
         <v>2</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
@@ -11397,7 +11409,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -11480,7 +11492,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B566" s="4">
         <f>1/(11500)</f>
@@ -11496,7 +11508,7 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11504,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11512,7 +11524,7 @@
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -11536,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -11544,7 +11556,7 @@
         <v>7</v>
       </c>
       <c r="B573" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
@@ -11617,7 +11629,7 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
@@ -11681,7 +11693,7 @@
         <v>52</v>
       </c>
       <c r="H580" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
@@ -11704,18 +11716,18 @@
         <v>120</v>
       </c>
       <c r="H581" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
       </c>
       <c r="C582" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E582" t="s">
         <v>92</v>
@@ -11724,10 +11736,10 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H582" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
@@ -11738,7 +11750,7 @@
         <v>4</v>
       </c>
       <c r="C583" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E583" t="s">
         <v>92</v>
@@ -11750,12 +11762,12 @@
         <v>121</v>
       </c>
       <c r="H583" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11770,12 +11782,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11790,12 +11802,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11810,12 +11822,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11830,7 +11842,7 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11838,7 +11850,7 @@
         <v>1</v>
       </c>
       <c r="B590" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="591" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11846,7 +11858,7 @@
         <v>2</v>
       </c>
       <c r="B591" s="5" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
@@ -11870,7 +11882,7 @@
         <v>6</v>
       </c>
       <c r="B594" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
@@ -11949,12 +11961,12 @@
         <v>tray cleaning</v>
       </c>
       <c r="H599" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -11970,10 +11982,10 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H600" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -12018,12 +12030,12 @@
         <v>52</v>
       </c>
       <c r="H602" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12063,19 +12075,19 @@
         <v>77</v>
       </c>
       <c r="G604" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
         <v>-2.48209038086526E-6</v>
       </c>
       <c r="C605" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E605" t="s">
         <v>54</v>
@@ -12084,19 +12096,19 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="8" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
         <v>-0.14892542285191501</v>
       </c>
       <c r="C606" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E606" t="s">
         <v>92</v>
@@ -12105,10 +12117,10 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H606" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="609" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12124,7 +12136,7 @@
         <v>2</v>
       </c>
       <c r="B610" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
@@ -12227,7 +12239,7 @@
         <v>ultra pure water</v>
       </c>
       <c r="H618" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
@@ -12251,12 +12263,12 @@
         <v>52</v>
       </c>
       <c r="H619" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12287,7 +12299,7 @@
         <v>4.7281323877068463E-7</v>
       </c>
       <c r="C621" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E621" t="s">
         <v>92</v>
@@ -12299,12 +12311,12 @@
         <v>121</v>
       </c>
       <c r="H621" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12320,19 +12332,19 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B623">
         <f>-1/2307.27272727273</f>
         <v>-4.3341213553979455E-4</v>
       </c>
       <c r="C623" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E623" t="s">
         <v>119</v>
@@ -12341,10 +12353,10 @@
         <v>77</v>
       </c>
       <c r="G623" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12352,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="627" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12360,7 +12372,7 @@
         <v>2</v>
       </c>
       <c r="B627" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
@@ -12384,7 +12396,7 @@
         <v>6</v>
       </c>
       <c r="B630" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
@@ -12392,7 +12404,7 @@
         <v>7</v>
       </c>
       <c r="B631" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
@@ -12464,7 +12476,7 @@
         <v>waste water</v>
       </c>
       <c r="H635" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
@@ -12488,7 +12500,7 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
@@ -12523,7 +12535,7 @@
         <v>79</v>
       </c>
       <c r="E638" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F638" t="s">
         <v>77</v>
@@ -12532,12 +12544,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12552,12 +12564,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12572,12 +12584,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12592,7 +12604,7 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
@@ -12616,7 +12628,7 @@
         <v>52</v>
       </c>
       <c r="H642" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
@@ -12628,7 +12640,7 @@
         <v>78.802206461780898</v>
       </c>
       <c r="C643" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E643" t="s">
         <v>92</v>
@@ -12640,12 +12652,12 @@
         <v>121</v>
       </c>
       <c r="H643" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12668,13 +12680,13 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B645">
         <v>0.68557919621749397</v>
       </c>
       <c r="C645" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E645" t="s">
         <v>119</v>
@@ -12683,15 +12695,15 @@
         <v>77</v>
       </c>
       <c r="G645" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B646">
         <f>0.179790569157611*1000</f>
@@ -12707,19 +12719,19 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
         <v>-78.802206461780898</v>
       </c>
       <c r="C647" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E647" t="s">
         <v>92</v>
@@ -12728,21 +12740,21 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H647" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B648">
         <v>47.281323877068601</v>
       </c>
       <c r="C648" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E648" t="s">
         <v>92</v>
@@ -12751,10 +12763,10 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H648" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="651" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12762,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="B651" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="652" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12770,7 +12782,7 @@
         <v>2</v>
       </c>
       <c r="B652" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
@@ -12794,7 +12806,7 @@
         <v>6</v>
       </c>
       <c r="B655" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
@@ -12802,7 +12814,7 @@
         <v>7</v>
       </c>
       <c r="B656" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
@@ -12873,19 +12885,19 @@
         <v>cooling water, conditioned</v>
       </c>
       <c r="H660" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B661">
         <f>0.75</f>
         <v>0.75</v>
       </c>
       <c r="C661" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E661" t="s">
         <v>119</v>
@@ -12894,10 +12906,10 @@
         <v>77</v>
       </c>
       <c r="G661" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
@@ -12923,7 +12935,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B663">
         <f>0.252525252525253*1000</f>
@@ -12950,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="B665" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="666" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12958,7 +12970,7 @@
         <v>2</v>
       </c>
       <c r="B666" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
@@ -12982,7 +12994,7 @@
         <v>6</v>
       </c>
       <c r="B669" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
@@ -12990,7 +13002,7 @@
         <v>7</v>
       </c>
       <c r="B670" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
@@ -13062,7 +13074,7 @@
         <v>cooling water, used</v>
       </c>
       <c r="H674" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="677" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13078,7 +13090,7 @@
         <v>2</v>
       </c>
       <c r="B678" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
@@ -13110,7 +13122,7 @@
         <v>7</v>
       </c>
       <c r="B682" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
@@ -13181,18 +13193,18 @@
         <v>compressed air, 14 bar, low efficiency</v>
       </c>
       <c r="H686" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B687">
         <v>1</v>
       </c>
       <c r="C687" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E687" t="s">
         <v>53</v>
@@ -13201,10 +13213,10 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="H687" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="690" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13212,7 +13224,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13220,7 +13232,7 @@
         <v>2</v>
       </c>
       <c r="B691" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
@@ -13244,7 +13256,7 @@
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
@@ -13252,7 +13264,7 @@
         <v>7</v>
       </c>
       <c r="B695" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
@@ -13323,12 +13335,12 @@
         <v>exhaust, general</v>
       </c>
       <c r="H699" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13343,12 +13355,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13363,7 +13375,7 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
@@ -13389,7 +13401,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13404,12 +13416,12 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B704">
         <v>9.8572073921971304E-3</v>
@@ -13424,7 +13436,7 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
@@ -13435,7 +13447,7 @@
         <v>3.9926990645676497E-5</v>
       </c>
       <c r="C705" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D705" t="s">
         <v>62</v>
@@ -13444,7 +13456,7 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="708" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13452,7 +13464,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="709" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13460,7 +13472,7 @@
         <v>2</v>
       </c>
       <c r="B709" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
@@ -13484,7 +13496,7 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
@@ -13492,7 +13504,7 @@
         <v>7</v>
       </c>
       <c r="B713" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
@@ -13563,12 +13575,12 @@
         <v>exhaust, acidic</v>
       </c>
       <c r="H717" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13583,12 +13595,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13603,7 +13615,7 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -13629,7 +13641,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13644,12 +13656,12 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B722">
         <v>9.8572073921971304E-3</v>
@@ -13664,7 +13676,7 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -13675,7 +13687,7 @@
         <v>3.9926990645676497E-5</v>
       </c>
       <c r="C723" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D723" t="s">
         <v>62</v>
@@ -13684,7 +13696,7 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -13699,7 +13711,7 @@
         <v>79</v>
       </c>
       <c r="E724" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="F724" t="s">
         <v>77</v>
@@ -13708,7 +13720,7 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -13757,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13765,7 +13777,7 @@
         <v>2</v>
       </c>
       <c r="B730" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
@@ -13789,7 +13801,7 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -13797,7 +13809,7 @@
         <v>7</v>
       </c>
       <c r="B734" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
@@ -13868,12 +13880,12 @@
         <v>exhaust, caustic</v>
       </c>
       <c r="H738" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13888,12 +13900,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13908,7 +13920,7 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
@@ -13934,7 +13946,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -13949,12 +13961,12 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B743">
         <v>9.8572073921971304E-3</v>
@@ -13969,7 +13981,7 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
@@ -13980,7 +13992,7 @@
         <v>3.9926990645676497E-5</v>
       </c>
       <c r="C744" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D744" t="s">
         <v>62</v>
@@ -13989,12 +14001,12 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B745">
         <f>0.000382716049382716/0.2*1.83</f>
@@ -14010,10 +14022,10 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H745" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F704930-30F9-4BC5-85A9-05A9D731D22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B46996-2FC7-41E5-BB6F-BFC31EC9C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="454">
   <si>
     <t>Database</t>
   </si>
@@ -1091,9 +1091,6 @@
     <t>B12. This is the final testing activity</t>
   </si>
   <si>
-    <t>photovoltaic panel production, perovskite</t>
-  </si>
-  <si>
     <t>photovoltaic panel, perovskite</t>
   </si>
   <si>
@@ -1364,12 +1361,6 @@
     <t>stockpiling of anode slime from electrorefining of copper, anode</t>
   </si>
   <si>
-    <t>electricity production, photovoltaic, at 0.5 kWp, perovskite-on-silicon tandem</t>
-  </si>
-  <si>
-    <t>electricity, low voltage</t>
-  </si>
-  <si>
     <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module 2 square meter)</t>
   </si>
   <si>
@@ -1401,6 +1392,12 @@
   </si>
   <si>
     <t>Hydrogen, liquid not available at EI3.10</t>
+  </si>
+  <si>
+    <t>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</t>
+  </si>
+  <si>
+    <t>photovoltaic panel production, 0.5kWp, perovskite</t>
   </si>
 </sst>
 </file>
@@ -1753,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B566" sqref="B566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1933,7 +1930,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2262,7 +2259,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2278,7 +2275,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2935,7 +2932,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2951,7 +2948,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3493,7 +3490,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3514,7 +3511,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3580,7 +3577,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3596,7 +3593,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H113" t="s">
         <v>211</v>
@@ -3604,7 +3601,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3620,7 +3617,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
@@ -3628,7 +3625,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3644,7 +3641,7 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
@@ -3931,7 +3928,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3947,10 +3944,10 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H135" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4543,7 +4540,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4559,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -4849,7 +4846,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4865,7 +4862,7 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
@@ -4897,7 +4894,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4913,7 +4910,7 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
@@ -5077,7 +5074,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5093,7 +5090,7 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H188" t="s">
         <v>211</v>
@@ -5101,7 +5098,7 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5117,7 +5114,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -5485,7 +5482,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5501,7 +5498,7 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H213" t="s">
         <v>211</v>
@@ -5872,7 +5869,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5888,7 +5885,7 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H237" t="s">
         <v>211</v>
@@ -6071,7 +6068,7 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -6113,7 +6110,7 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -6134,7 +6131,7 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -6155,7 +6152,7 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -6176,7 +6173,7 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -6197,7 +6194,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -6223,7 +6220,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6239,7 +6236,7 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
@@ -6260,7 +6257,7 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
@@ -6281,7 +6278,7 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -6302,7 +6299,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -6328,7 +6325,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6344,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
@@ -6365,7 +6362,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -6407,7 +6404,7 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
@@ -6428,7 +6425,7 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
@@ -6449,7 +6446,7 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
@@ -6470,7 +6467,7 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
@@ -6491,7 +6488,7 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -6512,7 +6509,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -6554,7 +6551,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
@@ -6596,7 +6593,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
@@ -6638,7 +6635,7 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -6659,7 +6656,7 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
@@ -6680,7 +6677,7 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -6701,7 +6698,7 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -6758,7 +6755,7 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
@@ -6785,7 +6782,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
@@ -6869,7 +6866,7 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
@@ -6890,7 +6887,7 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
@@ -6911,7 +6908,7 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
@@ -6953,12 +6950,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6974,7 +6971,7 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
@@ -7000,7 +6997,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7016,7 +7013,7 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
@@ -7042,7 +7039,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7058,7 +7055,7 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -7142,7 +7139,7 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
@@ -7163,7 +7160,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -7205,7 +7202,7 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -7226,7 +7223,7 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,7 +7244,7 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -7273,7 +7270,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7289,7 +7286,7 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
@@ -7315,7 +7312,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7331,7 +7328,7 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -7510,7 +7507,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7526,7 +7523,7 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H321" t="s">
         <v>211</v>
@@ -7717,7 +7714,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7733,10 +7730,10 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H337" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -8006,7 +8003,7 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
@@ -8272,7 +8269,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8288,7 +8285,7 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H363" t="s">
         <v>211</v>
@@ -8617,7 +8614,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8633,7 +8630,7 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H385" t="s">
         <v>211</v>
@@ -8983,7 +8980,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -8999,7 +8996,7 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H408" t="s">
         <v>211</v>
@@ -9397,7 +9394,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9413,7 +9410,7 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H433" t="s">
         <v>211</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9893,7 +9890,7 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
@@ -9914,12 +9911,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9935,7 +9932,7 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H464" t="s">
         <v>211</v>
@@ -10168,7 +10165,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10184,7 +10181,7 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H482" t="s">
         <v>211</v>
@@ -11197,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11229,7 +11226,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
@@ -11288,7 +11285,7 @@
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="str">
         <f>B542</f>
-        <v>photovoltaic panel production, perovskite</v>
+        <v>photovoltaic panel production, 0.5kWp, perovskite</v>
       </c>
       <c r="B551" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11332,7 +11329,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11348,12 +11345,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11369,7 +11366,7 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11377,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11385,7 +11382,7 @@
         <v>2</v>
       </c>
       <c r="B557" s="5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
@@ -11409,7 +11406,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
@@ -11468,7 +11465,7 @@
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="str">
         <f>B556</f>
-        <v>electricity production, photovoltaic, at 0.5 kWp, perovskite-on-silicon tandem</v>
+        <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
       <c r="B565" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11487,12 +11484,12 @@
       </c>
       <c r="G565" t="str">
         <f>B560</f>
-        <v>electricity, low voltage</v>
+        <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>351</v>
+        <v>453</v>
       </c>
       <c r="B566" s="4">
         <f>1/(11500)</f>
@@ -11508,7 +11505,7 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="568" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11516,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11524,7 +11521,7 @@
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
@@ -11548,7 +11545,7 @@
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
@@ -11629,7 +11626,7 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
@@ -11721,7 +11718,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
@@ -11736,10 +11733,10 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H582" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
@@ -11767,7 +11764,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11782,12 +11779,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11802,12 +11799,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11822,12 +11819,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11842,7 +11839,7 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -11966,7 +11963,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -11982,10 +11979,10 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H600" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
@@ -12035,7 +12032,7 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12080,7 +12077,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
@@ -12096,12 +12093,12 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
@@ -12117,7 +12114,7 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H606" t="s">
         <v>211</v>
@@ -12268,7 +12265,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12316,7 +12313,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12332,7 +12329,7 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
@@ -12356,7 +12353,7 @@
         <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -12500,7 +12497,7 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
@@ -12544,12 +12541,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12564,12 +12561,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12584,12 +12581,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12604,7 +12601,7 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
@@ -12657,7 +12654,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12698,12 +12695,12 @@
         <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B646">
         <f>0.179790569157611*1000</f>
@@ -12719,12 +12716,12 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
@@ -12740,7 +12737,7 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H647" t="s">
         <v>211</v>
@@ -12748,7 +12745,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B648">
         <v>47.281323877068601</v>
@@ -12763,7 +12760,7 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H648" t="s">
         <v>211</v>
@@ -12909,7 +12906,7 @@
         <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
@@ -12935,7 +12932,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B663">
         <f>0.252525252525253*1000</f>
@@ -13198,7 +13195,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -13213,10 +13210,10 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
+        <v>376</v>
+      </c>
+      <c r="H687" t="s">
         <v>377</v>
-      </c>
-      <c r="H687" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="690" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13224,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13256,7 +13253,7 @@
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
@@ -13340,7 +13337,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13355,12 +13352,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13375,7 +13372,7 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
@@ -13401,7 +13398,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13416,7 +13413,7 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
@@ -13436,7 +13433,7 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
@@ -13456,7 +13453,7 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="708" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13464,7 +13461,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="709" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13496,7 +13493,7 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
@@ -13580,7 +13577,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13595,12 +13592,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13615,7 +13612,7 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
@@ -13641,7 +13638,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13656,7 +13653,7 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
@@ -13676,7 +13673,7 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
@@ -13696,7 +13693,7 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
@@ -13720,7 +13717,7 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
@@ -13769,7 +13766,7 @@
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -13801,7 +13798,7 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
@@ -13885,7 +13882,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13900,12 +13897,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13920,7 +13917,7 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
@@ -13946,7 +13943,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -13961,7 +13958,7 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
@@ -13981,7 +13978,7 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
@@ -14001,7 +13998,7 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
@@ -14022,10 +14019,10 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
+        <v>407</v>
+      </c>
+      <c r="H745" t="s">
         <v>408</v>
-      </c>
-      <c r="H745" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahnme_a\PycharmProjects\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B46996-2FC7-41E5-BB6F-BFC31EC9C3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F1D4EC-F9C2-6043-84F3-16B420736138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-1460" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV-perovskite" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PV-perovskite'!$A$1:$H$747</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1456,7 +1459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1466,8 +1469,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1750,22 +1751,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A537" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B566" sqref="B566"/>
+    <sheetView tabSelected="1" topLeftCell="A631" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A667" sqref="A667"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>135</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1821,7 +1822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1829,7 +1830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1841,7 +1842,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1867,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>B3</f>
         <v>perovskite wafer production</v>
@@ -1891,7 +1892,7 @@
         <v>perovskite wafer</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>410</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2041,7 +2042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2107,7 +2108,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2149,7 +2150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2194,7 +2195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>411</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2335,7 +2336,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2353,7 +2354,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2461,7 +2462,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2515,7 +2516,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2533,7 +2534,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2569,7 +2570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2578,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -2585,7 +2586,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -2637,7 +2638,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>B49</f>
         <v>perovskite wafer packaging</v>
@@ -2687,7 +2688,7 @@
         <v>perovskite wafer, packaged</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2770,7 +2771,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
@@ -2786,7 +2787,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2794,7 +2795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2826,7 +2827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2838,7 +2839,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B65</f>
         <v>perovskite wafer transport</v>
@@ -2888,7 +2889,7 @@
         <v>perovskite wafer, transported</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2909,7 +2910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>435</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -2993,7 +2994,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3001,7 +3002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3025,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3049,7 +3050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3061,7 +3062,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>B82</f>
         <v>perovskite wafer cleaning</v>
@@ -3111,7 +3112,7 @@
         <v>perovskite wafer, cleaned</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3131,7 +3132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3152,7 +3153,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3173,7 +3174,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3374,7 +3375,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3422,7 +3423,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>444</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>447</v>
       </c>
@@ -3530,7 +3531,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>392</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>402</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>405</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3719,7 +3720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -3739,7 +3740,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f>B119</f>
         <v>PECVD of thin film layer, for perovskite</v>
@@ -3788,7 +3789,7 @@
         <v>cell, perovskite, to sputter</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -3857,7 +3858,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -3881,7 +3882,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>448</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -3992,7 +3993,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4034,7 +4035,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -4097,7 +4098,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -4118,7 +4119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -4139,7 +4140,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -4160,7 +4161,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -4202,7 +4203,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4244,7 +4245,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -4265,7 +4266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -4286,7 +4287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>186</v>
       </c>
@@ -4307,7 +4308,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>71</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4370,7 +4371,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -4391,7 +4392,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -4412,7 +4413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -4433,7 +4434,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -4454,7 +4455,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>75</v>
       </c>
@@ -4496,7 +4497,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -4517,7 +4518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>436</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4604,7 +4605,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -4646,7 +4647,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -4667,7 +4668,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -4709,7 +4710,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -4733,7 +4734,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4778,7 +4779,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>448</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -4892,7 +4893,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>448</v>
       </c>
@@ -4916,7 +4917,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -4937,7 +4938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -4982,7 +4983,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5006,7 +5007,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -5027,7 +5028,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>130</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -5072,7 +5073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>392</v>
       </c>
@@ -5096,7 +5097,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>378</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +5150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -5184,7 +5185,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>B192</f>
         <v>sputter process 1, perovskite cell</v>
@@ -5234,7 +5235,7 @@
         <v>perovskite cell, sputtered 1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>141</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -5276,7 +5277,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>145</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -5348,7 +5349,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -5369,7 +5370,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5393,7 +5394,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -5414,7 +5415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>392</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -5560,7 +5561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
@@ -5571,7 +5572,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>B216</f>
         <v>sputter process 2, perovskite cell</v>
@@ -5621,7 +5622,7 @@
         <v>perovskite cell, sputtered 2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -5642,7 +5643,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5663,7 +5664,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -5687,7 +5688,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5756,7 +5757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -5801,7 +5802,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -5822,7 +5823,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>130</v>
       </c>
@@ -5843,7 +5844,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>392</v>
       </c>
@@ -5891,7 +5892,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
@@ -5899,7 +5900,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -5915,7 +5916,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5923,7 +5924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5939,7 +5940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -5958,7 +5959,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f>B240</f>
         <v>spiro-OMeTAD deposition of perovskite cell</v>
@@ -6008,7 +6009,7 @@
         <v>spiro-OMeTAD deposited perovskite cell</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>219</v>
       </c>
@@ -6029,7 +6030,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6050,7 +6051,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -6071,7 +6072,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>115</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>227</v>
       </c>
@@ -6113,7 +6114,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -6134,7 +6135,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>229</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -6197,7 +6198,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>436</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>228</v>
       </c>
@@ -6260,7 +6261,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>232</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>233</v>
       </c>
@@ -6302,7 +6303,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -6323,7 +6324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>367</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>234</v>
       </c>
@@ -6365,7 +6366,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>235</v>
       </c>
@@ -6407,7 +6408,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -6428,7 +6429,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>236</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>235</v>
       </c>
@@ -6470,7 +6471,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -6491,7 +6492,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -6512,7 +6513,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>108</v>
       </c>
@@ -6533,7 +6534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -6617,7 +6618,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>240</v>
       </c>
@@ -6638,7 +6639,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>238</v>
       </c>
@@ -6659,7 +6660,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>241</v>
       </c>
@@ -6680,7 +6681,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>117</v>
       </c>
@@ -6722,7 +6723,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>104</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>243</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>244</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -6827,7 +6828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>245</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>246</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>247</v>
       </c>
@@ -6890,7 +6891,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>248</v>
       </c>
@@ -6911,7 +6912,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>245</v>
       </c>
@@ -6932,7 +6933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>445</v>
       </c>
@@ -6974,7 +6975,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>250</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>442</v>
       </c>
@@ -7016,7 +7017,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>197</v>
       </c>
@@ -7037,7 +7038,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>436</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>256</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>252</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -7121,7 +7122,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>238</v>
       </c>
@@ -7142,7 +7143,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>241</v>
       </c>
@@ -7163,7 +7164,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>117</v>
       </c>
@@ -7184,7 +7185,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>246</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>247</v>
       </c>
@@ -7226,7 +7227,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>249</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>250</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>442</v>
       </c>
@@ -7289,7 +7290,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>197</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>436</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>256</v>
       </c>
@@ -7349,7 +7350,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>254</v>
       </c>
@@ -7370,7 +7371,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>206</v>
       </c>
@@ -7418,7 +7419,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>114</v>
       </c>
@@ -7463,7 +7464,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>130</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>392</v>
       </c>
@@ -7529,7 +7530,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>206</v>
       </c>
@@ -7553,7 +7554,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>2</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -7577,7 +7578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -7585,7 +7586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -7593,7 +7594,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7609,7 +7610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -7620,7 +7621,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
         <f>B325</f>
         <v>perovskite cell deposition</v>
@@ -7670,7 +7671,7 @@
         <v>deposited perovskite cell</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -7691,7 +7692,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>51</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>448</v>
       </c>
@@ -7736,7 +7737,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>266</v>
       </c>
@@ -7757,7 +7758,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -7778,11 +7779,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
-      <c r="B340" s="7">
+      <c r="B340">
         <f>(198.151682806656+541.021882698613+692.823715765025+258870937.5*0.0013+542.338247758567)/35116655.8454604</f>
         <v>9.6394871928782554E-3</v>
       </c>
@@ -7802,11 +7803,11 @@
         <v>265</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>261</v>
       </c>
-      <c r="B341" s="7">
+      <c r="B341">
         <f>3833.80429778095/35116655.8454604</f>
         <v>1.0917338811111633E-4</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>269</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>252</v>
       </c>
@@ -7865,7 +7866,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>242</v>
       </c>
@@ -7886,7 +7887,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>262</v>
       </c>
@@ -7907,7 +7908,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>252</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>266</v>
       </c>
@@ -7949,7 +7950,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>266</v>
       </c>
@@ -7970,7 +7971,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -7991,7 +7992,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>264</v>
       </c>
@@ -8012,7 +8013,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>261</v>
       </c>
@@ -8033,7 +8034,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>252</v>
       </c>
@@ -8054,7 +8055,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>266</v>
       </c>
@@ -8075,7 +8076,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>260</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>106</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>261</v>
       </c>
@@ -8138,7 +8139,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>252</v>
       </c>
@@ -8159,7 +8160,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -8201,7 +8202,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>114</v>
       </c>
@@ -8225,7 +8226,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>130</v>
       </c>
@@ -8267,7 +8268,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>392</v>
       </c>
@@ -8291,7 +8292,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>206</v>
       </c>
@@ -8315,7 +8316,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>206</v>
       </c>
@@ -8339,7 +8340,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1</v>
       </c>
@@ -8347,7 +8348,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>2</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -8363,7 +8364,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -8371,7 +8372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -8387,7 +8388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -8395,7 +8396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>9</v>
       </c>
@@ -8406,7 +8407,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" t="str">
         <f>B368</f>
         <v>perovskite cell curing 1</v>
@@ -8456,7 +8457,7 @@
         <v>cured perovskite cell 1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>206</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>114</v>
       </c>
@@ -8546,7 +8547,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>95</v>
       </c>
@@ -8567,7 +8568,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>130</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>392</v>
       </c>
@@ -8636,7 +8637,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1</v>
       </c>
@@ -8644,7 +8645,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>2</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -8660,7 +8661,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -8676,7 +8677,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>9</v>
       </c>
@@ -8703,7 +8704,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>10</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
         <f>B388</f>
         <v>perovskite cell zinc oxide deposition</v>
@@ -8753,7 +8754,7 @@
         <v>zinc oxide deposited perovskite cell</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>286</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>278</v>
       </c>
@@ -8795,7 +8796,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>115</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>117</v>
       </c>
@@ -8867,7 +8868,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>51</v>
       </c>
@@ -8888,7 +8889,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>206</v>
       </c>
@@ -8912,7 +8913,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -8936,7 +8937,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>95</v>
       </c>
@@ -8957,7 +8958,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>130</v>
       </c>
@@ -8978,7 +8979,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>392</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>206</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1</v>
       </c>
@@ -9034,7 +9035,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3</v>
       </c>
@@ -9050,7 +9051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -9066,7 +9067,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -9074,7 +9075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -9082,7 +9083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>9</v>
       </c>
@@ -9093,7 +9094,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>10</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
         <f>B412</f>
         <v>sputter process 3, perovskite cell</v>
@@ -9143,7 +9144,7 @@
         <v>perovskite cell, sputtered 3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>276</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -9185,7 +9186,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>115</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>145</v>
       </c>
@@ -9233,7 +9234,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>117</v>
       </c>
@@ -9257,7 +9258,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>51</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>206</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>114</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>130</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>206</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>392</v>
       </c>
@@ -9416,7 +9417,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>1</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -9448,7 +9449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9472,7 +9473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>9</v>
       </c>
@@ -9483,7 +9484,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>10</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
         <f>B436</f>
         <v>perovskite cell contact formation</v>
@@ -9533,7 +9534,7 @@
         <v>metallized perovskite cell</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>283</v>
       </c>
@@ -9554,7 +9555,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>250</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>291</v>
       </c>
@@ -9596,7 +9597,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>51</v>
       </c>
@@ -9617,7 +9618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -9638,7 +9639,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>292</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>293</v>
       </c>
@@ -9680,7 +9681,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -9701,7 +9702,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>294</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>295</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>307</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>296</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>297</v>
       </c>
@@ -9806,7 +9807,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>114</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -9851,7 +9852,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>130</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>439</v>
       </c>
@@ -9893,7 +9894,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>298</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>392</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>2</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>3</v>
       </c>
@@ -9962,7 +9963,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -9970,7 +9971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -9994,7 +9995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>9</v>
       </c>
@@ -10005,7 +10006,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>10</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" t="str">
         <f>B467</f>
         <v>perovskite cell curing 2</v>
@@ -10055,7 +10056,7 @@
         <v>cured perovskite cell 2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>289</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>51</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>114</v>
       </c>
@@ -10121,7 +10122,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>95</v>
       </c>
@@ -10142,7 +10143,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>130</v>
       </c>
@@ -10163,7 +10164,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>392</v>
       </c>
@@ -10187,7 +10188,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>144</v>
       </c>
@@ -10211,7 +10212,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1</v>
       </c>
@@ -10219,7 +10220,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10228,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>3</v>
       </c>
@@ -10235,7 +10236,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>9</v>
       </c>
@@ -10278,7 +10279,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" t="str">
         <f>B486</f>
         <v>photovoltaic cell production, perovskite</v>
@@ -10328,7 +10329,7 @@
         <v>photovoltaic cell, perovskite</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>308</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -10370,7 +10371,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>114</v>
       </c>
@@ -10394,7 +10395,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>95</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>130</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>1</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>2</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>3</v>
       </c>
@@ -10460,7 +10461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -10476,7 +10477,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -10484,7 +10485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
@@ -10503,7 +10504,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>10</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
         <v>perovskite module assembly</v>
@@ -10553,7 +10554,7 @@
         <v>assembled perovskite cell</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>348</v>
       </c>
@@ -10574,7 +10575,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>307</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>332</v>
       </c>
@@ -10622,7 +10623,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>333</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>335</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>337</v>
       </c>
@@ -10694,7 +10695,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>319</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>333</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>51</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>55</v>
       </c>
@@ -10787,7 +10788,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>339</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>325</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>326</v>
       </c>
@@ -10853,7 +10854,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>327</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>328</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>329</v>
       </c>
@@ -10916,7 +10917,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>84</v>
       </c>
@@ -10937,7 +10938,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>333</v>
       </c>
@@ -10961,7 +10962,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>51</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>55</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>51</v>
       </c>
@@ -11033,7 +11034,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>206</v>
       </c>
@@ -11057,7 +11058,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>114</v>
       </c>
@@ -11081,7 +11082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>330</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>331</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>95</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>130</v>
       </c>
@@ -11165,7 +11166,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>206</v>
       </c>
@@ -11189,7 +11190,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>1</v>
       </c>
@@ -11197,7 +11198,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>2</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>3</v>
       </c>
@@ -11213,7 +11214,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -11221,7 +11222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -11229,7 +11230,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -11237,7 +11238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -11245,7 +11246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>9</v>
       </c>
@@ -11256,7 +11257,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>10</v>
       </c>
@@ -11282,7 +11283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
         <v>photovoltaic panel production, 0.5kWp, perovskite</v>
@@ -11306,7 +11307,7 @@
         <v>photovoltaic panel, perovskite</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>312</v>
       </c>
@@ -11327,7 +11328,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>352</v>
       </c>
@@ -11348,7 +11349,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>353</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1</v>
       </c>
@@ -11377,7 +11378,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
@@ -11385,7 +11386,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>3</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -11401,7 +11402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -11409,7 +11410,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11417,7 +11418,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11425,7 +11426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11436,7 +11437,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11462,7 +11463,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11487,7 +11488,7 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>453</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
@@ -11516,7 +11517,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -11548,7 +11549,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11556,7 +11557,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" t="str">
         <f>B568</f>
         <v>exhaust abatement, for perovskite</v>
@@ -11629,7 +11630,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>106</v>
       </c>
@@ -11649,7 +11650,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>100</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>51</v>
       </c>
@@ -11693,7 +11694,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>113</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>382</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -11762,7 +11763,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>388</v>
       </c>
@@ -11782,7 +11783,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>389</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>390</v>
       </c>
@@ -11822,7 +11823,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>391</v>
       </c>
@@ -11842,7 +11843,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>1</v>
       </c>
@@ -11850,7 +11851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>2</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>3</v>
       </c>
@@ -11866,7 +11867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -11882,7 +11883,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -11890,7 +11891,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -11898,7 +11899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>9</v>
       </c>
@@ -11909,7 +11910,7 @@
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
@@ -11935,7 +11936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A599" t="str">
         <f>B590</f>
         <v>tray cleaning, for perovskite</v>
@@ -11961,7 +11962,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>357</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>100</v>
       </c>
@@ -12006,7 +12007,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>51</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>359</v>
       </c>
@@ -12054,7 +12055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -12075,7 +12076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>361</v>
       </c>
@@ -12096,8 +12097,8 @@
         <v>360</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A606" s="8" t="s">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
         <v>402</v>
       </c>
       <c r="B606">
@@ -12120,7 +12121,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
@@ -12136,7 +12137,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>3</v>
       </c>
@@ -12144,7 +12145,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -12160,7 +12161,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -12168,7 +12169,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>8</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>9</v>
       </c>
@@ -12187,7 +12188,7 @@
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A618" t="str">
         <f>B609</f>
         <v>ultrapure water system activity, for perovskite</v>
@@ -12239,7 +12240,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>51</v>
       </c>
@@ -12263,7 +12264,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>359</v>
       </c>
@@ -12287,7 +12288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>114</v>
       </c>
@@ -12311,7 +12312,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>362</v>
       </c>
@@ -12332,7 +12333,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>252</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
@@ -12364,7 +12365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>2</v>
       </c>
@@ -12372,7 +12373,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -12388,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -12412,7 +12413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>9</v>
       </c>
@@ -12423,7 +12424,7 @@
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A635" t="str">
         <f>B626</f>
         <v>inhouse waste water treatment, for perovskite production</v>
@@ -12476,7 +12477,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>104</v>
       </c>
@@ -12500,7 +12501,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>100</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>25</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>367</v>
       </c>
@@ -12564,7 +12565,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>368</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>369</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>51</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -12652,7 +12653,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>359</v>
       </c>
@@ -12675,12 +12676,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>252</v>
       </c>
       <c r="B645">
-        <v>0.68557919621749397</v>
+        <v>-0.68557919621749397</v>
       </c>
       <c r="C645" t="s">
         <v>133</v>
@@ -12698,13 +12699,13 @@
         <v>364</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>373</v>
       </c>
       <c r="B646">
-        <f>0.179790569157611*1000</f>
-        <v>179.790569157611</v>
+        <f>-0.179790569157611*1000</f>
+        <v>-179.790569157611</v>
       </c>
       <c r="C646" t="s">
         <v>79</v>
@@ -12719,7 +12720,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>402</v>
       </c>
@@ -12743,12 +12744,12 @@
         <v>211</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>405</v>
       </c>
       <c r="B648">
-        <v>47.281323877068601</v>
+        <v>-47.281323877068601</v>
       </c>
       <c r="C648" t="s">
         <v>133</v>
@@ -12766,7 +12767,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>1</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>2</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>3</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -12798,7 +12799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -12806,7 +12807,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -12814,7 +12815,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -12822,7 +12823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>9</v>
       </c>
@@ -12833,7 +12834,7 @@
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>10</v>
       </c>
@@ -12859,7 +12860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A660" t="str">
         <f>B651</f>
         <v>process cooling, water, for perovskite</v>
@@ -12885,13 +12886,12 @@
         <v>207</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>252</v>
       </c>
       <c r="B661">
-        <f>0.75</f>
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="C661" t="s">
         <v>133</v>
@@ -12909,7 +12909,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>51</v>
       </c>
@@ -12930,13 +12930,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>359</v>
       </c>
       <c r="B663">
-        <f>0.252525252525253*1000</f>
-        <v>252.52525252525299</v>
+        <v>1000</v>
       </c>
       <c r="C663" t="s">
         <v>79</v>
@@ -12954,7 +12953,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
@@ -12962,7 +12961,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>2</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>3</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -12986,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -12994,7 +12993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -13002,7 +13001,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>9</v>
       </c>
@@ -13021,7 +13020,7 @@
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>10</v>
       </c>
@@ -13047,7 +13046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A674" t="str">
         <f>B665</f>
         <v>process cooling, water, for perovskite</v>
@@ -13074,7 +13073,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
         <v>1</v>
       </c>
@@ -13082,7 +13081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>2</v>
       </c>
@@ -13090,7 +13089,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3</v>
       </c>
@@ -13098,7 +13097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -13106,7 +13105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -13114,7 +13113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -13122,7 +13121,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>9</v>
       </c>
@@ -13141,7 +13140,7 @@
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>10</v>
       </c>
@@ -13167,7 +13166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A686" t="str">
         <f>B677</f>
         <v>air compressor activity, for perovskite</v>
@@ -13193,7 +13192,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>375</v>
       </c>
@@ -13216,7 +13215,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>1</v>
       </c>
@@ -13224,7 +13223,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>2</v>
       </c>
@@ -13232,7 +13231,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>3</v>
       </c>
@@ -13240,7 +13239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -13264,7 +13263,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>9</v>
       </c>
@@ -13283,7 +13282,7 @@
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>10</v>
       </c>
@@ -13309,7 +13308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A699" t="str">
         <f>B690</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
@@ -13335,7 +13334,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>394</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>395</v>
       </c>
@@ -13375,7 +13374,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>51</v>
       </c>
@@ -13396,7 +13395,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>401</v>
       </c>
@@ -13416,7 +13415,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>190</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -13456,7 +13455,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
         <v>1</v>
       </c>
@@ -13464,7 +13463,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>2</v>
       </c>
@@ -13472,7 +13471,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>3</v>
       </c>
@@ -13480,7 +13479,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -13488,7 +13487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>6</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>8</v>
       </c>
@@ -13512,7 +13511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>9</v>
       </c>
@@ -13523,7 +13522,7 @@
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>10</v>
       </c>
@@ -13549,7 +13548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A717" t="str">
         <f>B708</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
@@ -13575,7 +13574,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>394</v>
       </c>
@@ -13595,7 +13594,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>395</v>
       </c>
@@ -13615,7 +13614,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>51</v>
       </c>
@@ -13636,7 +13635,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>401</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>190</v>
       </c>
@@ -13676,7 +13675,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>25</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>51</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>100</v>
       </c>
@@ -13761,7 +13760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
         <v>1</v>
       </c>
@@ -13769,7 +13768,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>2</v>
       </c>
@@ -13777,7 +13776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>3</v>
       </c>
@@ -13785,7 +13784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -13793,7 +13792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -13801,7 +13800,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>8</v>
       </c>
@@ -13817,7 +13816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>9</v>
       </c>
@@ -13828,7 +13827,7 @@
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>10</v>
       </c>
@@ -13854,7 +13853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A738" t="str">
         <f>B729</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
@@ -13880,7 +13879,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>394</v>
       </c>
@@ -13900,7 +13899,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>395</v>
       </c>
@@ -13920,7 +13919,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>51</v>
       </c>
@@ -13941,7 +13940,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>401</v>
       </c>
@@ -13961,7 +13960,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>190</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -14001,7 +14000,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>231</v>
       </c>
@@ -14025,7 +14024,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>51</v>
       </c>
@@ -14046,7 +14045,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>100</v>
       </c>
@@ -14067,6 +14066,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1A6DFD-11CE-924A-B007-63DA97BCF8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E8043-E979-8140-A12E-986B06079168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2858" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="458">
   <si>
     <t>Database</t>
   </si>
@@ -1361,9 +1361,6 @@
     <t>stockpiling of anode slime from electrorefining of copper, anode</t>
   </si>
   <si>
-    <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module 2 square meter)</t>
-  </si>
-  <si>
     <t>market for t-butyl amine</t>
   </si>
   <si>
@@ -1401,15 +1398,37 @@
   </si>
   <si>
     <t>market for metal part of electronics scrap, in copper, anode</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module occupies 2 square meter)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1459,16 +1478,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1749,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H747"/>
+  <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B535" sqref="B535"/>
+    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L567" sqref="L567"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1764,6 +1785,7 @@
     <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="78.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,7 +3513,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3512,7 +3534,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3929,7 +3951,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3945,10 +3967,10 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H135" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4847,7 +4869,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4863,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
@@ -4895,7 +4917,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4911,7 +4933,7 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
@@ -6956,7 +6978,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6972,7 +6994,7 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -6998,7 +7020,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7014,7 +7036,7 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -7271,7 +7293,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7287,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -7715,7 +7737,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7731,10 +7753,10 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
+        <v>447</v>
+      </c>
+      <c r="H337" t="s">
         <v>448</v>
-      </c>
-      <c r="H337" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -11084,7 +11106,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B535">
         <f>5000/483538.053104108</f>
@@ -11195,7 +11217,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11375,15 +11397,15 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B557" s="5" t="s">
-        <v>440</v>
+      <c r="B557" s="8" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
@@ -11407,10 +11429,10 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11418,7 +11440,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11426,7 +11448,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11437,7 +11459,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11462,8 +11484,20 @@
       <c r="H564" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I564" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11488,12 +11522,12 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B566" s="4">
-        <f>1/(11500)</f>
+        <f>1/(25*460)</f>
         <v>8.6956521739130441E-5</v>
       </c>
       <c r="C566" t="s">
@@ -11508,8 +11542,23 @@
       <c r="G566" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="568" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="I566" s="7">
+        <v>5</v>
+      </c>
+      <c r="J566" s="4">
+        <f>B566</f>
+        <v>8.6956521739130441E-5</v>
+      </c>
+      <c r="K566">
+        <f>1/(30*460)</f>
+        <v>7.2463768115942027E-5</v>
+      </c>
+      <c r="L566">
+        <f>1/(20*460)</f>
+        <v>1.0869565217391305E-4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
@@ -11517,7 +11566,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
@@ -11525,7 +11574,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11533,7 +11582,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11541,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -11549,7 +11598,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11557,7 +11606,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11565,7 +11614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11576,7 +11625,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3E8043-E979-8140-A12E-986B06079168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57078C70-C97C-484D-9C3D-3D995785D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2864" uniqueCount="459">
   <si>
     <t>Database</t>
   </si>
@@ -977,12 +977,6 @@
     <t>B11</t>
   </si>
   <si>
-    <t>perovskite module assembly</t>
-  </si>
-  <si>
-    <t>assembled perovskite cell</t>
-  </si>
-  <si>
     <t>Original activity in GaBi: Aluminium frame profile, powder coated (EN15804 A1-A3)</t>
   </si>
   <si>
@@ -1394,9 +1388,6 @@
     <t>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</t>
   </si>
   <si>
-    <t>photovoltaic panel production, 0.5kWp, perovskite</t>
-  </si>
-  <si>
     <t>market for metal part of electronics scrap, in copper, anode</t>
   </si>
   <si>
@@ -1413,6 +1404,18 @@
   </si>
   <si>
     <t>Data from Table 1. Cells per module: 72 | Gross module are: 2 square meter | Performance. Yield over lifetime: 11500 kWh/per module (each module occupies 2 square meter)</t>
+  </si>
+  <si>
+    <t>2 m2/500Wp</t>
+  </si>
+  <si>
+    <t>photovoltaic panel installation, 0.5kWp, perovskite</t>
+  </si>
+  <si>
+    <t>perovskite photovoltaic module assembly</t>
+  </si>
+  <si>
+    <t>perovskite photovoltaic module</t>
   </si>
 </sst>
 </file>
@@ -1772,8 +1775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L567" sqref="L567"/>
+    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D565" sqref="D565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1937,7 +1940,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B14" s="4">
         <f>1830.1110288/35467268</f>
@@ -1953,7 +1956,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -2282,7 +2285,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B30" s="3">
         <f>59478608.436/35467268</f>
@@ -2298,7 +2301,7 @@
         <v>77</v>
       </c>
       <c r="G30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2955,7 +2958,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B77">
         <f>428058757.128493/35422933.915</f>
@@ -2971,7 +2974,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3513,7 +3516,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B109">
         <f>-3000/35367093.098703</f>
@@ -3534,7 +3537,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B110">
         <f>-5000/35367093.098703</f>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B113">
         <f>-43830000/35367093.098703</f>
@@ -3616,7 +3619,7 @@
         <v>77</v>
       </c>
       <c r="G113" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H113" t="s">
         <v>211</v>
@@ -3624,7 +3627,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B114">
         <f>-65745000/35367093.098703</f>
@@ -3640,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="G114" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H114" t="s">
         <v>211</v>
@@ -3648,7 +3651,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B115">
         <f>-66621600/35367093.098703</f>
@@ -3664,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="G115" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H115" t="s">
         <v>211</v>
@@ -3951,7 +3954,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B135">
         <f>46.5001236/35317005.6480545</f>
@@ -3967,10 +3970,10 @@
         <v>77</v>
       </c>
       <c r="G135" t="s">
+        <v>445</v>
+      </c>
+      <c r="H135" t="s">
         <v>447</v>
-      </c>
-      <c r="H135" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4563,7 +4566,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B164">
         <f>30.6056124/35317005.6480545</f>
@@ -4579,7 +4582,7 @@
         <v>77</v>
       </c>
       <c r="G164" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
@@ -4869,7 +4872,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B178">
         <f>312.42024*0.08988/35317005.6480545</f>
@@ -4885,7 +4888,7 @@
         <v>77</v>
       </c>
       <c r="G178" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H178" s="6" t="s">
         <v>204</v>
@@ -4917,7 +4920,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B180">
         <f>5259600*0.07078/35317005.6480545</f>
@@ -4933,7 +4936,7 @@
         <v>77</v>
       </c>
       <c r="G180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H180" t="s">
         <v>203</v>
@@ -5097,7 +5100,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B188">
         <f>-(20161800+157788)/35317005.6480545</f>
@@ -5113,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="G188" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H188" t="s">
         <v>211</v>
@@ -5121,7 +5124,7 @@
     </row>
     <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B189">
         <f>-(157788)/35317005.6480545</f>
@@ -5137,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="G189" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -5505,7 +5508,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B213">
         <f>-1472688/35266918.197406</f>
@@ -5521,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="G213" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H213" t="s">
         <v>211</v>
@@ -5892,7 +5895,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B237">
         <f>-1472688/35266918.197406</f>
@@ -5908,7 +5911,7 @@
         <v>77</v>
       </c>
       <c r="G237" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H237" t="s">
         <v>211</v>
@@ -6091,7 +6094,7 @@
         <v>77</v>
       </c>
       <c r="G252" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -6133,7 +6136,7 @@
         <v>77</v>
       </c>
       <c r="G254" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -6154,7 +6157,7 @@
         <v>77</v>
       </c>
       <c r="G255" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -6175,7 +6178,7 @@
         <v>77</v>
       </c>
       <c r="G256" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
@@ -6196,7 +6199,7 @@
         <v>77</v>
       </c>
       <c r="G257" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
@@ -6217,7 +6220,7 @@
         <v>77</v>
       </c>
       <c r="G258" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -6243,7 +6246,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B260">
         <f>575.256965526288/35166743.2961089</f>
@@ -6259,7 +6262,7 @@
         <v>77</v>
       </c>
       <c r="G260" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -6280,7 +6283,7 @@
         <v>77</v>
       </c>
       <c r="G261" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -6301,7 +6304,7 @@
         <v>77</v>
       </c>
       <c r="G262" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -6322,7 +6325,7 @@
         <v>77</v>
       </c>
       <c r="G263" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -6348,7 +6351,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B265">
         <f>2.87174093374893/35166743.2961089</f>
@@ -6364,7 +6367,7 @@
         <v>77</v>
       </c>
       <c r="G265" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -6385,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="G266" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -6427,7 +6430,7 @@
         <v>77</v>
       </c>
       <c r="G268" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -6448,7 +6451,7 @@
         <v>77</v>
       </c>
       <c r="G269" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -6469,7 +6472,7 @@
         <v>77</v>
       </c>
       <c r="G270" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -6490,7 +6493,7 @@
         <v>77</v>
       </c>
       <c r="G271" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
@@ -6511,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="G272" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
@@ -6532,7 +6535,7 @@
         <v>77</v>
       </c>
       <c r="G273" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
@@ -6574,7 +6577,7 @@
         <v>77</v>
       </c>
       <c r="G275" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
@@ -6616,7 +6619,7 @@
         <v>77</v>
       </c>
       <c r="G277" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
@@ -6658,7 +6661,7 @@
         <v>77</v>
       </c>
       <c r="G279" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
@@ -6679,7 +6682,7 @@
         <v>77</v>
       </c>
       <c r="G280" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
@@ -6700,7 +6703,7 @@
         <v>77</v>
       </c>
       <c r="G281" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
@@ -6721,7 +6724,7 @@
         <v>77</v>
       </c>
       <c r="G282" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
@@ -6778,7 +6781,7 @@
         <v>79</v>
       </c>
       <c r="E285" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F285" t="s">
         <v>77</v>
@@ -6805,7 +6808,7 @@
         <v>77</v>
       </c>
       <c r="G286" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
@@ -6889,7 +6892,7 @@
         <v>77</v>
       </c>
       <c r="G290" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -6910,7 +6913,7 @@
         <v>77</v>
       </c>
       <c r="G291" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -6931,7 +6934,7 @@
         <v>77</v>
       </c>
       <c r="G292" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -6973,12 +6976,12 @@
         <v>77</v>
       </c>
       <c r="G294" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B295">
         <f>2381.0003944374/35166743.2961089</f>
@@ -6994,7 +6997,7 @@
         <v>77</v>
       </c>
       <c r="G295" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -7020,7 +7023,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B297">
         <f>-127.229028710395/35166743.2961089</f>
@@ -7036,7 +7039,7 @@
         <v>77</v>
       </c>
       <c r="G297" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -7062,7 +7065,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B299">
         <f>413.494343308785/35166743.2961089</f>
@@ -7078,7 +7081,7 @@
         <v>77</v>
       </c>
       <c r="G299" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -7162,7 +7165,7 @@
         <v>77</v>
       </c>
       <c r="G303" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.2">
@@ -7183,7 +7186,7 @@
         <v>77</v>
       </c>
       <c r="G304" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.2">
@@ -7225,7 +7228,7 @@
         <v>77</v>
       </c>
       <c r="G306" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -7246,7 +7249,7 @@
         <v>77</v>
       </c>
       <c r="G307" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
@@ -7267,7 +7270,7 @@
         <v>77</v>
       </c>
       <c r="G308" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.2">
@@ -7293,7 +7296,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B310">
         <f>-127.960230024823/35166743.2961089</f>
@@ -7309,7 +7312,7 @@
         <v>77</v>
       </c>
       <c r="G310" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
@@ -7335,7 +7338,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B312">
         <f>415.870747580675/35166743.2961089</f>
@@ -7351,7 +7354,7 @@
         <v>77</v>
       </c>
       <c r="G312" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
@@ -7530,7 +7533,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B321">
         <f>-14025600/35166743.2961089</f>
@@ -7546,7 +7549,7 @@
         <v>77</v>
       </c>
       <c r="G321" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H321" t="s">
         <v>211</v>
@@ -7737,7 +7740,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B337">
         <f>4.17324674571931/35116655.8454604</f>
@@ -7753,10 +7756,10 @@
         <v>77</v>
       </c>
       <c r="G337" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H337" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.2">
@@ -8026,7 +8029,7 @@
         <v>79</v>
       </c>
       <c r="E350" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F350" t="s">
         <v>77</v>
@@ -8292,7 +8295,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B363">
         <f>-(16594290.8653846+438300)/35116655.8454604</f>
@@ -8308,7 +8311,7 @@
         <v>77</v>
       </c>
       <c r="G363" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H363" t="s">
         <v>211</v>
@@ -8637,7 +8640,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B385">
         <f>-87660/35066568.3948119</f>
@@ -8653,7 +8656,7 @@
         <v>77</v>
       </c>
       <c r="G385" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H385" t="s">
         <v>211</v>
@@ -9003,7 +9006,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B408">
         <f>-438300/35016480.9441634</f>
@@ -9019,7 +9022,7 @@
         <v>77</v>
       </c>
       <c r="G408" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H408" t="s">
         <v>211</v>
@@ -9417,7 +9420,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B433">
         <f>-2629800/34966393.4935149</f>
@@ -9433,7 +9436,7 @@
         <v>77</v>
       </c>
       <c r="G433" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H433" t="s">
         <v>211</v>
@@ -9897,7 +9900,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B462">
         <f>-200/34916306.0428664</f>
@@ -9913,7 +9916,7 @@
         <v>77</v>
       </c>
       <c r="G462" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.2">
@@ -9934,12 +9937,12 @@
         <v>77</v>
       </c>
       <c r="G463" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B464">
         <f>-28489500/34916306.0428664</f>
@@ -9955,7 +9958,7 @@
         <v>77</v>
       </c>
       <c r="G464" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H464" t="s">
         <v>211</v>
@@ -10188,7 +10191,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B482">
         <f>-(43830000+5697900)/34866218.5922179</f>
@@ -10204,7 +10207,7 @@
         <v>77</v>
       </c>
       <c r="G482" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H482" t="s">
         <v>211</v>
@@ -10239,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10247,7 +10250,7 @@
         <v>2</v>
       </c>
       <c r="B487" s="5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.2">
@@ -10271,7 +10274,7 @@
         <v>6</v>
       </c>
       <c r="B490" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.2">
@@ -10464,7 +10467,7 @@
         <v>1</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
     </row>
     <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -10472,7 +10475,7 @@
         <v>2</v>
       </c>
       <c r="B503" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.2">
@@ -10496,7 +10499,7 @@
         <v>6</v>
       </c>
       <c r="B506" t="s">
-        <v>313</v>
+        <v>458</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.2">
@@ -10504,7 +10507,7 @@
         <v>7</v>
       </c>
       <c r="B507" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.2">
@@ -10555,14 +10558,14 @@
     <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
-        <v>perovskite module assembly</v>
+        <v>perovskite photovoltaic module assembly</v>
       </c>
       <c r="B511" s="3">
         <f>483538.053104108/483538.053104108</f>
         <v>1</v>
       </c>
       <c r="C511" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E511" t="str">
         <f>B504</f>
@@ -10571,18 +10574,16 @@
       <c r="F511" t="s">
         <v>14</v>
       </c>
-      <c r="G511" t="str">
-        <f>B506</f>
-        <v>assembled perovskite cell</v>
+      <c r="G511" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B512" s="3">
-        <f>34816131.1415694/483538.053104108</f>
-        <v>72.002877370384169</v>
+        <v>36.001438685192085</v>
       </c>
       <c r="C512" t="s">
         <v>7</v>
@@ -10594,7 +10595,7 @@
         <v>77</v>
       </c>
       <c r="G512" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.2">
@@ -10602,8 +10603,7 @@
         <v>307</v>
       </c>
       <c r="B513">
-        <f>1644029.38055394/50.7/483538.053104108</f>
-        <v>6.7061143984219793E-2</v>
+        <v>3.3530571992109896E-2</v>
       </c>
       <c r="C513" t="s">
         <v>47</v>
@@ -10618,16 +10618,15 @@
         <v>306</v>
       </c>
       <c r="H513" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B514">
-        <f>75098.8243368525/483538.053104108</f>
-        <v>0.15531109465894169</v>
+        <v>7.7655547329470845E-2</v>
       </c>
       <c r="C514" t="s">
         <v>79</v>
@@ -10639,19 +10638,18 @@
         <v>77</v>
       </c>
       <c r="G514" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H514" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B515">
-        <f>75098.8243368525/483538.053104108</f>
-        <v>0.15531109465894169</v>
+        <v>7.7655547329470845E-2</v>
       </c>
       <c r="C515" t="s">
         <v>79</v>
@@ -10663,19 +10661,18 @@
         <v>77</v>
       </c>
       <c r="G515" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H515" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B516">
-        <f>4833/483538.053104108</f>
-        <v>9.9950768486041612E-3</v>
+        <v>4.9975384243020806E-3</v>
       </c>
       <c r="C516" t="s">
         <v>79</v>
@@ -10687,19 +10684,18 @@
         <v>77</v>
       </c>
       <c r="G516" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H516" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B517">
-        <f>4833/483538.053104108</f>
-        <v>9.9950768486041612E-3</v>
+        <v>4.9975384243020806E-3</v>
       </c>
       <c r="C517" t="s">
         <v>79</v>
@@ -10711,19 +10707,18 @@
         <v>77</v>
       </c>
       <c r="G517" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H517" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B518">
-        <f>11000000/483538.053104108</f>
-        <v>22.748985171662689</v>
+        <v>11.374492585831344</v>
       </c>
       <c r="C518" t="s">
         <v>79</v>
@@ -10735,16 +10730,15 @@
         <v>77</v>
       </c>
       <c r="G518" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B519">
-        <f>37800/483538.053104108</f>
-        <v>7.8173785408077248E-2</v>
+        <v>3.9086892704038624E-2</v>
       </c>
       <c r="C519" t="s">
         <v>79</v>
@@ -10756,10 +10750,10 @@
         <v>77</v>
       </c>
       <c r="G519" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H519" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.2">
@@ -10767,8 +10761,7 @@
         <v>51</v>
       </c>
       <c r="B520">
-        <f>87731.687736/3.6/483538.053104108</f>
-        <v>5.0399163216949636E-2</v>
+        <v>2.5199581608474818E-2</v>
       </c>
       <c r="C520" t="s">
         <v>81</v>
@@ -10783,7 +10776,7 @@
         <v>52</v>
       </c>
       <c r="H520" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.2">
@@ -10791,8 +10784,7 @@
         <v>55</v>
       </c>
       <c r="B521">
-        <f>850.311/483538.053104108</f>
-        <v>1.7585193027546977E-3</v>
+        <v>8.7925965137734883E-4</v>
       </c>
       <c r="C521" t="s">
         <v>80</v>
@@ -10807,16 +10799,15 @@
         <v>56</v>
       </c>
       <c r="H521" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B522">
-        <f>336/483538.053104108</f>
-        <v>6.9487809251624218E-4</v>
+        <v>3.4743904625812109E-4</v>
       </c>
       <c r="C522" t="s">
         <v>79</v>
@@ -10828,19 +10819,18 @@
         <v>77</v>
       </c>
       <c r="G522" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H522" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B523">
-        <f>250000/483538.053104108</f>
-        <v>0.51702239026506114</v>
+        <v>0.25851119513253057</v>
       </c>
       <c r="C523" t="s">
         <v>79</v>
@@ -10852,16 +10842,15 @@
         <v>77</v>
       </c>
       <c r="G523" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B524">
-        <f>177500/483538.053104108</f>
-        <v>0.36708589708819339</v>
+        <v>0.1835429485440967</v>
       </c>
       <c r="C524" t="s">
         <v>79</v>
@@ -10873,16 +10862,15 @@
         <v>77</v>
       </c>
       <c r="G524" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B525">
-        <f>27500/483538.053104108</f>
-        <v>5.6872462929156729E-2</v>
+        <v>2.8436231464578365E-2</v>
       </c>
       <c r="C525" t="s">
         <v>79</v>
@@ -10894,16 +10882,15 @@
         <v>77</v>
       </c>
       <c r="G525" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B526">
-        <f>45000/483538.053104108</f>
-        <v>9.306403024771101E-2</v>
+        <v>4.6532015123855505E-2</v>
       </c>
       <c r="C526" t="s">
         <v>79</v>
@@ -10915,16 +10902,15 @@
         <v>77</v>
       </c>
       <c r="G526" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B527">
-        <f>1500/483538.053104108</f>
-        <v>3.102134341590367E-3</v>
+        <v>1.5510671707951835E-3</v>
       </c>
       <c r="C527" t="s">
         <v>79</v>
@@ -10936,7 +10922,7 @@
         <v>77</v>
       </c>
       <c r="G527" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.2">
@@ -10944,8 +10930,7 @@
         <v>84</v>
       </c>
       <c r="B528">
-        <f>13000/483538.053104108</f>
-        <v>2.6885164293783178E-2</v>
+        <v>1.3442582146891589E-2</v>
       </c>
       <c r="C528" t="s">
         <v>79</v>
@@ -10962,11 +10947,10 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B529">
-        <f>75100/483538.053104108</f>
-        <v>0.15531352603562437</v>
+        <v>7.7656763017812186E-2</v>
       </c>
       <c r="C529" t="s">
         <v>79</v>
@@ -10978,10 +10962,10 @@
         <v>77</v>
       </c>
       <c r="G529" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H529" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
@@ -10989,8 +10973,7 @@
         <v>51</v>
       </c>
       <c r="B530">
-        <f>387422.780617755/3.6/483538.053104108</f>
-        <v>0.22256250230903124</v>
+        <v>0.11128125115451562</v>
       </c>
       <c r="C530" t="s">
         <v>81</v>
@@ -11005,7 +10988,7 @@
         <v>52</v>
       </c>
       <c r="H530" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
@@ -11013,8 +10996,7 @@
         <v>55</v>
       </c>
       <c r="B531">
-        <f>3755/483538.053104108</f>
-        <v>7.7656763017812181E-3</v>
+        <v>3.882838150890609E-3</v>
       </c>
       <c r="C531" t="s">
         <v>80</v>
@@ -11029,7 +11011,7 @@
         <v>56</v>
       </c>
       <c r="H531" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
@@ -11037,8 +11019,7 @@
         <v>51</v>
       </c>
       <c r="B532">
-        <f>73639659.6/3.6/483538.053104108</f>
-        <v>42.303725360774941</v>
+        <v>21.15186268038747</v>
       </c>
       <c r="C532" t="s">
         <v>81</v>
@@ -11053,7 +11034,7 @@
         <v>52</v>
       </c>
       <c r="H532" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.2">
@@ -11061,8 +11042,7 @@
         <v>206</v>
       </c>
       <c r="B533">
-        <f>8795.30683506687/483538.053104108</f>
-        <v>1.818948225192361E-2</v>
+        <v>9.0947411259618052E-3</v>
       </c>
       <c r="C533" t="s">
         <v>133</v>
@@ -11085,8 +11065,7 @@
         <v>114</v>
       </c>
       <c r="B534">
-        <f>15088.024189726/483538.053104108</f>
-        <v>3.1203385323796795E-2</v>
+        <v>1.5601692661898398E-2</v>
       </c>
       <c r="C534" t="s">
         <v>133</v>
@@ -11106,11 +11085,10 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B535">
-        <f>5000/483538.053104108</f>
-        <v>1.0340447805301222E-2</v>
+        <v>5.1702239026506112E-3</v>
       </c>
       <c r="C535" t="s">
         <v>79</v>
@@ -11122,16 +11100,15 @@
         <v>77</v>
       </c>
       <c r="G535" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B536">
-        <f>-5000/483538.053104108</f>
-        <v>-1.0340447805301222E-2</v>
+        <v>-5.1702239026506112E-3</v>
       </c>
       <c r="C536" t="s">
         <v>79</v>
@@ -11143,7 +11120,7 @@
         <v>77</v>
       </c>
       <c r="G536" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.2">
@@ -11151,8 +11128,7 @@
         <v>95</v>
       </c>
       <c r="B537">
-        <f>-950/483538.053104108</f>
-        <v>-1.9646850830072325E-3</v>
+        <v>-9.8234254150361623E-4</v>
       </c>
       <c r="C537" t="s">
         <v>79</v>
@@ -11172,8 +11148,7 @@
         <v>130</v>
       </c>
       <c r="B538">
-        <f>-5/483538.053104108</f>
-        <v>-1.0340447805301223E-5</v>
+        <v>-5.1702239026506117E-6</v>
       </c>
       <c r="C538" t="s">
         <v>79</v>
@@ -11193,8 +11168,7 @@
         <v>206</v>
       </c>
       <c r="B539">
-        <f>-2198.82670876672/483538.053104108</f>
-        <v>-4.5473705629809087E-3</v>
+        <v>-2.2736852814904543E-3</v>
       </c>
       <c r="C539" t="s">
         <v>133</v>
@@ -11217,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11225,7 +11199,7 @@
         <v>2</v>
       </c>
       <c r="B543" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.2">
@@ -11249,7 +11223,7 @@
         <v>6</v>
       </c>
       <c r="B546" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.2">
@@ -11308,7 +11282,7 @@
     <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
-        <v>photovoltaic panel production, 0.5kWp, perovskite</v>
+        <v>photovoltaic panel installation, 0.5kWp, perovskite</v>
       </c>
       <c r="B551" s="3">
         <f>483538.053104108/483538.053104108</f>
@@ -11331,14 +11305,13 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>312</v>
+        <v>457</v>
       </c>
       <c r="B552" s="3">
-        <f>483538.053104108/483538.053104108</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C552" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="E552" t="s">
         <v>92</v>
@@ -11347,12 +11320,15 @@
         <v>77</v>
       </c>
       <c r="G552" t="s">
-        <v>313</v>
+        <v>458</v>
+      </c>
+      <c r="H552" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B553">
         <f>24176.902655205/483538.053104108</f>
@@ -11368,12 +11344,12 @@
         <v>77</v>
       </c>
       <c r="G553" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B554">
         <f>589916.424787002/483538.053104108</f>
@@ -11389,7 +11365,7 @@
         <v>77</v>
       </c>
       <c r="G554" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11397,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="B556" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -11405,7 +11381,7 @@
         <v>2</v>
       </c>
       <c r="B557" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.2">
@@ -11429,7 +11405,7 @@
         <v>6</v>
       </c>
       <c r="B560" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.2">
@@ -11485,16 +11461,16 @@
         <v>2</v>
       </c>
       <c r="I564" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="L564" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="J564" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="K564" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="L564" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
@@ -11524,7 +11500,7 @@
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B566" s="4">
         <f>1/(25*460)</f>
@@ -11540,7 +11516,7 @@
         <v>77</v>
       </c>
       <c r="G566" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="I566" s="7">
         <v>5</v>
@@ -11563,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -11571,7 +11547,7 @@
         <v>2</v>
       </c>
       <c r="B569" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
@@ -11595,7 +11571,7 @@
         <v>6</v>
       </c>
       <c r="B572" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
@@ -11676,7 +11652,7 @@
         <v>abated exhaust</v>
       </c>
       <c r="H577" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.2">
@@ -11740,7 +11716,7 @@
         <v>52</v>
       </c>
       <c r="H580" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.2">
@@ -11768,7 +11744,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B582">
         <v>0.23200000000000001</v>
@@ -11783,10 +11759,10 @@
         <v>77</v>
       </c>
       <c r="G582" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H582" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.2">
@@ -11814,7 +11790,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B584">
         <v>0</v>
@@ -11829,12 +11805,12 @@
         <v>78</v>
       </c>
       <c r="H584" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B585">
         <v>0</v>
@@ -11849,12 +11825,12 @@
         <v>78</v>
       </c>
       <c r="H585" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B586">
         <v>0</v>
@@ -11869,12 +11845,12 @@
         <v>78</v>
       </c>
       <c r="H586" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B587">
         <v>0</v>
@@ -11889,7 +11865,7 @@
         <v>78</v>
       </c>
       <c r="H587" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12013,7 +11989,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B600">
         <f>2.10977682373547E-07/0.7</f>
@@ -12029,10 +12005,10 @@
         <v>77</v>
       </c>
       <c r="G600" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H600" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.2">
@@ -12077,12 +12053,12 @@
         <v>52</v>
       </c>
       <c r="H602" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B603">
         <f>3.97134460938441E-06*1000</f>
@@ -12127,7 +12103,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B605">
         <f>-2.48209038086526E-06</f>
@@ -12143,12 +12119,12 @@
         <v>77</v>
       </c>
       <c r="G605" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B606">
         <f>-0.148925422851915</f>
@@ -12164,7 +12140,7 @@
         <v>77</v>
       </c>
       <c r="G606" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H606" t="s">
         <v>211</v>
@@ -12310,12 +12286,12 @@
         <v>52</v>
       </c>
       <c r="H619" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B620">
         <f>3.63854545454545*1000/2307.27272727273</f>
@@ -12363,7 +12339,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B622">
         <f>3.27272727272727E-07/2307.27272727273</f>
@@ -12379,7 +12355,7 @@
         <v>77</v>
       </c>
       <c r="G622" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.2">
@@ -12403,7 +12379,7 @@
         <v>253</v>
       </c>
       <c r="H623" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -12547,7 +12523,7 @@
         <v>105</v>
       </c>
       <c r="H636" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.2">
@@ -12591,12 +12567,12 @@
         <v>111</v>
       </c>
       <c r="H638" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B639">
         <v>0.45705279747832939</v>
@@ -12611,12 +12587,12 @@
         <v>77</v>
       </c>
       <c r="G639" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B640">
         <v>0.33884948778565799</v>
@@ -12631,12 +12607,12 @@
         <v>77</v>
       </c>
       <c r="G640" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B641">
         <v>0.42111899133175729</v>
@@ -12651,7 +12627,7 @@
         <v>77</v>
       </c>
       <c r="G641" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.2">
@@ -12675,7 +12651,7 @@
         <v>52</v>
       </c>
       <c r="H642" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.2">
@@ -12704,7 +12680,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B644">
         <v>315.20882584712399</v>
@@ -12745,12 +12721,12 @@
         <v>253</v>
       </c>
       <c r="H645" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B646">
         <f>-0.179790569157611*1000</f>
@@ -12766,12 +12742,12 @@
         <v>77</v>
       </c>
       <c r="G646" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B647">
         <f>-78.8022064617809</f>
@@ -12787,7 +12763,7 @@
         <v>77</v>
       </c>
       <c r="G647" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H647" t="s">
         <v>211</v>
@@ -12795,7 +12771,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B648">
         <v>-47.281323877068601</v>
@@ -12810,7 +12786,7 @@
         <v>77</v>
       </c>
       <c r="G648" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H648" t="s">
         <v>211</v>
@@ -12955,7 +12931,7 @@
         <v>253</v>
       </c>
       <c r="H661" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.2">
@@ -12981,7 +12957,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B663">
         <v>1000</v>
@@ -13243,7 +13219,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -13258,10 +13234,10 @@
         <v>77</v>
       </c>
       <c r="G687" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H687" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13269,7 +13245,7 @@
         <v>1</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13301,7 +13277,7 @@
         <v>6</v>
       </c>
       <c r="B694" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.2">
@@ -13385,7 +13361,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B700">
         <v>7.6051410753669521E-7</v>
@@ -13400,12 +13376,12 @@
         <v>77</v>
       </c>
       <c r="G700" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B701">
         <v>7.6051410753669521E-7</v>
@@ -13420,7 +13396,7 @@
         <v>77</v>
       </c>
       <c r="G701" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.2">
@@ -13446,7 +13422,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B703">
         <v>1.1407711613050422E-5</v>
@@ -13461,7 +13437,7 @@
         <v>78</v>
       </c>
       <c r="H703" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.2">
@@ -13481,7 +13457,7 @@
         <v>78</v>
       </c>
       <c r="H704" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.2">
@@ -13501,7 +13477,7 @@
         <v>78</v>
       </c>
       <c r="H705" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13509,7 +13485,7 @@
         <v>1</v>
       </c>
       <c r="B708" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13541,7 +13517,7 @@
         <v>6</v>
       </c>
       <c r="B712" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.2">
@@ -13625,7 +13601,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B718">
         <v>7.6051410753669521E-7</v>
@@ -13640,12 +13616,12 @@
         <v>77</v>
       </c>
       <c r="G718" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B719">
         <v>7.6051410753669521E-7</v>
@@ -13660,7 +13636,7 @@
         <v>77</v>
       </c>
       <c r="G719" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.2">
@@ -13686,7 +13662,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B721">
         <v>1.1407711613050422E-5</v>
@@ -13701,7 +13677,7 @@
         <v>78</v>
       </c>
       <c r="H721" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.2">
@@ -13721,7 +13697,7 @@
         <v>78</v>
       </c>
       <c r="H722" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.2">
@@ -13741,7 +13717,7 @@
         <v>78</v>
       </c>
       <c r="H723" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.2">
@@ -13765,7 +13741,7 @@
         <v>111</v>
       </c>
       <c r="H724" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.2">
@@ -13814,7 +13790,7 @@
         <v>1</v>
       </c>
       <c r="B729" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -13846,7 +13822,7 @@
         <v>6</v>
       </c>
       <c r="B733" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.2">
@@ -13930,7 +13906,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B739">
         <v>7.6051410753669521E-7</v>
@@ -13945,12 +13921,12 @@
         <v>77</v>
       </c>
       <c r="G739" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B740">
         <v>7.6051410753669521E-7</v>
@@ -13965,7 +13941,7 @@
         <v>77</v>
       </c>
       <c r="G740" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.2">
@@ -13991,7 +13967,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B742">
         <v>1.1407711613050422E-5</v>
@@ -14006,7 +13982,7 @@
         <v>78</v>
       </c>
       <c r="H742" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.2">
@@ -14026,7 +14002,7 @@
         <v>78</v>
       </c>
       <c r="H743" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.2">
@@ -14046,7 +14022,7 @@
         <v>78</v>
       </c>
       <c r="H744" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.2">
@@ -14067,10 +14043,10 @@
         <v>77</v>
       </c>
       <c r="G745" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H745" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-PV-perovskite.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57078C70-C97C-484D-9C3D-3D995785D4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BAE77C-38CC-B748-90A0-DBA3BF4E3CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1773,10 +1773,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L747"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A527" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D565" sqref="D565"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E748" sqref="E748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1799,7 +1800,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1807,7 +1809,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>135</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1849,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +1857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +1869,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>B3</f>
         <v>perovskite wafer production</v>
@@ -1917,7 +1919,7 @@
         <v>perovskite wafer</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>407</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2022,7 +2024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2091,7 +2093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -2175,7 +2177,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -2196,7 +2198,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -2220,7 +2222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2264,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>408</v>
       </c>
@@ -2304,7 +2306,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2343,7 +2345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2379,7 +2381,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2417,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>69</v>
       </c>
@@ -2451,7 +2453,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>70</v>
       </c>
@@ -2469,7 +2471,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -2505,7 +2507,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>73</v>
       </c>
@@ -2523,7 +2525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -2541,7 +2543,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -2577,7 +2579,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2595,7 +2597,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>135</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>B49</f>
         <v>perovskite wafer packaging</v>
@@ -2713,7 +2717,7 @@
         <v>perovskite wafer, packaged</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>84</v>
       </c>
@@ -2734,7 +2738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>86</v>
       </c>
@@ -2776,7 +2780,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -2796,7 +2800,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="65" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -2804,7 +2810,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>3</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -2836,7 +2842,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>9</v>
       </c>
@@ -2864,7 +2870,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -2890,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B65</f>
         <v>perovskite wafer transport</v>
@@ -2914,7 +2920,7 @@
         <v>perovskite wafer, transported</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>93</v>
       </c>
@@ -2935,7 +2941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>94</v>
       </c>
@@ -2956,7 +2962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>432</v>
       </c>
@@ -2977,7 +2983,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>95</v>
       </c>
@@ -2998,7 +3004,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3019,7 +3025,9 @@
         <v>83</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3035,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>135</v>
       </c>
@@ -3035,7 +3043,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>3</v>
       </c>
@@ -3043,7 +3051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -3051,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3067,7 +3075,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>9</v>
       </c>
@@ -3087,7 +3095,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -3113,7 +3121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>B82</f>
         <v>perovskite wafer cleaning</v>
@@ -3137,7 +3145,7 @@
         <v>perovskite wafer, cleaned</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3157,7 +3165,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -3178,7 +3186,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>100</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>106</v>
       </c>
@@ -3265,7 +3273,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3286,7 +3294,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3307,7 +3315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -3328,7 +3336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -3352,7 +3360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -3376,7 +3384,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>117</v>
       </c>
@@ -3400,7 +3408,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -3424,7 +3432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -3448,7 +3456,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -3472,7 +3480,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>122</v>
       </c>
@@ -3493,7 +3501,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -3514,7 +3522,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>440</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>443</v>
       </c>
@@ -3556,7 +3564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -3577,7 +3585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>130</v>
       </c>
@@ -3601,7 +3609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>389</v>
       </c>
@@ -3625,7 +3633,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>399</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>402</v>
       </c>
@@ -3673,7 +3681,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>132</v>
       </c>
@@ -3697,7 +3705,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>1</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3713,7 +3723,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -3721,7 +3731,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3729,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -3737,7 +3747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -3745,7 +3755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3753,7 +3763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +3775,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="str">
         <f>B119</f>
         <v>PECVD of thin film layer, for perovskite</v>
@@ -3814,7 +3824,7 @@
         <v>cell, perovskite, to sputter</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>144</v>
       </c>
@@ -3838,7 +3848,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>97</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>145</v>
       </c>
@@ -3883,7 +3893,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>117</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -3931,7 +3941,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -3952,7 +3962,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>444</v>
       </c>
@@ -3976,7 +3986,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -3997,7 +4007,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>117</v>
       </c>
@@ -4030,7 +4040,7 @@
         <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="F138" t="s">
         <v>77</v>
@@ -4039,7 +4049,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -4060,7 +4070,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -4081,7 +4091,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>94</v>
       </c>
@@ -4102,7 +4112,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>93</v>
       </c>
@@ -4123,7 +4133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>60</v>
       </c>
@@ -4144,7 +4154,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>63</v>
       </c>
@@ -4165,7 +4175,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>64</v>
       </c>
@@ -4186,7 +4196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>184</v>
       </c>
@@ -4207,7 +4217,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>66</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>65</v>
       </c>
@@ -4249,7 +4259,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>68</v>
       </c>
@@ -4270,7 +4280,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>69</v>
       </c>
@@ -4291,7 +4301,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>185</v>
       </c>
@@ -4312,7 +4322,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>186</v>
       </c>
@@ -4333,7 +4343,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>70</v>
       </c>
@@ -4354,7 +4364,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>71</v>
       </c>
@@ -4375,7 +4385,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -4396,7 +4406,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>73</v>
       </c>
@@ -4417,7 +4427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>74</v>
       </c>
@@ -4438,7 +4448,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>187</v>
       </c>
@@ -4459,7 +4469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>188</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>189</v>
       </c>
@@ -4501,7 +4511,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>75</v>
       </c>
@@ -4522,7 +4532,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>190</v>
       </c>
@@ -4543,7 +4553,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>191</v>
       </c>
@@ -4564,7 +4574,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>433</v>
       </c>
@@ -4585,7 +4595,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>179</v>
       </c>
@@ -4606,7 +4616,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -4630,7 +4640,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -4651,7 +4661,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>147</v>
       </c>
@@ -4672,7 +4682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>94</v>
       </c>
@@ -4693,7 +4703,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>93</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>194</v>
       </c>
@@ -4735,7 +4745,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -4759,7 +4769,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>58</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>192</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>193</v>
       </c>
@@ -4825,7 +4835,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>190</v>
       </c>
@@ -4846,7 +4856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -4870,7 +4880,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>444</v>
       </c>
@@ -4894,7 +4904,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>197</v>
       </c>
@@ -4918,7 +4928,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>444</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -4963,7 +4973,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>206</v>
       </c>
@@ -4987,7 +4997,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>114</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>95</v>
       </c>
@@ -5053,7 +5063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>130</v>
       </c>
@@ -5074,7 +5084,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -5098,7 +5108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>389</v>
       </c>
@@ -5122,7 +5132,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>375</v>
       </c>
@@ -5143,7 +5153,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="192" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>1</v>
       </c>
@@ -5151,7 +5163,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>2</v>
       </c>
@@ -5159,7 +5171,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>3</v>
       </c>
@@ -5167,7 +5179,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -5175,7 +5187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -5183,7 +5195,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>7</v>
       </c>
@@ -5191,7 +5203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>8</v>
       </c>
@@ -5199,7 +5211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>9</v>
       </c>
@@ -5210,7 +5222,7 @@
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="str">
         <f>B192</f>
         <v>sputter process 1, perovskite cell</v>
@@ -5260,7 +5272,7 @@
         <v>perovskite cell, sputtered 1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>141</v>
       </c>
@@ -5281,7 +5293,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>217</v>
       </c>
@@ -5302,7 +5314,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>115</v>
       </c>
@@ -5326,7 +5338,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>145</v>
       </c>
@@ -5350,7 +5362,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>117</v>
       </c>
@@ -5374,7 +5386,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -5395,7 +5407,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -5419,7 +5431,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -5440,7 +5452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>95</v>
       </c>
@@ -5461,7 +5473,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>130</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -5506,7 +5518,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>389</v>
       </c>
@@ -5530,7 +5542,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="216" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>1</v>
       </c>
@@ -5538,7 +5552,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
         <v>2</v>
       </c>
@@ -5546,7 +5560,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>3</v>
       </c>
@@ -5554,7 +5568,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5562,7 +5576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -5570,7 +5584,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>8</v>
       </c>
@@ -5586,7 +5600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>9</v>
       </c>
@@ -5597,7 +5611,7 @@
       <c r="F223" s="1"/>
       <c r="G223" s="1"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -5623,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="str">
         <f>B216</f>
         <v>sputter process 2, perovskite cell</v>
@@ -5647,7 +5661,7 @@
         <v>perovskite cell, sputtered 2</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>215</v>
       </c>
@@ -5668,7 +5682,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>217</v>
       </c>
@@ -5689,7 +5703,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>115</v>
       </c>
@@ -5713,7 +5727,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -5737,7 +5751,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>117</v>
       </c>
@@ -5761,7 +5775,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -5782,7 +5796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>206</v>
       </c>
@@ -5806,7 +5820,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>114</v>
       </c>
@@ -5827,7 +5841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>95</v>
       </c>
@@ -5848,7 +5862,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>130</v>
       </c>
@@ -5869,7 +5883,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>206</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>389</v>
       </c>
@@ -5917,7 +5931,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>1</v>
       </c>
@@ -5925,7 +5941,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5949,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>3</v>
       </c>
@@ -5941,7 +5957,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -5949,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -5957,7 +5973,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>7</v>
       </c>
@@ -5965,7 +5981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>9</v>
       </c>
@@ -5984,7 +6000,7 @@
       <c r="F247" s="1"/>
       <c r="G247" s="1"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -6010,7 +6026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="str">
         <f>B240</f>
         <v>spiro-OMeTAD deposition of perovskite cell</v>
@@ -6034,7 +6050,7 @@
         <v>spiro-OMeTAD deposited perovskite cell</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>219</v>
       </c>
@@ -6055,7 +6071,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>17</v>
       </c>
@@ -6076,7 +6092,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>226</v>
       </c>
@@ -6097,7 +6113,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>115</v>
       </c>
@@ -6118,7 +6134,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>227</v>
       </c>
@@ -6139,7 +6155,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>228</v>
       </c>
@@ -6160,7 +6176,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>229</v>
       </c>
@@ -6181,7 +6197,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>230</v>
       </c>
@@ -6202,7 +6218,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>231</v>
       </c>
@@ -6223,7 +6239,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -6244,7 +6260,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>433</v>
       </c>
@@ -6265,7 +6281,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>228</v>
       </c>
@@ -6286,7 +6302,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>232</v>
       </c>
@@ -6307,7 +6323,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>233</v>
       </c>
@@ -6319,7 +6335,7 @@
         <v>79</v>
       </c>
       <c r="E263" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F263" t="s">
         <v>77</v>
@@ -6328,7 +6344,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>104</v>
       </c>
@@ -6349,7 +6365,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>364</v>
       </c>
@@ -6370,7 +6386,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>234</v>
       </c>
@@ -6391,7 +6407,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>100</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>235</v>
       </c>
@@ -6433,7 +6449,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>228</v>
       </c>
@@ -6454,7 +6470,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>236</v>
       </c>
@@ -6475,7 +6491,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>235</v>
       </c>
@@ -6496,7 +6512,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>236</v>
       </c>
@@ -6517,7 +6533,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>237</v>
       </c>
@@ -6538,7 +6554,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>108</v>
       </c>
@@ -6559,7 +6575,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -6580,7 +6596,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -6601,7 +6617,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -6622,7 +6638,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>100</v>
       </c>
@@ -6643,7 +6659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>240</v>
       </c>
@@ -6664,7 +6680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>238</v>
       </c>
@@ -6685,7 +6701,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>241</v>
       </c>
@@ -6706,7 +6722,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>242</v>
       </c>
@@ -6727,7 +6743,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>117</v>
       </c>
@@ -6748,7 +6764,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>104</v>
       </c>
@@ -6769,7 +6785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>243</v>
       </c>
@@ -6790,7 +6806,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>244</v>
       </c>
@@ -6811,7 +6827,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -6832,7 +6848,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>25</v>
       </c>
@@ -6853,7 +6869,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>245</v>
       </c>
@@ -6874,7 +6890,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>246</v>
       </c>
@@ -6895,7 +6911,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>247</v>
       </c>
@@ -6916,7 +6932,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>248</v>
       </c>
@@ -6937,7 +6953,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>245</v>
       </c>
@@ -6958,7 +6974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>249</v>
       </c>
@@ -6979,7 +6995,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>441</v>
       </c>
@@ -7000,7 +7016,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>250</v>
       </c>
@@ -7021,7 +7037,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>438</v>
       </c>
@@ -7042,7 +7058,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>197</v>
       </c>
@@ -7063,7 +7079,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>433</v>
       </c>
@@ -7084,7 +7100,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>256</v>
       </c>
@@ -7105,7 +7121,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>252</v>
       </c>
@@ -7126,7 +7142,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>254</v>
       </c>
@@ -7147,7 +7163,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>238</v>
       </c>
@@ -7168,7 +7184,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>241</v>
       </c>
@@ -7189,7 +7205,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>117</v>
       </c>
@@ -7210,7 +7226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>246</v>
       </c>
@@ -7231,7 +7247,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>247</v>
       </c>
@@ -7252,7 +7268,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>249</v>
       </c>
@@ -7273,7 +7289,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>250</v>
       </c>
@@ -7294,7 +7310,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>438</v>
       </c>
@@ -7315,7 +7331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>197</v>
       </c>
@@ -7336,7 +7352,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>433</v>
       </c>
@@ -7357,7 +7373,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>256</v>
       </c>
@@ -7375,7 +7391,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>254</v>
       </c>
@@ -7396,7 +7412,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>117</v>
       </c>
@@ -7420,7 +7436,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>206</v>
       </c>
@@ -7444,7 +7460,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>114</v>
       </c>
@@ -7489,7 +7505,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>95</v>
       </c>
@@ -7510,7 +7526,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>130</v>
       </c>
@@ -7531,7 +7547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>389</v>
       </c>
@@ -7555,7 +7571,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>206</v>
       </c>
@@ -7579,7 +7595,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="325" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
         <v>1</v>
       </c>
@@ -7587,7 +7605,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
         <v>2</v>
       </c>
@@ -7595,7 +7613,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>3</v>
       </c>
@@ -7603,7 +7621,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -7611,7 +7629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -7619,7 +7637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>7</v>
       </c>
@@ -7627,7 +7645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7635,7 +7653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>9</v>
       </c>
@@ -7646,7 +7664,7 @@
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -7672,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="str">
         <f>B325</f>
         <v>perovskite cell deposition</v>
@@ -7696,7 +7714,7 @@
         <v>deposited perovskite cell</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>223</v>
       </c>
@@ -7717,7 +7735,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>51</v>
       </c>
@@ -7738,7 +7756,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>444</v>
       </c>
@@ -7762,7 +7780,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>266</v>
       </c>
@@ -7783,7 +7801,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>260</v>
       </c>
@@ -7804,7 +7822,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>117</v>
       </c>
@@ -7828,7 +7846,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>261</v>
       </c>
@@ -7849,7 +7867,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>269</v>
       </c>
@@ -7870,7 +7888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>252</v>
       </c>
@@ -7891,7 +7909,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>242</v>
       </c>
@@ -7912,7 +7930,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>262</v>
       </c>
@@ -7933,7 +7951,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>252</v>
       </c>
@@ -7954,7 +7972,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>266</v>
       </c>
@@ -7975,7 +7993,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>266</v>
       </c>
@@ -7996,7 +8014,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>263</v>
       </c>
@@ -8017,7 +8035,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>264</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>261</v>
       </c>
@@ -8059,7 +8077,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>252</v>
       </c>
@@ -8080,7 +8098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>266</v>
       </c>
@@ -8101,7 +8119,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>260</v>
       </c>
@@ -8122,7 +8140,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>106</v>
       </c>
@@ -8143,7 +8161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>261</v>
       </c>
@@ -8164,7 +8182,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>252</v>
       </c>
@@ -8185,7 +8203,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>261</v>
       </c>
@@ -8206,7 +8224,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>266</v>
       </c>
@@ -8227,7 +8245,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>114</v>
       </c>
@@ -8251,7 +8269,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>95</v>
       </c>
@@ -8272,7 +8290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>130</v>
       </c>
@@ -8293,7 +8311,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>389</v>
       </c>
@@ -8317,7 +8335,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>206</v>
       </c>
@@ -8341,7 +8359,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>206</v>
       </c>
@@ -8365,7 +8383,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>1</v>
       </c>
@@ -8373,7 +8393,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5" t="s">
         <v>2</v>
       </c>
@@ -8381,7 +8401,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3</v>
       </c>
@@ -8389,7 +8409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -8397,7 +8417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -8405,7 +8425,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>7</v>
       </c>
@@ -8413,7 +8433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>8</v>
       </c>
@@ -8421,7 +8441,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>9</v>
       </c>
@@ -8432,7 +8452,7 @@
       <c r="F375" s="1"/>
       <c r="G375" s="1"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -8458,7 +8478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="str">
         <f>B368</f>
         <v>perovskite cell curing 1</v>
@@ -8482,7 +8502,7 @@
         <v>cured perovskite cell 1</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>258</v>
       </c>
@@ -8503,7 +8523,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>51</v>
       </c>
@@ -8524,7 +8544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>206</v>
       </c>
@@ -8548,7 +8568,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>114</v>
       </c>
@@ -8572,7 +8592,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>95</v>
       </c>
@@ -8593,7 +8613,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>130</v>
       </c>
@@ -8614,7 +8634,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>206</v>
       </c>
@@ -8638,7 +8658,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>389</v>
       </c>
@@ -8662,7 +8682,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="388" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>1</v>
       </c>
@@ -8670,7 +8692,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
         <v>2</v>
       </c>
@@ -8678,7 +8700,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3</v>
       </c>
@@ -8686,7 +8708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -8694,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -8702,7 +8724,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>7</v>
       </c>
@@ -8710,7 +8732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -8718,7 +8740,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>9</v>
       </c>
@@ -8729,7 +8751,7 @@
       <c r="F395" s="1"/>
       <c r="G395" s="1"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>10</v>
       </c>
@@ -8755,7 +8777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="str">
         <f>B388</f>
         <v>perovskite cell zinc oxide deposition</v>
@@ -8779,7 +8801,7 @@
         <v>zinc oxide deposited perovskite cell</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>286</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>278</v>
       </c>
@@ -8821,7 +8843,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>115</v>
       </c>
@@ -8845,7 +8867,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>145</v>
       </c>
@@ -8869,7 +8891,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>117</v>
       </c>
@@ -8893,7 +8915,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>51</v>
       </c>
@@ -8914,7 +8936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>206</v>
       </c>
@@ -8938,7 +8960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -8962,7 +8984,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>95</v>
       </c>
@@ -8983,7 +9005,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>130</v>
       </c>
@@ -9004,7 +9026,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>389</v>
       </c>
@@ -9028,7 +9050,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>206</v>
       </c>
@@ -9052,7 +9074,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="412" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
         <v>1</v>
       </c>
@@ -9060,7 +9084,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5" t="s">
         <v>2</v>
       </c>
@@ -9068,7 +9092,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3</v>
       </c>
@@ -9076,7 +9100,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -9084,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>6</v>
       </c>
@@ -9092,7 +9116,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -9100,7 +9124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -9108,7 +9132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
         <v>9</v>
       </c>
@@ -9119,7 +9143,7 @@
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
         <v>10</v>
       </c>
@@ -9145,7 +9169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
         <f>B412</f>
         <v>sputter process 3, perovskite cell</v>
@@ -9169,7 +9193,7 @@
         <v>perovskite cell, sputtered 3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>276</v>
       </c>
@@ -9190,7 +9214,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>217</v>
       </c>
@@ -9211,7 +9235,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>115</v>
       </c>
@@ -9235,7 +9259,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>145</v>
       </c>
@@ -9259,7 +9283,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>117</v>
       </c>
@@ -9283,7 +9307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>51</v>
       </c>
@@ -9304,7 +9328,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>206</v>
       </c>
@@ -9328,7 +9352,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>114</v>
       </c>
@@ -9352,7 +9376,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>95</v>
       </c>
@@ -9373,7 +9397,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>130</v>
       </c>
@@ -9394,7 +9418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>206</v>
       </c>
@@ -9418,7 +9442,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>389</v>
       </c>
@@ -9442,7 +9466,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="436" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>1</v>
       </c>
@@ -9450,7 +9476,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5" t="s">
         <v>2</v>
       </c>
@@ -9458,7 +9484,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3</v>
       </c>
@@ -9466,7 +9492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -9474,7 +9500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>6</v>
       </c>
@@ -9482,7 +9508,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -9490,7 +9516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9498,7 +9524,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
         <v>9</v>
       </c>
@@ -9509,7 +9535,7 @@
       <c r="F443" s="1"/>
       <c r="G443" s="1"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
         <v>10</v>
       </c>
@@ -9535,7 +9561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="str">
         <f>B436</f>
         <v>perovskite cell contact formation</v>
@@ -9559,7 +9585,7 @@
         <v>metallized perovskite cell</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>283</v>
       </c>
@@ -9580,7 +9606,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>250</v>
       </c>
@@ -9601,7 +9627,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>291</v>
       </c>
@@ -9622,7 +9648,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>51</v>
       </c>
@@ -9643,7 +9669,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>147</v>
       </c>
@@ -9664,7 +9690,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>292</v>
       </c>
@@ -9685,7 +9711,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>293</v>
       </c>
@@ -9706,7 +9732,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>94</v>
       </c>
@@ -9727,7 +9753,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>294</v>
       </c>
@@ -9748,7 +9774,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>295</v>
       </c>
@@ -9769,7 +9795,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>307</v>
       </c>
@@ -9790,7 +9816,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>296</v>
       </c>
@@ -9811,7 +9837,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>297</v>
       </c>
@@ -9832,7 +9858,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>114</v>
       </c>
@@ -9856,7 +9882,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>95</v>
       </c>
@@ -9877,7 +9903,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>130</v>
       </c>
@@ -9898,7 +9924,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>436</v>
       </c>
@@ -9919,7 +9945,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>298</v>
       </c>
@@ -9940,7 +9966,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>389</v>
       </c>
@@ -9964,7 +9990,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="467" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
         <v>1</v>
       </c>
@@ -9972,7 +10000,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5" t="s">
         <v>2</v>
       </c>
@@ -9980,7 +10008,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>3</v>
       </c>
@@ -9988,7 +10016,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -9996,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>6</v>
       </c>
@@ -10004,7 +10032,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -10012,7 +10040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>8</v>
       </c>
@@ -10020,7 +10048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
         <v>9</v>
       </c>
@@ -10031,7 +10059,7 @@
       <c r="F474" s="1"/>
       <c r="G474" s="1"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
         <v>10</v>
       </c>
@@ -10057,7 +10085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" t="str">
         <f>B467</f>
         <v>perovskite cell curing 2</v>
@@ -10081,7 +10109,7 @@
         <v>cured perovskite cell 2</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>289</v>
       </c>
@@ -10102,7 +10130,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>51</v>
       </c>
@@ -10123,7 +10151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>114</v>
       </c>
@@ -10147,7 +10175,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>95</v>
       </c>
@@ -10168,7 +10196,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>130</v>
       </c>
@@ -10189,7 +10217,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>389</v>
       </c>
@@ -10213,7 +10241,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>144</v>
       </c>
@@ -10237,7 +10265,9 @@
         <v>310</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="486" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
         <v>1</v>
       </c>
@@ -10245,7 +10275,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5" t="s">
         <v>2</v>
       </c>
@@ -10253,7 +10283,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>3</v>
       </c>
@@ -10261,7 +10291,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -10269,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -10277,7 +10307,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -10285,7 +10315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>8</v>
       </c>
@@ -10293,7 +10323,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
         <v>9</v>
       </c>
@@ -10304,7 +10334,7 @@
       <c r="F493" s="1"/>
       <c r="G493" s="1"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
@@ -10330,7 +10360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="str">
         <f>B486</f>
         <v>photovoltaic cell production, perovskite</v>
@@ -10354,7 +10384,7 @@
         <v>photovoltaic cell, perovskite</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>308</v>
       </c>
@@ -10375,7 +10405,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>51</v>
       </c>
@@ -10396,7 +10426,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>114</v>
       </c>
@@ -10420,7 +10450,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>95</v>
       </c>
@@ -10441,7 +10471,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>130</v>
       </c>
@@ -10462,7 +10492,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="502" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>1</v>
       </c>
@@ -10470,7 +10501,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5" t="s">
         <v>2</v>
       </c>
@@ -10478,7 +10509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>3</v>
       </c>
@@ -10486,7 +10517,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -10494,7 +10525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>6</v>
       </c>
@@ -10502,7 +10533,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -10510,7 +10541,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>8</v>
       </c>
@@ -10518,7 +10549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
         <v>9</v>
       </c>
@@ -10529,7 +10560,7 @@
       <c r="F509" s="1"/>
       <c r="G509" s="1"/>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
         <v>10</v>
       </c>
@@ -10555,7 +10586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="str">
         <f>B502</f>
         <v>perovskite photovoltaic module assembly</v>
@@ -10578,7 +10609,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>345</v>
       </c>
@@ -10598,7 +10629,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>307</v>
       </c>
@@ -10621,7 +10652,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>329</v>
       </c>
@@ -10644,7 +10675,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>330</v>
       </c>
@@ -10667,7 +10698,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>332</v>
       </c>
@@ -10690,7 +10721,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>334</v>
       </c>
@@ -10713,7 +10744,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>317</v>
       </c>
@@ -10733,7 +10764,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>330</v>
       </c>
@@ -10756,7 +10787,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>51</v>
       </c>
@@ -10779,7 +10810,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>55</v>
       </c>
@@ -10802,7 +10833,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>336</v>
       </c>
@@ -10825,7 +10856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>323</v>
       </c>
@@ -10845,7 +10876,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>324</v>
       </c>
@@ -10865,7 +10896,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>325</v>
       </c>
@@ -10885,7 +10916,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>326</v>
       </c>
@@ -10905,7 +10936,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>327</v>
       </c>
@@ -10925,7 +10956,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>84</v>
       </c>
@@ -10945,7 +10976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>330</v>
       </c>
@@ -10968,7 +10999,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>51</v>
       </c>
@@ -10991,7 +11022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>55</v>
       </c>
@@ -11014,7 +11045,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>51</v>
       </c>
@@ -11037,7 +11068,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>206</v>
       </c>
@@ -11060,7 +11091,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>114</v>
       </c>
@@ -11083,7 +11114,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>449</v>
       </c>
@@ -11103,7 +11134,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>328</v>
       </c>
@@ -11123,7 +11154,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>95</v>
       </c>
@@ -11143,7 +11174,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>130</v>
       </c>
@@ -11163,7 +11194,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>206</v>
       </c>
@@ -11186,7 +11217,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2" t="s">
         <v>1</v>
       </c>
@@ -11194,7 +11227,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5" t="s">
         <v>2</v>
       </c>
@@ -11202,7 +11235,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>3</v>
       </c>
@@ -11210,7 +11243,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -11218,7 +11251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>6</v>
       </c>
@@ -11226,7 +11259,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>7</v>
       </c>
@@ -11234,7 +11267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>8</v>
       </c>
@@ -11242,7 +11275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
         <v>9</v>
       </c>
@@ -11253,7 +11286,7 @@
       <c r="F549" s="1"/>
       <c r="G549" s="1"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
         <v>10</v>
       </c>
@@ -11279,7 +11312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="str">
         <f>B542</f>
         <v>photovoltaic panel installation, 0.5kWp, perovskite</v>
@@ -11303,7 +11336,7 @@
         <v>photovoltaic panel, perovskite</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>457</v>
       </c>
@@ -11326,7 +11359,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>349</v>
       </c>
@@ -11347,7 +11380,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>350</v>
       </c>
@@ -11368,7 +11401,8 @@
         <v>351</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="556" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
         <v>1</v>
       </c>
@@ -11376,7 +11410,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5" t="s">
         <v>2</v>
       </c>
@@ -11384,7 +11418,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>3</v>
       </c>
@@ -11392,7 +11426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -11400,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>6</v>
       </c>
@@ -11408,7 +11442,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>7</v>
       </c>
@@ -11416,7 +11450,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>8</v>
       </c>
@@ -11424,7 +11458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
         <v>9</v>
       </c>
@@ -11435,7 +11469,7 @@
       <c r="F563" s="1"/>
       <c r="G563" s="1"/>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
         <v>10</v>
       </c>
@@ -11473,7 +11507,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="str">
         <f>B556</f>
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
@@ -11498,7 +11532,7 @@
         <v>electricity production, photovoltaic, 0.5kWp, perovskite-on-silicon tandem</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>456</v>
       </c>
@@ -11534,7 +11568,8 @@
         <v>1.0869565217391305E-4</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="568" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2" t="s">
         <v>1</v>
       </c>
@@ -11542,7 +11577,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5" t="s">
         <v>2</v>
       </c>
@@ -11550,7 +11585,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>3</v>
       </c>
@@ -11558,7 +11593,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -11566,7 +11601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -11574,7 +11609,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>7</v>
       </c>
@@ -11582,7 +11617,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>8</v>
       </c>
@@ -11590,7 +11625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
         <v>9</v>
       </c>
@@ -11601,7 +11636,7 @@
       <c r="F575" s="1"/>
       <c r="G575" s="1"/>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
         <v>10</v>
       </c>
@@ -11627,7 +11662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="str">
         <f>B568</f>
         <v>exhaust abatement, for perovskite</v>
@@ -11655,7 +11690,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>106</v>
       </c>
@@ -11675,7 +11710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>100</v>
       </c>
@@ -11695,7 +11730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>51</v>
       </c>
@@ -11719,7 +11754,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>113</v>
       </c>
@@ -11742,7 +11777,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>379</v>
       </c>
@@ -11765,7 +11800,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>114</v>
       </c>
@@ -11788,7 +11823,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>385</v>
       </c>
@@ -11808,7 +11843,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>386</v>
       </c>
@@ -11828,7 +11863,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>387</v>
       </c>
@@ -11848,7 +11883,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>388</v>
       </c>
@@ -11868,7 +11903,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="590" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
         <v>1</v>
       </c>
@@ -11876,7 +11913,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5" t="s">
         <v>2</v>
       </c>
@@ -11884,7 +11921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>3</v>
       </c>
@@ -11892,7 +11929,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -11900,7 +11937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>6</v>
       </c>
@@ -11908,7 +11945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>7</v>
       </c>
@@ -11916,7 +11953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>8</v>
       </c>
@@ -11924,7 +11961,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
         <v>9</v>
       </c>
@@ -11935,7 +11972,7 @@
       <c r="F597" s="1"/>
       <c r="G597" s="1"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
         <v>10</v>
       </c>
@@ -11961,7 +11998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="str">
         <f>B590</f>
         <v>tray cleaning, for perovskite</v>
@@ -11987,7 +12024,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>354</v>
       </c>
@@ -12011,7 +12048,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>100</v>
       </c>
@@ -12032,7 +12069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>51</v>
       </c>
@@ -12056,7 +12093,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>356</v>
       </c>
@@ -12080,7 +12117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>93</v>
       </c>
@@ -12101,7 +12138,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>358</v>
       </c>
@@ -12122,7 +12159,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>399</v>
       </c>
@@ -12146,7 +12183,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="609" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
         <v>1</v>
       </c>
@@ -12154,7 +12193,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5" t="s">
         <v>2</v>
       </c>
@@ -12162,7 +12201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>3</v>
       </c>
@@ -12170,7 +12209,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -12178,7 +12217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>6</v>
       </c>
@@ -12186,7 +12225,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>7</v>
       </c>
@@ -12194,7 +12233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>8</v>
       </c>
@@ -12202,7 +12241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
         <v>9</v>
       </c>
@@ -12213,7 +12252,7 @@
       <c r="F616" s="1"/>
       <c r="G616" s="1"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
         <v>10</v>
       </c>
@@ -12239,7 +12278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="str">
         <f>B609</f>
         <v>ultrapure water system activity, for perovskite</v>
@@ -12265,7 +12304,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>51</v>
       </c>
@@ -12289,7 +12328,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>356</v>
       </c>
@@ -12313,7 +12352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>114</v>
       </c>
@@ -12337,7 +12376,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>359</v>
       </c>
@@ -12358,7 +12397,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>252</v>
       </c>
@@ -12382,7 +12421,9 @@
         <v>361</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="626" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>1</v>
       </c>
@@ -12390,7 +12431,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5" t="s">
         <v>2</v>
       </c>
@@ -12398,7 +12439,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>3</v>
       </c>
@@ -12406,7 +12447,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -12414,7 +12455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>6</v>
       </c>
@@ -12422,7 +12463,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>7</v>
       </c>
@@ -12430,7 +12471,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>8</v>
       </c>
@@ -12438,7 +12479,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
         <v>9</v>
       </c>
@@ -12449,7 +12490,7 @@
       <c r="F633" s="1"/>
       <c r="G633" s="1"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
         <v>10</v>
       </c>
@@ -12475,7 +12516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" t="str">
         <f>B626</f>
         <v>inhouse waste water treatment, for perovskite production</v>
@@ -12502,7 +12543,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>104</v>
       </c>
@@ -12526,7 +12567,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>100</v>
       </c>
@@ -12546,7 +12587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>25</v>
       </c>
@@ -12570,7 +12611,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>364</v>
       </c>
@@ -12590,7 +12631,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>365</v>
       </c>
@@ -12610,7 +12651,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>366</v>
       </c>
@@ -12630,7 +12671,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>51</v>
       </c>
@@ -12654,7 +12695,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -12678,7 +12719,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>356</v>
       </c>
@@ -12701,7 +12742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>252</v>
       </c>
@@ -12724,7 +12765,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>370</v>
       </c>
@@ -12745,7 +12786,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>399</v>
       </c>
@@ -12769,7 +12810,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>402</v>
       </c>
@@ -12792,7 +12833,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="651" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2" t="s">
         <v>1</v>
       </c>
@@ -12800,7 +12843,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5" t="s">
         <v>2</v>
       </c>
@@ -12808,7 +12851,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>3</v>
       </c>
@@ -12816,7 +12859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -12824,7 +12867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>6</v>
       </c>
@@ -12832,7 +12875,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>7</v>
       </c>
@@ -12840,7 +12883,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>8</v>
       </c>
@@ -12848,7 +12891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
         <v>9</v>
       </c>
@@ -12859,7 +12902,7 @@
       <c r="F658" s="1"/>
       <c r="G658" s="1"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
         <v>10</v>
       </c>
@@ -12885,7 +12928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="str">
         <f>B651</f>
         <v>process cooling, water, for perovskite</v>
@@ -12911,7 +12954,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>252</v>
       </c>
@@ -12934,7 +12977,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>51</v>
       </c>
@@ -12955,7 +12998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>356</v>
       </c>
@@ -12978,7 +13021,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="665" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
         <v>1</v>
       </c>
@@ -12986,7 +13030,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5" t="s">
         <v>2</v>
       </c>
@@ -12994,7 +13038,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>3</v>
       </c>
@@ -13002,7 +13046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -13010,7 +13054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>6</v>
       </c>
@@ -13018,7 +13062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>7</v>
       </c>
@@ -13026,7 +13070,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>8</v>
       </c>
@@ -13034,7 +13078,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
         <v>9</v>
       </c>
@@ -13045,7 +13089,7 @@
       <c r="F672" s="1"/>
       <c r="G672" s="1"/>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>10</v>
       </c>
@@ -13071,7 +13115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" t="str">
         <f>B665</f>
         <v>process cooling, water, for perovskite</v>
@@ -13098,7 +13142,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="677" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
         <v>1</v>
       </c>
@@ -13106,7 +13152,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5" t="s">
         <v>2</v>
       </c>
@@ -13114,7 +13160,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>3</v>
       </c>
@@ -13122,7 +13168,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -13130,7 +13176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>6</v>
       </c>
@@ -13138,7 +13184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>7</v>
       </c>
@@ -13146,7 +13192,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>8</v>
       </c>
@@ -13154,7 +13200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
         <v>9</v>
       </c>
@@ -13165,7 +13211,7 @@
       <c r="F684" s="1"/>
       <c r="G684" s="1"/>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
         <v>10</v>
       </c>
@@ -13191,7 +13237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" t="str">
         <f>B677</f>
         <v>air compressor activity, for perovskite</v>
@@ -13217,7 +13263,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>372</v>
       </c>
@@ -13240,7 +13286,9 @@
         <v>374</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="690" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>1</v>
       </c>
@@ -13248,7 +13296,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5" t="s">
         <v>2</v>
       </c>
@@ -13256,7 +13304,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>3</v>
       </c>
@@ -13264,7 +13312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -13272,7 +13320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>6</v>
       </c>
@@ -13280,7 +13328,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>7</v>
       </c>
@@ -13288,7 +13336,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>8</v>
       </c>
@@ -13296,7 +13344,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
         <v>9</v>
       </c>
@@ -13307,7 +13355,7 @@
       <c r="F697" s="1"/>
       <c r="G697" s="1"/>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
         <v>10</v>
       </c>
@@ -13333,7 +13381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" t="str">
         <f>B690</f>
         <v>process exhaust ventilators, general, for perovskite production</v>
@@ -13359,7 +13407,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>391</v>
       </c>
@@ -13379,7 +13427,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>392</v>
       </c>
@@ -13399,7 +13447,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>51</v>
       </c>
@@ -13420,7 +13468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>398</v>
       </c>
@@ -13440,7 +13488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>190</v>
       </c>
@@ -13460,7 +13508,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>76</v>
       </c>
@@ -13480,7 +13528,9 @@
         <v>397</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="708" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2" t="s">
         <v>1</v>
       </c>
@@ -13488,7 +13538,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5" t="s">
         <v>2</v>
       </c>
@@ -13496,7 +13546,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>3</v>
       </c>
@@ -13504,7 +13554,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -13512,7 +13562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>6</v>
       </c>
@@ -13520,7 +13570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -13528,7 +13578,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>8</v>
       </c>
@@ -13536,7 +13586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
         <v>9</v>
       </c>
@@ -13547,7 +13597,7 @@
       <c r="F715" s="1"/>
       <c r="G715" s="1"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
         <v>10</v>
       </c>
@@ -13573,7 +13623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" t="str">
         <f>B708</f>
         <v>process exhaust ventilators, acidic, for perovskite production</v>
@@ -13599,7 +13649,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>391</v>
       </c>
@@ -13619,7 +13669,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>392</v>
       </c>
@@ -13639,7 +13689,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>51</v>
       </c>
@@ -13660,7 +13710,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>398</v>
       </c>
@@ -13680,7 +13730,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>190</v>
       </c>
@@ -13700,7 +13750,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>76</v>
       </c>
@@ -13720,7 +13770,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>25</v>
       </c>
@@ -13744,7 +13794,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>51</v>
       </c>
@@ -13765,7 +13815,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>100</v>
       </c>
@@ -13785,7 +13835,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="729" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2" t="s">
         <v>1</v>
       </c>
@@ -13793,7 +13845,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5" t="s">
         <v>2</v>
       </c>
@@ -13801,7 +13853,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>3</v>
       </c>
@@ -13809,7 +13861,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -13817,7 +13869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>6</v>
       </c>
@@ -13825,7 +13877,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>7</v>
       </c>
@@ -13833,7 +13885,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>8</v>
       </c>
@@ -13841,7 +13893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
         <v>9</v>
       </c>
@@ -13852,7 +13904,7 @@
       <c r="F736" s="1"/>
       <c r="G736" s="1"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
         <v>10</v>
       </c>
@@ -13878,7 +13930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" t="str">
         <f>B729</f>
         <v>process exhaust ventilators, caustic, for perovskite production</v>
@@ -13904,7 +13956,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>391</v>
       </c>
@@ -13924,7 +13976,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>392</v>
       </c>
@@ -13944,7 +13996,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>51</v>
       </c>
@@ -13965,7 +14017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>398</v>
       </c>
@@ -13985,7 +14037,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>190</v>
       </c>
@@ -14005,7 +14057,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>76</v>
       </c>
@@ -14025,7 +14077,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>231</v>
       </c>
@@ -14049,7 +14101,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>51</v>
       </c>
@@ -14070,7 +14122,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>100</v>
       </c>
@@ -14091,7 +14143,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H747" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="market for silicon tetrachloride"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
